--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/559a6546c7b07495/Lycée/2021-2022 Paul Eluard/Lieux_de_Stages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{D8F71D82-BFB9-4E32-A3FC-DD9463AD5EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13AA08E3-AF15-4998-BDDE-B0E53542F2C1}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{D8F71D82-BFB9-4E32-A3FC-DD9463AD5EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36E2CFD4-EC1F-41A1-9F20-F38A30FCC1CA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="650">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -176,22 +176,7 @@
     <t>Restauration</t>
   </si>
   <si>
-    <t>Chimie</t>
-  </si>
-  <si>
     <t>Médical</t>
-  </si>
-  <si>
-    <t>Génétique</t>
-  </si>
-  <si>
-    <t>Fermentations</t>
-  </si>
-  <si>
-    <t>Microbiologie</t>
-  </si>
-  <si>
-    <t>Environnement</t>
   </si>
   <si>
     <t>Cosmétique</t>
@@ -1097,9 +1082,6 @@
   </si>
   <si>
     <t>claire.gasquet@suntory.com</t>
-  </si>
-  <si>
-    <t>Accréditation</t>
   </si>
   <si>
     <t>AFNOR</t>
@@ -2637,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO256"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AT104" sqref="AT104"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,7 +2743,7 @@
         <v>4</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>29</v>
@@ -2790,34 +2772,34 @@
         <v>16</v>
       </c>
       <c r="BF1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ1" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="BK1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="BL1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BM1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BN1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BO1" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="BJ1" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="BK1" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="BL1" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="BM1" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="BN1" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="BO1" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="BP1" s="8" t="s">
         <v>39</v>
@@ -2886,13 +2868,13 @@
     </row>
     <row r="2" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D2" s="14" t="str">
         <f t="shared" ref="D2:D32" si="0">IF(BF2&lt;&gt;0,";2022_BioQ1="&amp;BF2," ")&amp;IF(BG2&lt;&gt;0," ; 2022_BioQ2="&amp;BG2," ")&amp;IF(BH2&lt;&gt;0,";2021_BioQ1="&amp;BH2," ")&amp;IF(BI2&lt;&gt;0," ; 2021_QIAB2="&amp;BI2," ")&amp;IF(BJ2&lt;&gt;0,";2020_QIAB1="&amp;BJ2," ")&amp;IF(BK2&lt;&gt;0," ; 2020_QIAB2="&amp;BK2," ")&amp;IF(BL2&lt;&gt;0,";2019_QIAB1="&amp;BL2," ")&amp;IF(BM2&lt;&gt;0," ; 2019_QIAB2="&amp;BM2," ")&amp;IF(BN2&lt;&gt;0,";2018_QIAB1="&amp;BN2," ")&amp;IF(BO2&lt;&gt;0," ; 2018_QIAB2="&amp;BO2," ")&amp;IF(BP2&lt;&gt;0," ; 2017_QIAB1="&amp;BP2," ")&amp;IF(BQ2&lt;&gt;0," ; 2017_QIAB2="&amp;BQ2," ")&amp;IF(BR2&lt;&gt;0," ; 2016_QIAB1="&amp;BR2," ")&amp;IF(BS2&lt;&gt;0," ; 2016_QIAB2="&amp;BS2," ")&amp;IF(BT2&lt;&gt;0," ; 2015_QIAB1="&amp;BT2," ")&amp;IF(BU2&lt;&gt;0," ; 2015_QIAB2="&amp;BU2," ")&amp;IF(BV2&lt;&gt;0," ; 2014_QIAB1="&amp;BV2," ")&amp;IF(BW2&lt;&gt;0," ; 2014_QIAB2="&amp;BW2," ")</f>
@@ -2935,22 +2917,22 @@
       <c r="AM2" s="15"/>
       <c r="AN2" s="15"/>
       <c r="AO2" s="24" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AP2" s="24" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AQ2" s="26">
         <v>93571</v>
       </c>
       <c r="AR2" s="27" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AS2" s="19" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AT2" s="19" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="AU2" s="21"/>
       <c r="AW2" s="15"/>
@@ -3062,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D3" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3108,22 +3090,22 @@
       <c r="AM3" s="15"/>
       <c r="AN3" s="15"/>
       <c r="AO3" s="24" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AP3" s="24" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AQ3" s="26">
         <v>77290</v>
       </c>
       <c r="AR3" s="27" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AS3" s="19" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AT3" s="19" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="AU3" s="21"/>
       <c r="AW3" s="15"/>
@@ -3239,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3285,22 +3267,22 @@
       <c r="AM4" s="15"/>
       <c r="AN4" s="15"/>
       <c r="AO4" s="24" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AP4" s="24" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AQ4" s="26">
         <v>95140</v>
       </c>
       <c r="AR4" s="27" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AS4" s="19" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AT4" s="19" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="AU4" s="21"/>
       <c r="AW4" s="15"/>
@@ -3412,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3458,22 +3440,22 @@
       <c r="AM5" s="15"/>
       <c r="AN5" s="15"/>
       <c r="AO5" s="24" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AP5" s="24" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AQ5" s="26">
         <v>77164</v>
       </c>
       <c r="AR5" s="27" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="AS5" s="19" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="AT5" s="19" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AU5" s="21"/>
       <c r="AW5" s="15"/>
@@ -3580,15 +3562,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3631,20 +3613,20 @@
       <c r="AM6" s="15"/>
       <c r="AN6" s="15"/>
       <c r="AO6" s="24" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AP6" s="24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AQ6" s="26">
         <v>93541</v>
       </c>
       <c r="AR6" s="27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AS6" s="19"/>
       <c r="AT6" s="19" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="AU6" s="21"/>
       <c r="AW6" s="15"/>
@@ -3751,15 +3733,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3802,20 +3784,20 @@
       <c r="AM7" s="15"/>
       <c r="AN7" s="15"/>
       <c r="AO7" s="24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AP7" s="24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AQ7" s="26">
         <v>93800</v>
       </c>
       <c r="AR7" s="27" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AS7" s="19"/>
       <c r="AT7" s="19" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="AU7" s="21"/>
       <c r="AW7" s="15"/>
@@ -3922,15 +3904,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3973,22 +3955,22 @@
       <c r="AM8" s="15"/>
       <c r="AN8" s="15"/>
       <c r="AO8" s="24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AP8" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AQ8" s="26">
         <v>93230</v>
       </c>
       <c r="AR8" s="27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AS8" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AT8" s="19" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AU8" s="21"/>
       <c r="AW8" s="15"/>
@@ -4100,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4146,22 +4128,22 @@
       <c r="AM9" s="15"/>
       <c r="AN9" s="15"/>
       <c r="AO9" s="24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AP9" s="24" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AQ9" s="26">
         <v>91700</v>
       </c>
       <c r="AR9" s="27" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AS9" s="19" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AT9" s="19" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AU9" s="21"/>
       <c r="AW9" s="15"/>
@@ -4268,15 +4250,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4319,7 +4301,7 @@
       <c r="AM10" s="15"/>
       <c r="AN10" s="15"/>
       <c r="AO10" s="24" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AP10" s="24" t="s">
         <v>34</v>
@@ -4328,13 +4310,13 @@
         <v>93200</v>
       </c>
       <c r="AR10" s="27" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AS10" s="19" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AT10" s="19" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="AU10" s="21"/>
       <c r="AW10" s="15"/>
@@ -4443,15 +4425,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4494,22 +4476,22 @@
       <c r="AM11" s="15"/>
       <c r="AN11" s="15"/>
       <c r="AO11" s="24" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AP11" s="24" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AQ11" s="26">
         <v>77270</v>
       </c>
       <c r="AR11" s="27" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AS11" s="19" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AT11" s="19" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AU11" s="21"/>
       <c r="AW11" s="15"/>
@@ -4618,15 +4600,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4669,7 +4651,7 @@
       <c r="AM12" s="15"/>
       <c r="AN12" s="15"/>
       <c r="AO12" s="24" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AP12" s="24" t="s">
         <v>34</v>
@@ -4678,13 +4660,13 @@
         <v>93200</v>
       </c>
       <c r="AR12" s="27" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AS12" s="19" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AT12" s="19" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AU12" s="21"/>
       <c r="AW12" s="15"/>
@@ -4791,15 +4773,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4842,22 +4824,22 @@
       <c r="AM13" s="15"/>
       <c r="AN13" s="15"/>
       <c r="AO13" s="24" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AP13" s="24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AQ13" s="26">
         <v>92230</v>
       </c>
       <c r="AR13" s="27" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AS13" s="19" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AT13" s="19" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AU13" s="21"/>
       <c r="AW13" s="15"/>
@@ -4964,15 +4946,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D14" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5015,22 +4997,22 @@
       <c r="AM14" s="15"/>
       <c r="AN14" s="15"/>
       <c r="AO14" s="24" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AP14" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ14" s="26">
         <v>75014</v>
       </c>
       <c r="AR14" s="27" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AS14" s="19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AT14" s="19" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AU14" s="21"/>
       <c r="AW14" s="15"/>
@@ -5139,15 +5121,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5190,22 +5172,22 @@
       <c r="AM15" s="15"/>
       <c r="AN15" s="15"/>
       <c r="AO15" s="24" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AP15" s="24" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AQ15" s="26">
         <v>91320</v>
       </c>
       <c r="AR15" s="27" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AS15" s="19" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AT15" s="19" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AU15" s="21"/>
       <c r="AW15" s="15"/>
@@ -5316,15 +5298,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5367,22 +5349,22 @@
       <c r="AM16" s="15"/>
       <c r="AN16" s="15"/>
       <c r="AO16" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AP16" s="24" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AQ16" s="26">
         <v>78410</v>
       </c>
       <c r="AR16" s="27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AS16" s="19" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AT16" s="19" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AU16" s="21"/>
       <c r="AW16" s="15"/>
@@ -5489,15 +5471,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5540,7 +5522,7 @@
       <c r="AM17" s="15"/>
       <c r="AN17" s="15"/>
       <c r="AO17" s="24" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AP17" s="24" t="s">
         <v>34</v>
@@ -5549,13 +5531,13 @@
         <v>93200</v>
       </c>
       <c r="AR17" s="27" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AS17" s="19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AT17" s="19" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AU17" s="21"/>
       <c r="AW17" s="15"/>
@@ -5662,15 +5644,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5713,22 +5695,22 @@
       <c r="AM18" s="15"/>
       <c r="AN18" s="15"/>
       <c r="AO18" s="24" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AP18" s="24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ18" s="26">
         <v>92390</v>
       </c>
       <c r="AR18" s="27" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AS18" s="19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AT18" s="19" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AU18" s="21"/>
       <c r="AW18" s="15"/>
@@ -5835,13 +5817,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5884,7 +5866,7 @@
       <c r="AM19" s="15"/>
       <c r="AN19" s="15"/>
       <c r="AO19" s="24" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AP19" s="24" t="s">
         <v>34</v>
@@ -5893,13 +5875,13 @@
         <v>93200</v>
       </c>
       <c r="AR19" s="27" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AS19" s="19" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AT19" s="19" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AU19" s="21"/>
       <c r="AW19" s="15"/>
@@ -6006,15 +5988,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6057,22 +6039,22 @@
       <c r="AM20" s="15"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AP20" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AQ20" s="26">
         <v>93300</v>
       </c>
       <c r="AR20" s="27" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AS20" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AT20" s="19" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AU20" s="21"/>
       <c r="AW20" s="15"/>
@@ -6179,13 +6161,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D21" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6228,22 +6210,22 @@
       <c r="AM21" s="15"/>
       <c r="AN21" s="15"/>
       <c r="AO21" s="24" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AP21" s="24" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AQ21" s="26">
         <v>93310</v>
       </c>
       <c r="AR21" s="27" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AS21" s="19" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AT21" s="19" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AU21" s="21"/>
       <c r="AW21" s="15"/>
@@ -6352,13 +6334,13 @@
     </row>
     <row r="22" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D22" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6401,22 +6383,22 @@
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
       <c r="AO22" s="24" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AP22" s="24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AQ22" s="26">
         <v>93140</v>
       </c>
       <c r="AR22" s="42" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AS22" s="19" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AT22" s="19" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AU22" s="21"/>
       <c r="AW22" s="15"/>
@@ -6527,13 +6509,13 @@
     </row>
     <row r="23" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D23" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6576,22 +6558,22 @@
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
       <c r="AO23" s="24" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AP23" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ23" s="26">
         <v>75001</v>
       </c>
       <c r="AR23" s="27" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AS23" s="19" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AT23" s="19" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AU23" s="21"/>
       <c r="AW23" s="15"/>
@@ -6698,15 +6680,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D24" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6749,22 +6731,22 @@
       <c r="AM24" s="15"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AP24" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ24" s="26">
         <v>75013</v>
       </c>
       <c r="AR24" s="27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AS24" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AT24" s="19" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AU24" s="21"/>
       <c r="AW24" s="15"/>
@@ -6871,13 +6853,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="13" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D25" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6920,22 +6902,22 @@
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
       <c r="AO25" s="24" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AP25" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ25" s="26">
         <v>75019</v>
       </c>
       <c r="AR25" s="27" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AS25" s="19" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AT25" s="19" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="AU25" s="21"/>
       <c r="AW25" s="15"/>
@@ -7044,13 +7026,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D26" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7093,22 +7075,22 @@
       <c r="AM26" s="15"/>
       <c r="AN26" s="15"/>
       <c r="AO26" s="24" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AP26" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ26" s="26">
         <v>75007</v>
       </c>
       <c r="AR26" s="42" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AS26" s="19" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AT26" s="19" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AU26" s="21"/>
       <c r="AW26" s="15"/>
@@ -7215,15 +7197,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D27" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7266,22 +7248,22 @@
       <c r="AM27" s="15"/>
       <c r="AN27" s="15"/>
       <c r="AO27" s="24" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AP27" s="24" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AQ27" s="26">
         <v>78300</v>
       </c>
       <c r="AR27" s="27" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AS27" s="19" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AT27" s="19" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="AU27" s="21"/>
       <c r="AW27" s="15"/>
@@ -7388,15 +7370,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D28" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7439,22 +7421,22 @@
       <c r="AM28" s="15"/>
       <c r="AN28" s="15"/>
       <c r="AO28" s="24" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AP28" s="24" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AQ28" s="26">
         <v>92140</v>
       </c>
       <c r="AR28" s="27" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AS28" s="19" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AT28" s="19" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="AU28" s="21"/>
       <c r="AW28" s="15"/>
@@ -7561,15 +7543,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D29" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7612,22 +7594,22 @@
       <c r="AM29" s="15"/>
       <c r="AN29" s="15"/>
       <c r="AO29" s="24" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AP29" s="24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AQ29" s="26">
         <v>92230</v>
       </c>
       <c r="AR29" s="27" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AS29" s="19" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AT29" s="19" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="AU29" s="21"/>
       <c r="AW29" s="15"/>
@@ -7734,15 +7716,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D30" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7785,10 +7767,10 @@
       <c r="AM30" s="15"/>
       <c r="AN30" s="15"/>
       <c r="AO30" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AP30" s="24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AQ30" s="26">
         <v>92000</v>
@@ -7796,7 +7778,7 @@
       <c r="AR30" s="27"/>
       <c r="AS30" s="19"/>
       <c r="AT30" s="19" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AU30" s="21"/>
       <c r="AW30" s="15"/>
@@ -7903,15 +7885,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D31" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7954,22 +7936,22 @@
       <c r="AM31" s="15"/>
       <c r="AN31" s="15"/>
       <c r="AO31" s="24" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AP31" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ31" s="26">
         <v>75020</v>
       </c>
       <c r="AR31" s="27" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AS31" s="19" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AT31" s="19" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AU31" s="21"/>
       <c r="AW31" s="15"/>
@@ -8081,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D32" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8127,22 +8109,22 @@
       <c r="AM32" s="15"/>
       <c r="AN32" s="15"/>
       <c r="AO32" s="24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AP32" s="24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AQ32" s="26">
         <v>93006</v>
       </c>
       <c r="AR32" s="27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AS32" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AT32" s="19" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AU32" s="21"/>
       <c r="AW32" s="15"/>
@@ -8251,15 +8233,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D33" s="14" t="str">
         <f t="shared" ref="D33:D64" si="19">IF(BF33&lt;&gt;0,";2022_BioQ1="&amp;BF33," ")&amp;IF(BG33&lt;&gt;0," ; 2022_BioQ2="&amp;BG33," ")&amp;IF(BH33&lt;&gt;0,";2021_BioQ1="&amp;BH33," ")&amp;IF(BI33&lt;&gt;0," ; 2021_QIAB2="&amp;BI33," ")&amp;IF(BJ33&lt;&gt;0,";2020_QIAB1="&amp;BJ33," ")&amp;IF(BK33&lt;&gt;0," ; 2020_QIAB2="&amp;BK33," ")&amp;IF(BL33&lt;&gt;0,";2019_QIAB1="&amp;BL33," ")&amp;IF(BM33&lt;&gt;0," ; 2019_QIAB2="&amp;BM33," ")&amp;IF(BN33&lt;&gt;0,";2018_QIAB1="&amp;BN33," ")&amp;IF(BO33&lt;&gt;0," ; 2018_QIAB2="&amp;BO33," ")&amp;IF(BP33&lt;&gt;0," ; 2017_QIAB1="&amp;BP33," ")&amp;IF(BQ33&lt;&gt;0," ; 2017_QIAB2="&amp;BQ33," ")&amp;IF(BR33&lt;&gt;0," ; 2016_QIAB1="&amp;BR33," ")&amp;IF(BS33&lt;&gt;0," ; 2016_QIAB2="&amp;BS33," ")&amp;IF(BT33&lt;&gt;0," ; 2015_QIAB1="&amp;BT33," ")&amp;IF(BU33&lt;&gt;0," ; 2015_QIAB2="&amp;BU33," ")&amp;IF(BV33&lt;&gt;0," ; 2014_QIAB1="&amp;BV33," ")&amp;IF(BW33&lt;&gt;0," ; 2014_QIAB2="&amp;BW33," ")</f>
@@ -8302,20 +8284,20 @@
       <c r="AM33" s="15"/>
       <c r="AN33" s="15"/>
       <c r="AO33" s="24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AP33" s="24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AQ33" s="26">
         <v>93000</v>
       </c>
       <c r="AR33" s="27" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AS33" s="19"/>
       <c r="AT33" s="19" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AU33" s="21"/>
       <c r="AW33" s="15"/>
@@ -8424,15 +8406,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D34" s="14" t="str">
         <f t="shared" si="19"/>
@@ -8475,22 +8457,22 @@
       <c r="AM34" s="15"/>
       <c r="AN34" s="15"/>
       <c r="AO34" s="24" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AP34" s="24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AQ34" s="26">
         <v>93240</v>
       </c>
       <c r="AR34" s="27" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AS34" s="19" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AT34" s="19" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AU34" s="21"/>
       <c r="AW34" s="15"/>
@@ -8601,15 +8583,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D35" s="14" t="str">
         <f t="shared" si="19"/>
@@ -8652,22 +8634,22 @@
       <c r="AM35" s="15"/>
       <c r="AN35" s="15"/>
       <c r="AO35" s="24" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AP35" s="24" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AQ35" s="26">
         <v>93320</v>
       </c>
       <c r="AR35" s="27" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AS35" s="19" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AT35" s="19" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AU35" s="21"/>
       <c r="AW35" s="15"/>
@@ -8774,15 +8756,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D36" s="14" t="str">
         <f t="shared" si="19"/>
@@ -8825,22 +8807,22 @@
       <c r="AM36" s="15"/>
       <c r="AN36" s="15"/>
       <c r="AO36" s="24" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AP36" s="24" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AQ36" s="26">
         <v>94201</v>
       </c>
       <c r="AR36" s="27" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AS36" s="19" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AT36" s="19" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AU36" s="21"/>
       <c r="AW36" s="15"/>
@@ -8952,10 +8934,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D37" s="14" t="str">
         <f t="shared" si="19"/>
@@ -8998,22 +8980,22 @@
       <c r="AM37" s="15"/>
       <c r="AN37" s="15"/>
       <c r="AO37" s="24" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="AP37" s="24" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AQ37" s="26">
         <v>78680</v>
       </c>
       <c r="AR37" s="27" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AS37" s="19" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AT37" s="19" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AU37" s="21"/>
       <c r="AW37" s="15"/>
@@ -9120,15 +9102,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D38" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9171,22 +9153,22 @@
       <c r="AM38" s="15"/>
       <c r="AN38" s="15"/>
       <c r="AO38" s="24" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AP38" s="24" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AQ38" s="26">
         <v>93160</v>
       </c>
       <c r="AR38" s="27" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AS38" s="19" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="AT38" s="19" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="AU38" s="21"/>
       <c r="AV38" s="22"/>
@@ -9298,15 +9280,15 @@
       <c r="CN38" s="22"/>
       <c r="CO38" s="22"/>
     </row>
-    <row r="39" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D39" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9349,22 +9331,22 @@
       <c r="AM39" s="15"/>
       <c r="AN39" s="15"/>
       <c r="AO39" s="24" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AP39" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ39" s="26">
         <v>75006</v>
       </c>
       <c r="AR39" s="27" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AS39" s="19" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AT39" s="19" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AU39" s="21"/>
       <c r="AW39" s="15"/>
@@ -9471,15 +9453,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D40" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9522,22 +9504,22 @@
       <c r="AM40" s="15"/>
       <c r="AN40" s="15"/>
       <c r="AO40" s="24" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AP40" s="24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AQ40" s="26">
         <v>93240</v>
       </c>
       <c r="AR40" s="27" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AS40" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AT40" s="19" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="AU40" s="21"/>
       <c r="AW40" s="15"/>
@@ -9644,15 +9626,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D41" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9695,22 +9677,22 @@
       <c r="AM41" s="15"/>
       <c r="AN41" s="15"/>
       <c r="AO41" s="24" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AP41" s="24" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AQ41" s="26">
         <v>95220</v>
       </c>
       <c r="AR41" s="42" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AS41" s="19" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AT41" s="19" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AU41" s="21"/>
       <c r="AV41" s="22"/>
@@ -9826,15 +9808,15 @@
       <c r="CN41" s="22"/>
       <c r="CO41" s="22"/>
     </row>
-    <row r="42" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D42" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9877,22 +9859,22 @@
       <c r="AM42" s="15"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="24" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AP42" s="24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AQ42" s="26">
         <v>93240</v>
       </c>
       <c r="AR42" s="27" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AS42" s="19" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AT42" s="19" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="AU42" s="21"/>
       <c r="AW42" s="15"/>
@@ -9999,15 +9981,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D43" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10050,22 +10032,22 @@
       <c r="AM43" s="15"/>
       <c r="AN43" s="15"/>
       <c r="AO43" s="24" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AP43" s="24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ43" s="26">
         <v>92390</v>
       </c>
       <c r="AR43" s="27" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AS43" s="19" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AT43" s="19" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AU43" s="21"/>
       <c r="AW43" s="15"/>
@@ -10172,15 +10154,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D44" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10223,22 +10205,22 @@
       <c r="AM44" s="15"/>
       <c r="AN44" s="15"/>
       <c r="AO44" s="24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AP44" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AQ44" s="26">
         <v>95400</v>
       </c>
       <c r="AR44" s="27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AS44" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AT44" s="19" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AU44" s="21"/>
       <c r="AV44" s="22"/>
@@ -10361,10 +10343,10 @@
         <v>11</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D45" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10407,22 +10389,22 @@
       <c r="AM45" s="15"/>
       <c r="AN45" s="15"/>
       <c r="AO45" s="24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AP45" s="24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AQ45" s="26">
         <v>93600</v>
       </c>
       <c r="AR45" s="27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AS45" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AT45" s="19" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AU45" s="21"/>
       <c r="AW45" s="15"/>
@@ -10529,15 +10511,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D46" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10580,22 +10562,22 @@
       <c r="AM46" s="15"/>
       <c r="AN46" s="15"/>
       <c r="AO46" s="24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AP46" s="24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AQ46" s="26">
         <v>93200</v>
       </c>
       <c r="AR46" s="42" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AS46" s="19" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AT46" s="19" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="AU46" s="21"/>
       <c r="AW46" s="15"/>
@@ -10706,15 +10688,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D47" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10757,22 +10739,22 @@
       <c r="AM47" s="15"/>
       <c r="AN47" s="15"/>
       <c r="AO47" s="24" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AP47" s="24" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="AQ47" s="26">
         <v>93130</v>
       </c>
       <c r="AR47" s="27" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AS47" s="19" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AT47" s="19" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="AU47" s="21"/>
       <c r="AV47" s="22"/>
@@ -10884,15 +10866,15 @@
       <c r="CN47" s="22"/>
       <c r="CO47" s="22"/>
     </row>
-    <row r="48" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D48" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10935,22 +10917,22 @@
       <c r="AM48" s="15"/>
       <c r="AN48" s="15"/>
       <c r="AO48" s="24" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AP48" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ48" s="26">
         <v>75012</v>
       </c>
       <c r="AR48" s="27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AS48" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AT48" s="19" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AU48" s="21"/>
       <c r="AW48" s="15"/>
@@ -11059,13 +11041,13 @@
     </row>
     <row r="49" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D49" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11108,22 +11090,22 @@
       <c r="AM49" s="15"/>
       <c r="AN49" s="15"/>
       <c r="AO49" s="24" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AP49" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ49" s="26">
         <v>75018</v>
       </c>
       <c r="AR49" s="42" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AS49" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AT49" s="19" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="AU49" s="21"/>
       <c r="AW49" s="15"/>
@@ -11234,13 +11216,13 @@
     </row>
     <row r="50" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D50" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11283,22 +11265,22 @@
       <c r="AM50" s="15"/>
       <c r="AN50" s="15"/>
       <c r="AO50" s="24" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AP50" s="24" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AQ50" s="26">
         <v>91480</v>
       </c>
       <c r="AR50" s="27" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AS50" s="19" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AT50" s="19" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="AU50" s="21"/>
       <c r="AV50" s="22"/>
@@ -11410,13 +11392,13 @@
       <c r="CN50" s="22"/>
       <c r="CO50" s="22"/>
     </row>
-    <row r="51" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="13" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D51" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11459,20 +11441,20 @@
       <c r="AM51" s="15"/>
       <c r="AN51" s="15"/>
       <c r="AO51" s="24" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AP51" s="24" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AQ51" s="26">
         <v>95107</v>
       </c>
       <c r="AR51" s="27" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AS51" s="19"/>
       <c r="AT51" s="19" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AU51" s="21"/>
       <c r="AW51" s="15"/>
@@ -11579,15 +11561,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D52" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11630,20 +11612,20 @@
       <c r="AM52" s="15"/>
       <c r="AN52" s="15"/>
       <c r="AO52" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AP52" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AQ52" s="26">
         <v>97109</v>
       </c>
       <c r="AR52" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AS52" s="19"/>
       <c r="AT52" s="19" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AU52" s="21"/>
       <c r="AW52" s="15"/>
@@ -11750,15 +11732,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D53" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11801,22 +11783,22 @@
       <c r="AM53" s="15"/>
       <c r="AN53" s="15"/>
       <c r="AO53" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AP53" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ53" s="26">
         <v>75015</v>
       </c>
       <c r="AR53" s="27" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AS53" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AT53" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="AU53" s="21"/>
       <c r="AV53" s="22"/>
@@ -11930,7 +11912,7 @@
     </row>
     <row r="54" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>43</v>
@@ -11994,7 +11976,7 @@
         <v>48</v>
       </c>
       <c r="AT54" s="20" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AU54" s="21"/>
       <c r="AW54" s="23"/>
@@ -12111,15 +12093,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D55" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12162,22 +12144,22 @@
       <c r="AM55" s="15"/>
       <c r="AN55" s="15"/>
       <c r="AO55" s="24" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AP55" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ55" s="26">
         <v>75010</v>
       </c>
       <c r="AR55" s="27" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AS55" s="19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AT55" s="19" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AU55" s="21"/>
       <c r="AW55" s="15"/>
@@ -12286,13 +12268,13 @@
     </row>
     <row r="56" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D56" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12335,22 +12317,22 @@
       <c r="AM56" s="15"/>
       <c r="AN56" s="15"/>
       <c r="AO56" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AP56" s="24" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AQ56" s="26">
         <v>92700</v>
       </c>
       <c r="AR56" s="42" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AS56" s="19" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AT56" s="19" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AU56" s="21"/>
       <c r="AV56" s="22"/>
@@ -12468,15 +12450,15 @@
       <c r="CN56" s="22"/>
       <c r="CO56" s="22"/>
     </row>
-    <row r="57" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D57" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12519,22 +12501,22 @@
       <c r="AM57" s="15"/>
       <c r="AN57" s="15"/>
       <c r="AO57" s="24" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AP57" s="24" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AQ57" s="26">
         <v>94410</v>
       </c>
       <c r="AR57" s="27" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AS57" s="19" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AT57" s="19" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AU57" s="21"/>
       <c r="AW57" s="15"/>
@@ -12643,15 +12625,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D58" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12694,22 +12676,22 @@
       <c r="AM58" s="15"/>
       <c r="AN58" s="15"/>
       <c r="AO58" s="24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AP58" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ58" s="26">
         <v>75015</v>
       </c>
       <c r="AR58" s="27" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AS58" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AT58" s="19" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AU58" s="21"/>
       <c r="AW58" s="15"/>
@@ -12816,15 +12798,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D59" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12867,22 +12849,22 @@
       <c r="AM59" s="15"/>
       <c r="AN59" s="15"/>
       <c r="AO59" s="24" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AP59" s="24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ59" s="26">
         <v>92390</v>
       </c>
       <c r="AR59" s="27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AS59" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AT59" s="19" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AU59" s="21"/>
       <c r="AV59" s="22"/>
@@ -12996,13 +12978,13 @@
     </row>
     <row r="60" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D60" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13045,22 +13027,22 @@
       <c r="AM60" s="15"/>
       <c r="AN60" s="15"/>
       <c r="AO60" s="24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AP60" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ60" s="26">
         <v>75013</v>
       </c>
       <c r="AR60" s="42" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AS60" s="19" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AT60" s="19" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="AU60" s="21"/>
       <c r="AW60" s="15"/>
@@ -13173,13 +13155,13 @@
     </row>
     <row r="61" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D61" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13222,22 +13204,22 @@
       <c r="AM61" s="15"/>
       <c r="AN61" s="15"/>
       <c r="AO61" s="24" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AP61" s="24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AQ61" s="26">
         <v>93600</v>
       </c>
       <c r="AR61" s="42" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AS61" s="19" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AT61" s="19" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="AU61" s="21"/>
       <c r="AW61" s="15"/>
@@ -13350,15 +13332,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D62" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13401,22 +13383,22 @@
       <c r="AM62" s="15"/>
       <c r="AN62" s="15"/>
       <c r="AO62" s="24" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AP62" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ62" s="26">
         <v>75012</v>
       </c>
       <c r="AR62" s="27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AS62" s="19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AT62" s="19" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="AU62" s="21"/>
       <c r="AV62" s="22"/>
@@ -13530,13 +13512,13 @@
     </row>
     <row r="63" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D63" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13579,22 +13561,22 @@
       <c r="AM63" s="15"/>
       <c r="AN63" s="15"/>
       <c r="AO63" s="24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AP63" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ63" s="26">
         <v>75014</v>
       </c>
       <c r="AR63" s="42" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AS63" s="19" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AT63" s="19" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AU63" s="21"/>
       <c r="AW63" s="15"/>
@@ -13709,15 +13691,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D64" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13760,20 +13742,20 @@
       <c r="AM64" s="15"/>
       <c r="AN64" s="15"/>
       <c r="AO64" s="24" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AP64" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AQ64" s="26">
         <v>75016</v>
       </c>
       <c r="AR64" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AS64" s="19"/>
       <c r="AT64" s="19" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AU64" s="21"/>
       <c r="AV64" s="22"/>
@@ -13885,15 +13867,15 @@
       <c r="CN64" s="22"/>
       <c r="CO64" s="22"/>
     </row>
-    <row r="65" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D65" s="14" t="str">
         <f t="shared" ref="D65:D94" si="38">IF(BF65&lt;&gt;0,";2022_BioQ1="&amp;BF65," ")&amp;IF(BG65&lt;&gt;0," ; 2022_BioQ2="&amp;BG65," ")&amp;IF(BH65&lt;&gt;0,";2021_BioQ1="&amp;BH65," ")&amp;IF(BI65&lt;&gt;0," ; 2021_QIAB2="&amp;BI65," ")&amp;IF(BJ65&lt;&gt;0,";2020_QIAB1="&amp;BJ65," ")&amp;IF(BK65&lt;&gt;0," ; 2020_QIAB2="&amp;BK65," ")&amp;IF(BL65&lt;&gt;0,";2019_QIAB1="&amp;BL65," ")&amp;IF(BM65&lt;&gt;0," ; 2019_QIAB2="&amp;BM65," ")&amp;IF(BN65&lt;&gt;0,";2018_QIAB1="&amp;BN65," ")&amp;IF(BO65&lt;&gt;0," ; 2018_QIAB2="&amp;BO65," ")&amp;IF(BP65&lt;&gt;0," ; 2017_QIAB1="&amp;BP65," ")&amp;IF(BQ65&lt;&gt;0," ; 2017_QIAB2="&amp;BQ65," ")&amp;IF(BR65&lt;&gt;0," ; 2016_QIAB1="&amp;BR65," ")&amp;IF(BS65&lt;&gt;0," ; 2016_QIAB2="&amp;BS65," ")&amp;IF(BT65&lt;&gt;0," ; 2015_QIAB1="&amp;BT65," ")&amp;IF(BU65&lt;&gt;0," ; 2015_QIAB2="&amp;BU65," ")&amp;IF(BV65&lt;&gt;0," ; 2014_QIAB1="&amp;BV65," ")&amp;IF(BW65&lt;&gt;0," ; 2014_QIAB2="&amp;BW65," ")</f>
@@ -13936,22 +13918,22 @@
       <c r="AM65" s="15"/>
       <c r="AN65" s="15"/>
       <c r="AO65" s="24" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="AP65" s="24" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AQ65" s="26">
         <v>91240</v>
       </c>
       <c r="AR65" s="27" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AS65" s="19" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="AT65" s="19" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AU65" s="21"/>
       <c r="AW65" s="15"/>
@@ -14058,15 +14040,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D66" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14109,22 +14091,22 @@
       <c r="AM66" s="15"/>
       <c r="AN66" s="15"/>
       <c r="AO66" s="24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AP66" s="24" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AQ66" s="26">
         <v>93390</v>
       </c>
       <c r="AR66" s="27" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AS66" s="19" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AT66" s="19" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AU66" s="21"/>
       <c r="AW66" s="15"/>
@@ -14233,13 +14215,13 @@
     </row>
     <row r="67" spans="1:93" ht="57" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D67" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14282,22 +14264,22 @@
       <c r="AM67" s="15"/>
       <c r="AN67" s="15"/>
       <c r="AO67" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AP67" s="24" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AQ67" s="26">
         <v>93140</v>
       </c>
       <c r="AR67" s="27" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AS67" s="19" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AT67" s="19" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="AU67" s="21"/>
       <c r="AV67" s="22"/>
@@ -14417,13 +14399,13 @@
     </row>
     <row r="68" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D68" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14466,20 +14448,20 @@
       <c r="AM68" s="15"/>
       <c r="AN68" s="15"/>
       <c r="AO68" s="24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP68" s="24" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="AQ68" s="26">
         <v>21800</v>
       </c>
       <c r="AR68" s="27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AS68" s="19"/>
       <c r="AT68" s="19" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="AU68" s="21"/>
       <c r="AW68" s="15"/>
@@ -14586,15 +14568,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D69" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14637,22 +14619,22 @@
       <c r="AM69" s="15"/>
       <c r="AN69" s="15"/>
       <c r="AO69" s="24" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AP69" s="24" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AQ69" s="26">
         <v>94380</v>
       </c>
       <c r="AR69" s="27" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AS69" s="19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AT69" s="19" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="AU69" s="21"/>
       <c r="AW69" s="15"/>
@@ -14766,10 +14748,10 @@
         <v>0</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D70" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14812,22 +14794,22 @@
       <c r="AM70" s="15"/>
       <c r="AN70" s="15"/>
       <c r="AO70" s="24" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="AP70" s="24" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AQ70" s="26">
         <v>94310</v>
       </c>
       <c r="AR70" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AS70" s="19" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AT70" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="AU70" s="21"/>
       <c r="AV70" s="22"/>
@@ -14939,15 +14921,15 @@
       <c r="CN70" s="22"/>
       <c r="CO70" s="22"/>
     </row>
-    <row r="71" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D71" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14990,20 +14972,20 @@
       <c r="AM71" s="15"/>
       <c r="AN71" s="15"/>
       <c r="AO71" s="24" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AP71" s="24" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AQ71" s="26">
         <v>77270</v>
       </c>
       <c r="AR71" s="27" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AS71" s="19"/>
       <c r="AT71" s="19" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="AU71" s="21"/>
       <c r="AW71" s="15"/>
@@ -15110,15 +15092,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D72" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15161,22 +15143,22 @@
       <c r="AM72" s="15"/>
       <c r="AN72" s="15"/>
       <c r="AO72" s="24" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AP72" s="24" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AQ72" s="26">
         <v>18410</v>
       </c>
       <c r="AR72" s="27" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AS72" s="19" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="AT72" s="19" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AU72" s="21"/>
       <c r="AW72" s="15"/>
@@ -15283,15 +15265,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D73" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15334,22 +15316,22 @@
       <c r="AM73" s="15"/>
       <c r="AN73" s="15"/>
       <c r="AO73" s="24" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AP73" s="24" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AQ73" s="26">
         <v>77400</v>
       </c>
       <c r="AR73" s="27" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AS73" s="19" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AT73" s="19" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="AU73" s="21"/>
       <c r="AV73" s="22"/>
@@ -15461,15 +15443,15 @@
       <c r="CN73" s="22"/>
       <c r="CO73" s="22"/>
     </row>
-    <row r="74" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D74" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15512,22 +15494,22 @@
       <c r="AM74" s="15"/>
       <c r="AN74" s="15"/>
       <c r="AO74" s="24" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AP74" s="24" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AQ74" s="26">
         <v>64400</v>
       </c>
       <c r="AR74" s="27" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AS74" s="19" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="AT74" s="19" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="AU74" s="21"/>
       <c r="AW74" s="15"/>
@@ -15634,15 +15616,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D75" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15685,22 +15667,22 @@
       <c r="AM75" s="15"/>
       <c r="AN75" s="15"/>
       <c r="AO75" s="24" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="AP75" s="24" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AQ75" s="26">
         <v>95100</v>
       </c>
       <c r="AR75" s="27" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AS75" s="19" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AT75" s="19" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="AU75" s="21"/>
       <c r="AW75" s="15"/>
@@ -15812,10 +15794,10 @@
         <v>0</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D76" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15858,22 +15840,22 @@
       <c r="AM76" s="15"/>
       <c r="AN76" s="15"/>
       <c r="AO76" s="24" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AP76" s="24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AQ76" s="26">
         <v>93170</v>
       </c>
       <c r="AR76" s="42" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AS76" s="19" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AT76" s="19" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="AU76" s="21"/>
       <c r="AW76" s="15"/>
@@ -15982,15 +15964,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D77" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16033,22 +16015,22 @@
       <c r="AM77" s="15"/>
       <c r="AN77" s="15"/>
       <c r="AO77" s="24" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AP77" s="24" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AQ77" s="26">
         <v>92500</v>
       </c>
       <c r="AR77" s="27" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AS77" s="19" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AT77" s="19" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="AU77" s="21"/>
       <c r="AV77" s="22"/>
@@ -16162,15 +16144,15 @@
       <c r="CN77" s="22"/>
       <c r="CO77" s="22"/>
     </row>
-    <row r="78" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D78" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16213,7 +16195,7 @@
       <c r="AM78" s="15"/>
       <c r="AN78" s="15"/>
       <c r="AO78" s="24" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AP78" s="24" t="s">
         <v>34</v>
@@ -16222,13 +16204,13 @@
         <v>93200</v>
       </c>
       <c r="AR78" s="27" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AS78" s="19" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AT78" s="19" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="AU78" s="21"/>
       <c r="AW78" s="15"/>
@@ -16340,10 +16322,10 @@
         <v>0</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D79" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16386,20 +16368,20 @@
       <c r="AM79" s="15"/>
       <c r="AN79" s="15"/>
       <c r="AO79" s="24" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="AP79" s="24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AQ79" s="26">
         <v>93240</v>
       </c>
       <c r="AR79" s="27" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AS79" s="19"/>
       <c r="AT79" s="19" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="AU79" s="21"/>
       <c r="AW79" s="15"/>
@@ -16506,15 +16488,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D80" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16557,22 +16539,22 @@
       <c r="AM80" s="15"/>
       <c r="AN80" s="15"/>
       <c r="AO80" s="24" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AP80" s="24" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AQ80" s="26">
         <v>92150</v>
       </c>
       <c r="AR80" s="27" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AS80" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AT80" s="19" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="AU80" s="21"/>
       <c r="AV80" s="22"/>
@@ -16684,15 +16666,15 @@
       <c r="CN80" s="22"/>
       <c r="CO80" s="22"/>
     </row>
-    <row r="81" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D81" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16735,22 +16717,22 @@
       <c r="AM81" s="15"/>
       <c r="AN81" s="15"/>
       <c r="AO81" s="24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AP81" s="24" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AQ81" s="26">
         <v>92310</v>
       </c>
       <c r="AR81" s="27" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AS81" s="19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AT81" s="19" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="AU81" s="21"/>
       <c r="AW81" s="15"/>
@@ -16859,15 +16841,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:93" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D82" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16910,22 +16892,22 @@
       <c r="AM82" s="15"/>
       <c r="AN82" s="15"/>
       <c r="AO82" s="24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AP82" s="24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AQ82" s="26">
         <v>95520</v>
       </c>
       <c r="AR82" s="27" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AS82" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AT82" s="19" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="AU82" s="21"/>
       <c r="AW82" s="15"/>
@@ -17032,15 +17014,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D83" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17083,22 +17065,22 @@
       <c r="AM83" s="15"/>
       <c r="AN83" s="15"/>
       <c r="AO83" s="24" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AP83" s="24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AQ83" s="26">
         <v>92000</v>
       </c>
       <c r="AR83" s="27" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AS83" s="19" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AT83" s="19" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="AU83" s="21"/>
       <c r="AV83" s="22"/>
@@ -17210,15 +17192,15 @@
       <c r="CN83" s="22"/>
       <c r="CO83" s="22"/>
     </row>
-    <row r="84" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D84" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17261,22 +17243,22 @@
       <c r="AM84" s="15"/>
       <c r="AN84" s="15"/>
       <c r="AO84" s="24" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AP84" s="24" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AQ84" s="26">
         <v>95724</v>
       </c>
       <c r="AR84" s="27" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AS84" s="19" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AT84" s="19" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="AU84" s="21"/>
       <c r="AW84" s="15"/>
@@ -17388,10 +17370,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D85" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17434,22 +17416,22 @@
       <c r="AM85" s="15"/>
       <c r="AN85" s="15"/>
       <c r="AO85" s="24" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="AP85" s="24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AQ85" s="26">
         <v>92230</v>
       </c>
       <c r="AR85" s="27" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AS85" s="19" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="AT85" s="19" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="AU85" s="21"/>
       <c r="AW85" s="15"/>
@@ -17558,7 +17540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>11</v>
       </c>
@@ -17566,7 +17548,7 @@
         <v>12</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D86" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17609,20 +17591,20 @@
       <c r="AM86" s="15"/>
       <c r="AN86" s="15"/>
       <c r="AO86" s="24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AP86" s="24" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AQ86" s="26">
         <v>94700</v>
       </c>
       <c r="AR86" s="27"/>
       <c r="AS86" s="19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AT86" s="19" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="AU86" s="21"/>
       <c r="AW86" s="15"/>
@@ -17729,15 +17711,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D87" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17780,7 +17762,7 @@
       <c r="AM87" s="15"/>
       <c r="AN87" s="15"/>
       <c r="AO87" s="24" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="AP87" s="24" t="s">
         <v>34</v>
@@ -17789,13 +17771,13 @@
         <v>93200</v>
       </c>
       <c r="AR87" s="27" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AS87" s="19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AT87" s="19" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="AU87" s="21"/>
       <c r="AW87" s="15"/>
@@ -17902,15 +17884,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D88" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17953,22 +17935,22 @@
       <c r="AM88" s="15"/>
       <c r="AN88" s="15"/>
       <c r="AO88" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AP88" s="24" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AQ88" s="26">
         <v>93390</v>
       </c>
       <c r="AR88" s="27" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AS88" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AT88" s="19" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AU88" s="21"/>
       <c r="AV88" s="22"/>
@@ -18084,15 +18066,15 @@
       <c r="CN88" s="22"/>
       <c r="CO88" s="22"/>
     </row>
-    <row r="89" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D89" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18135,22 +18117,22 @@
       <c r="AM89" s="15"/>
       <c r="AN89" s="15"/>
       <c r="AO89" s="24" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AP89" s="24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AQ89" s="26">
         <v>93000</v>
       </c>
       <c r="AR89" s="27" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AS89" s="19" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AT89" s="19" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="AU89" s="21"/>
       <c r="AW89" s="15"/>
@@ -18257,15 +18239,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:93" s="22" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D90" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18308,22 +18290,22 @@
       <c r="AM90" s="15"/>
       <c r="AN90" s="15"/>
       <c r="AO90" s="24" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="AP90" s="24" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AQ90" s="26">
         <v>77340</v>
       </c>
       <c r="AR90" s="27" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AS90" s="19" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AT90" s="19" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="AU90" s="21"/>
       <c r="AW90" s="15"/>
@@ -18432,15 +18414,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D91" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18483,22 +18465,22 @@
       <c r="AM91" s="15"/>
       <c r="AN91" s="15"/>
       <c r="AO91" s="24" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AP91" s="24" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AQ91" s="26">
         <v>78190</v>
       </c>
       <c r="AR91" s="27" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AS91" s="19" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AT91" s="19" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="AU91" s="21"/>
       <c r="AV91" s="22"/>
@@ -18610,15 +18592,15 @@
       <c r="CN91" s="22"/>
       <c r="CO91" s="22"/>
     </row>
-    <row r="92" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D92" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18661,22 +18643,22 @@
       <c r="AM92" s="15"/>
       <c r="AN92" s="15"/>
       <c r="AO92" s="24" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AP92" s="24" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AQ92" s="26">
         <v>92600</v>
       </c>
       <c r="AR92" s="27" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AS92" s="19" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AT92" s="19" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AU92" s="21"/>
       <c r="AW92" s="15"/>
@@ -18785,13 +18767,13 @@
     </row>
     <row r="93" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D93" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18834,22 +18816,22 @@
       <c r="AM93" s="15"/>
       <c r="AN93" s="15"/>
       <c r="AO93" s="24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AP93" s="24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AQ93" s="26">
         <v>95150</v>
       </c>
       <c r="AR93" s="27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS93" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AT93" s="19" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="AU93" s="21"/>
       <c r="AV93" s="22"/>
@@ -18966,10 +18948,10 @@
         <v>0</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D94" s="14" t="str">
         <f t="shared" si="38"/>
@@ -19012,20 +18994,20 @@
       <c r="AM94" s="15"/>
       <c r="AN94" s="15"/>
       <c r="AO94" s="24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AP94" s="24" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AQ94" s="26">
         <v>94460</v>
       </c>
       <c r="AR94" s="27" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AS94" s="19"/>
       <c r="AT94" s="19" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="AU94" s="21"/>
       <c r="AW94" s="15"/>
@@ -19137,10 +19119,10 @@
         <v>0</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D95" s="14" t="str">
         <f t="shared" ref="D95:D113" si="57">IF(BF95&lt;&gt;0,";2022_BioQ1="&amp;BF95," ")&amp;IF(BG95&lt;&gt;0," ; 2022_BioQ2="&amp;BG95," ")&amp;IF(BH95&lt;&gt;0,";2021_BioQ1="&amp;BH95," ")&amp;IF(BI95&lt;&gt;0," ; 2021_QIAB2="&amp;BI95," ")&amp;IF(BJ95&lt;&gt;0,";2020_QIAB1="&amp;BJ95," ")&amp;IF(BK95&lt;&gt;0," ; 2020_QIAB2="&amp;BK95," ")&amp;IF(BL95&lt;&gt;0,";2019_QIAB1="&amp;BL95," ")&amp;IF(BM95&lt;&gt;0," ; 2019_QIAB2="&amp;BM95," ")&amp;IF(BN95&lt;&gt;0,";2018_QIAB1="&amp;BN95," ")&amp;IF(BO95&lt;&gt;0," ; 2018_QIAB2="&amp;BO95," ")&amp;IF(BP95&lt;&gt;0," ; 2017_QIAB1="&amp;BP95," ")&amp;IF(BQ95&lt;&gt;0," ; 2017_QIAB2="&amp;BQ95," ")&amp;IF(BR95&lt;&gt;0," ; 2016_QIAB1="&amp;BR95," ")&amp;IF(BS95&lt;&gt;0," ; 2016_QIAB2="&amp;BS95," ")&amp;IF(BT95&lt;&gt;0," ; 2015_QIAB1="&amp;BT95," ")&amp;IF(BU95&lt;&gt;0," ; 2015_QIAB2="&amp;BU95," ")&amp;IF(BV95&lt;&gt;0," ; 2014_QIAB1="&amp;BV95," ")&amp;IF(BW95&lt;&gt;0," ; 2014_QIAB2="&amp;BW95," ")</f>
@@ -19183,22 +19165,22 @@
       <c r="AM95" s="15"/>
       <c r="AN95" s="15"/>
       <c r="AO95" s="24" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AP95" s="24" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AQ95" s="26">
         <v>93120</v>
       </c>
       <c r="AR95" s="27" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AS95" s="19" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AT95" s="19" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="AU95" s="21"/>
       <c r="AW95" s="15"/>
@@ -19305,7 +19287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>11</v>
       </c>
@@ -19313,7 +19295,7 @@
         <v>12</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D96" s="14" t="str">
         <f t="shared" si="57"/>
@@ -19356,22 +19338,22 @@
       <c r="AM96" s="15"/>
       <c r="AN96" s="15"/>
       <c r="AO96" s="24" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AP96" s="24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AQ96" s="26">
         <v>92752</v>
       </c>
       <c r="AR96" s="27" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AS96" s="19" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AT96" s="19" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AU96" s="21"/>
       <c r="AW96" s="15"/>
@@ -19478,13 +19460,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D97" s="14" t="str">
         <f t="shared" ref="D97:D104" si="76">IF(BF97&lt;&gt;0,";2022_BioQ1="&amp;BF97," ")&amp;IF(BG97&lt;&gt;0," ; 2022_BioQ2="&amp;BG97," ")&amp;IF(BH97&lt;&gt;0,";2021_BioQ1="&amp;BH97," ")&amp;IF(BI97&lt;&gt;0," ; 2021_QIAB2="&amp;BI97," ")&amp;IF(BJ97&lt;&gt;0,";2020_QIAB1="&amp;BJ97," ")&amp;IF(BK97&lt;&gt;0," ; 2020_QIAB2="&amp;BK97," ")&amp;IF(BL97&lt;&gt;0,";2019_QIAB1="&amp;BL97," ")&amp;IF(BM97&lt;&gt;0," ; 2019_QIAB2="&amp;BM97," ")&amp;IF(BN97&lt;&gt;0,";2018_QIAB1="&amp;BN97," ")&amp;IF(BO97&lt;&gt;0," ; 2018_QIAB2="&amp;BO97," ")&amp;IF(BP97&lt;&gt;0," ; 2017_QIAB1="&amp;BP97," ")&amp;IF(BQ97&lt;&gt;0," ; 2017_QIAB2="&amp;BQ97," ")&amp;IF(BR97&lt;&gt;0," ; 2016_QIAB1="&amp;BR97," ")&amp;IF(BS97&lt;&gt;0," ; 2016_QIAB2="&amp;BS97," ")&amp;IF(BT97&lt;&gt;0," ; 2015_QIAB1="&amp;BT97," ")&amp;IF(BU97&lt;&gt;0," ; 2015_QIAB2="&amp;BU97," ")&amp;IF(BV97&lt;&gt;0," ; 2014_QIAB1="&amp;BV97," ")&amp;IF(BW97&lt;&gt;0," ; 2014_QIAB2="&amp;BW97," ")</f>
@@ -19527,22 +19509,22 @@
       <c r="AM97" s="15"/>
       <c r="AN97" s="15"/>
       <c r="AO97" s="24" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AP97" s="24" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="AQ97" s="26">
         <v>95734</v>
       </c>
       <c r="AR97" s="27" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AS97" s="19" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AT97" s="19" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AU97" s="21"/>
       <c r="AV97" s="22"/>
@@ -19654,13 +19636,13 @@
     </row>
     <row r="98" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D98" s="14" t="str">
         <f t="shared" si="76"/>
@@ -19703,22 +19685,22 @@
       <c r="AM98" s="15"/>
       <c r="AN98" s="15"/>
       <c r="AO98" s="24" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="AP98" s="24" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="AQ98" s="26">
         <v>95230</v>
       </c>
       <c r="AR98" s="27" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="AS98" s="19" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="AT98" s="19" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="AU98" s="21"/>
       <c r="AW98" s="15"/>
@@ -19828,10 +19810,10 @@
         <v>11</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D99" s="14" t="str">
         <f t="shared" si="76"/>
@@ -19874,22 +19856,22 @@
       <c r="AM99" s="15"/>
       <c r="AN99" s="15"/>
       <c r="AO99" s="24" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="AP99" s="24" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="AQ99" s="26">
         <v>1480</v>
       </c>
       <c r="AR99" s="27" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="AS99" s="19" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="AT99" s="19" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="AU99" s="21"/>
       <c r="AW99" s="15"/>
@@ -19994,13 +19976,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="13" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D100" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20043,22 +20025,22 @@
       <c r="AM100" s="15"/>
       <c r="AN100" s="15"/>
       <c r="AO100" s="24" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AP100" s="24" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="AQ100" s="26">
         <v>95500</v>
       </c>
       <c r="AR100" s="27" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="AS100" s="19" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="AT100" s="19" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="AU100" s="21"/>
       <c r="AV100" s="22"/>
@@ -20168,15 +20150,15 @@
       <c r="CN100" s="22"/>
       <c r="CO100" s="22"/>
     </row>
-    <row r="101" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D101" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20219,22 +20201,22 @@
       <c r="AM101" s="15"/>
       <c r="AN101" s="15"/>
       <c r="AO101" s="24" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AP101" s="24" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AQ101" s="26">
         <v>92110</v>
       </c>
       <c r="AR101" s="27" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="AS101" s="19" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="AT101" s="19" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="AU101" s="21"/>
       <c r="AW101" s="15"/>
@@ -20339,15 +20321,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D102" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20390,20 +20372,20 @@
       <c r="AM102" s="15"/>
       <c r="AN102" s="15"/>
       <c r="AO102" s="24" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AP102" s="24" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AQ102" s="26">
         <v>95310</v>
       </c>
       <c r="AR102" s="27" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AS102" s="19"/>
       <c r="AT102" s="19" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AU102" s="21"/>
       <c r="AW102" s="15"/>
@@ -20513,10 +20495,10 @@
         <v>0</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D103" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20559,22 +20541,22 @@
       <c r="AM103" s="15"/>
       <c r="AN103" s="15"/>
       <c r="AO103" s="24" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="AP103" s="24" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AQ103" s="26">
         <v>94650</v>
       </c>
       <c r="AR103" s="42" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="AS103" s="19" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AT103" s="19" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AU103" s="21"/>
       <c r="AV103" s="22"/>
@@ -22659,9 +22641,6 @@
       <c r="CM122" s="36"/>
     </row>
     <row r="123" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A123" s="33" t="s">
-        <v>353</v>
-      </c>
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
       <c r="F123" s="23"/>
@@ -22709,9 +22688,6 @@
       <c r="CM123" s="36"/>
     </row>
     <row r="124" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A124" s="33" t="s">
-        <v>0</v>
-      </c>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
@@ -22759,9 +22735,6 @@
       <c r="CM124" s="36"/>
     </row>
     <row r="125" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A125" s="33" t="s">
-        <v>50</v>
-      </c>
       <c r="D125" s="23"/>
       <c r="E125" s="23"/>
       <c r="F125" s="23"/>
@@ -22809,9 +22782,6 @@
       <c r="CM125" s="36"/>
     </row>
     <row r="126" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A126" s="33" t="s">
-        <v>56</v>
-      </c>
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
@@ -22859,9 +22829,6 @@
       <c r="CM126" s="36"/>
     </row>
     <row r="127" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A127" s="33" t="s">
-        <v>55</v>
-      </c>
       <c r="D127" s="23"/>
       <c r="E127" s="23"/>
       <c r="F127" s="23"/>
@@ -22909,9 +22876,6 @@
       <c r="CM127" s="36"/>
     </row>
     <row r="128" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A128" s="33" t="s">
-        <v>53</v>
-      </c>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
       <c r="F128" s="23"/>
@@ -22958,10 +22922,7 @@
       <c r="CL128" s="36"/>
       <c r="CM128" s="36"/>
     </row>
-    <row r="129" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A129" s="33" t="s">
-        <v>52</v>
-      </c>
+    <row r="129" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D129" s="23"/>
       <c r="E129" s="23"/>
       <c r="F129" s="23"/>
@@ -23008,10 +22969,7 @@
       <c r="CL129" s="36"/>
       <c r="CM129" s="36"/>
     </row>
-    <row r="130" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A130" s="33" t="s">
-        <v>51</v>
-      </c>
+    <row r="130" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
@@ -23058,10 +23016,7 @@
       <c r="CL130" s="36"/>
       <c r="CM130" s="36"/>
     </row>
-    <row r="131" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A131" s="33" t="s">
-        <v>54</v>
-      </c>
+    <row r="131" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
       <c r="F131" s="23"/>
@@ -23108,10 +23063,7 @@
       <c r="CL131" s="36"/>
       <c r="CM131" s="36"/>
     </row>
-    <row r="132" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A132" s="33" t="s">
-        <v>11</v>
-      </c>
+    <row r="132" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
       <c r="F132" s="23"/>
@@ -23158,7 +23110,7 @@
       <c r="CL132" s="36"/>
       <c r="CM132" s="36"/>
     </row>
-    <row r="133" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D133" s="23"/>
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
@@ -23205,7 +23157,7 @@
       <c r="CL133" s="36"/>
       <c r="CM133" s="36"/>
     </row>
-    <row r="134" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
@@ -23252,7 +23204,7 @@
       <c r="CL134" s="36"/>
       <c r="CM134" s="36"/>
     </row>
-    <row r="135" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D135" s="23"/>
       <c r="E135" s="23"/>
       <c r="F135" s="23"/>
@@ -23299,7 +23251,7 @@
       <c r="CL135" s="36"/>
       <c r="CM135" s="36"/>
     </row>
-    <row r="136" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
       <c r="F136" s="23"/>
@@ -23346,7 +23298,7 @@
       <c r="CL136" s="36"/>
       <c r="CM136" s="36"/>
     </row>
-    <row r="137" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D137" s="23"/>
       <c r="E137" s="23"/>
       <c r="F137" s="23"/>
@@ -23393,7 +23345,7 @@
       <c r="CL137" s="36"/>
       <c r="CM137" s="36"/>
     </row>
-    <row r="138" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
       <c r="F138" s="23"/>
@@ -23440,7 +23392,7 @@
       <c r="CL138" s="36"/>
       <c r="CM138" s="36"/>
     </row>
-    <row r="139" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D139" s="23"/>
       <c r="E139" s="23"/>
       <c r="F139" s="23"/>
@@ -23487,7 +23439,7 @@
       <c r="CL139" s="36"/>
       <c r="CM139" s="36"/>
     </row>
-    <row r="140" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
       <c r="F140" s="23"/>
@@ -23534,7 +23486,7 @@
       <c r="CL140" s="36"/>
       <c r="CM140" s="36"/>
     </row>
-    <row r="141" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
       <c r="F141" s="23"/>
@@ -23581,7 +23533,7 @@
       <c r="CL141" s="36"/>
       <c r="CM141" s="36"/>
     </row>
-    <row r="142" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
       <c r="F142" s="23"/>
@@ -23628,7 +23580,7 @@
       <c r="CL142" s="36"/>
       <c r="CM142" s="36"/>
     </row>
-    <row r="143" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D143" s="23"/>
       <c r="E143" s="23"/>
       <c r="F143" s="23"/>
@@ -23675,7 +23627,7 @@
       <c r="CL143" s="36"/>
       <c r="CM143" s="36"/>
     </row>
-    <row r="144" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:91" x14ac:dyDescent="0.25">
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>

--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/559a6546c7b07495/Lycée/2021-2022 Paul Eluard/Lieux_de_Stages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{8FD5B9E2-041F-4DC1-85FA-806A3E9C3024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B40E3B9-46C9-4D81-BD6D-B545554E9B5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B29A3E0-294F-4274-96CC-7C2568A7E513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="653">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -2006,6 +2006,9 @@
   <si>
     <t>01 49 78 24 31
 07 77 14 49 91</t>
+  </si>
+  <si>
+    <t>Lien Internet</t>
   </si>
 </sst>
 </file>
@@ -2625,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO256"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU7" sqref="AU7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2669,13 +2672,13 @@
     <col min="44" max="44" width="33.28515625" style="31" customWidth="1"/>
     <col min="45" max="45" width="42.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="33.28515625" style="40" customWidth="1"/>
-    <col min="47" max="47" width="33.28515625" style="35" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="45.42578125" style="39" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="17.7109375" style="31" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" style="40" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="15.42578125" style="31" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="37.7109375" style="31" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="32.7109375" style="31" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="33.28515625" style="35" customWidth="1"/>
+    <col min="48" max="48" width="45.42578125" style="39" customWidth="1"/>
+    <col min="49" max="49" width="17.7109375" style="31" customWidth="1"/>
+    <col min="50" max="50" width="21.140625" style="40" customWidth="1"/>
+    <col min="51" max="51" width="15.42578125" style="31" customWidth="1"/>
+    <col min="52" max="52" width="37.7109375" style="31" customWidth="1"/>
+    <col min="53" max="53" width="42.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="11.42578125" style="31"/>
     <col min="55" max="55" width="24.7109375" style="31" customWidth="1"/>
     <col min="56" max="56" width="11.42578125" style="31"/>
@@ -2749,7 +2752,7 @@
         <v>4</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>52</v>
+        <v>652</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>29</v>
@@ -2764,7 +2767,9 @@
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
+      <c r="BA1" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="BB1" s="6" t="s">
         <v>15</v>
       </c>
@@ -2942,7 +2947,7 @@
       <c r="AX2" s="16"/>
       <c r="AY2" s="23"/>
       <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
+      <c r="BA2" s="19"/>
       <c r="BB2" s="22">
         <f>RANK(BX2,$BX$3:$BX$112)+COUNTIF(BX$3:BX42,BX2)-1</f>
         <v>95</v>
@@ -3095,9 +3100,7 @@
       <c r="AR3" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="AS3" s="19" t="s">
-        <v>353</v>
-      </c>
+      <c r="AS3" s="19"/>
       <c r="AT3" s="19" t="s">
         <v>496</v>
       </c>
@@ -3105,6 +3108,9 @@
       <c r="AW3" s="15"/>
       <c r="AX3" s="15"/>
       <c r="AZ3" s="28"/>
+      <c r="BA3" s="19" t="s">
+        <v>353</v>
+      </c>
       <c r="BB3" s="22">
         <f>RANK(BX3,$BX$3:$BX$112)+COUNTIF(BX$3:BX4,BX3)-1</f>
         <v>46</v>
@@ -3268,9 +3274,7 @@
       <c r="AR4" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="AS4" s="19" t="s">
-        <v>438</v>
-      </c>
+      <c r="AS4" s="19"/>
       <c r="AT4" s="19" t="s">
         <v>497</v>
       </c>
@@ -3278,6 +3282,9 @@
       <c r="AW4" s="15"/>
       <c r="AX4" s="15"/>
       <c r="AZ4" s="28"/>
+      <c r="BA4" s="19" t="s">
+        <v>438</v>
+      </c>
       <c r="BB4" s="22">
         <f>RANK(BX4,$BX$3:$BX$112)+COUNTIF(BX$3:BX5,BX4)-1</f>
         <v>10</v>
@@ -3445,9 +3452,7 @@
       <c r="AR5" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="AS5" s="19" t="s">
-        <v>214</v>
-      </c>
+      <c r="AS5" s="19"/>
       <c r="AT5" s="19" t="s">
         <v>498</v>
       </c>
@@ -3455,6 +3460,9 @@
       <c r="AW5" s="15"/>
       <c r="AX5" s="15"/>
       <c r="AZ5" s="28"/>
+      <c r="BA5" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="BB5" s="22">
         <f>RANK(BX5,$BX$3:$BX$112)+COUNTIF(BX$3:BX6,BX5)-1</f>
         <v>57</v>
@@ -3618,9 +3626,7 @@
       <c r="AR6" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="AS6" s="19" t="s">
-        <v>412</v>
-      </c>
+      <c r="AS6" s="19"/>
       <c r="AT6" s="19" t="s">
         <v>499</v>
       </c>
@@ -3628,6 +3634,9 @@
       <c r="AW6" s="15"/>
       <c r="AX6" s="15"/>
       <c r="AZ6" s="28"/>
+      <c r="BA6" s="19" t="s">
+        <v>412</v>
+      </c>
       <c r="BB6" s="22">
         <f>RANK(BX6,$BX$3:$BX$112)+COUNTIF(BX$3:BX7,BX6)-1</f>
         <v>30</v>
@@ -3799,6 +3808,7 @@
       <c r="AW7" s="15"/>
       <c r="AX7" s="15"/>
       <c r="AZ7" s="28"/>
+      <c r="BA7" s="19"/>
       <c r="BB7" s="22">
         <f>RANK(BX7,$BX$3:$BX$112)+COUNTIF(BX$3:BX7,BX7)-1</f>
         <v>75</v>
@@ -3970,6 +3980,7 @@
       <c r="AW8" s="15"/>
       <c r="AX8" s="15"/>
       <c r="AZ8" s="28"/>
+      <c r="BA8" s="19"/>
       <c r="BB8" s="22">
         <f>RANK(BX8,$BX$3:$BX$112)+COUNTIF(BX$3:BX9,BX8)-1</f>
         <v>77</v>
@@ -4133,9 +4144,7 @@
       <c r="AR9" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AS9" s="19" t="s">
-        <v>92</v>
-      </c>
+      <c r="AS9" s="19"/>
       <c r="AT9" s="19" t="s">
         <v>502</v>
       </c>
@@ -4143,6 +4152,9 @@
       <c r="AW9" s="15"/>
       <c r="AX9" s="15"/>
       <c r="AZ9" s="28"/>
+      <c r="BA9" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="BB9" s="22">
         <f>RANK(BX9,$BX$3:$BX$112)+COUNTIF(BX$3:BX10,BX9)-1</f>
         <v>77</v>
@@ -4306,9 +4318,7 @@
       <c r="AR10" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="AS10" s="19" t="s">
-        <v>271</v>
-      </c>
+      <c r="AS10" s="19"/>
       <c r="AT10" s="19" t="s">
         <v>503</v>
       </c>
@@ -4316,6 +4326,9 @@
       <c r="AW10" s="15"/>
       <c r="AX10" s="15"/>
       <c r="AZ10" s="28"/>
+      <c r="BA10" s="19" t="s">
+        <v>271</v>
+      </c>
       <c r="BB10" s="22">
         <f>RANK(BX10,$BX$3:$BX$112)+COUNTIF(BX$3:BX11,BX10)-1</f>
         <v>58</v>
@@ -4479,9 +4492,7 @@
       <c r="AR11" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="AS11" s="19" t="s">
-        <v>275</v>
-      </c>
+      <c r="AS11" s="19"/>
       <c r="AT11" s="19" t="s">
         <v>504</v>
       </c>
@@ -4489,6 +4500,9 @@
       <c r="AW11" s="15"/>
       <c r="AX11" s="15"/>
       <c r="AZ11" s="28"/>
+      <c r="BA11" s="19" t="s">
+        <v>275</v>
+      </c>
       <c r="BB11" s="22">
         <f>RANK(BX11,$BX$3:$BX$112)+COUNTIF(BX$3:BX12,BX11)-1</f>
         <v>21</v>
@@ -4654,9 +4668,7 @@
       <c r="AR12" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="AS12" s="19" t="s">
-        <v>219</v>
-      </c>
+      <c r="AS12" s="19"/>
       <c r="AT12" s="19" t="s">
         <v>505</v>
       </c>
@@ -4664,6 +4676,9 @@
       <c r="AW12" s="15"/>
       <c r="AX12" s="15"/>
       <c r="AZ12" s="28"/>
+      <c r="BA12" s="19" t="s">
+        <v>219</v>
+      </c>
       <c r="BB12" s="22">
         <f>RANK(BX12,$BX$3:$BX$112)+COUNTIF(BX$3:BX13,BX12)-1</f>
         <v>21</v>
@@ -4829,9 +4844,7 @@
       <c r="AR13" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="AS13" s="19" t="s">
-        <v>377</v>
-      </c>
+      <c r="AS13" s="19"/>
       <c r="AT13" s="19" t="s">
         <v>506</v>
       </c>
@@ -4839,6 +4852,9 @@
       <c r="AW13" s="15"/>
       <c r="AX13" s="15"/>
       <c r="AZ13" s="28"/>
+      <c r="BA13" s="19" t="s">
+        <v>377</v>
+      </c>
       <c r="BB13" s="22">
         <f>RANK(BX13,$BX$3:$BX$112)+COUNTIF(BX$3:BX14,BX13)-1</f>
         <v>47</v>
@@ -5002,9 +5018,7 @@
       <c r="AR14" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="AS14" s="19" t="s">
-        <v>280</v>
-      </c>
+      <c r="AS14" s="19"/>
       <c r="AT14" s="19" t="s">
         <v>507</v>
       </c>
@@ -5012,6 +5026,9 @@
       <c r="AW14" s="15"/>
       <c r="AX14" s="15"/>
       <c r="AZ14" s="28"/>
+      <c r="BA14" s="19" t="s">
+        <v>280</v>
+      </c>
       <c r="BB14" s="22">
         <f>RANK(BX14,$BX$3:$BX$112)+COUNTIF(BX$3:BX15,BX14)-1</f>
         <v>59</v>
@@ -5175,9 +5192,7 @@
       <c r="AR15" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="AS15" s="19" t="s">
-        <v>283</v>
-      </c>
+      <c r="AS15" s="19"/>
       <c r="AT15" s="19" t="s">
         <v>508</v>
       </c>
@@ -5185,6 +5200,9 @@
       <c r="AW15" s="15"/>
       <c r="AX15" s="15"/>
       <c r="AZ15" s="28"/>
+      <c r="BA15" s="19" t="s">
+        <v>283</v>
+      </c>
       <c r="BB15" s="22">
         <f>RANK(BX15,$BX$3:$BX$112)+COUNTIF(BX$3:BX16,BX15)-1</f>
         <v>18</v>
@@ -5350,9 +5368,7 @@
       <c r="AR16" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="AS16" s="19" t="s">
-        <v>285</v>
-      </c>
+      <c r="AS16" s="19"/>
       <c r="AT16" s="19" t="s">
         <v>509</v>
       </c>
@@ -5360,6 +5376,9 @@
       <c r="AW16" s="15"/>
       <c r="AX16" s="15"/>
       <c r="AZ16" s="28"/>
+      <c r="BA16" s="19" t="s">
+        <v>285</v>
+      </c>
       <c r="BB16" s="22">
         <f>RANK(BX16,$BX$3:$BX$112)+COUNTIF(BX$3:BX17,BX16)-1</f>
         <v>12</v>
@@ -5527,9 +5546,7 @@
       <c r="AR17" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="AS17" s="19" t="s">
-        <v>227</v>
-      </c>
+      <c r="AS17" s="19"/>
       <c r="AT17" s="19" t="s">
         <v>510</v>
       </c>
@@ -5537,6 +5554,9 @@
       <c r="AW17" s="15"/>
       <c r="AX17" s="15"/>
       <c r="AZ17" s="28"/>
+      <c r="BA17" s="19" t="s">
+        <v>227</v>
+      </c>
       <c r="BB17" s="22">
         <f>RANK(BX17,$BX$3:$BX$112)+COUNTIF(BX$3:BX18,BX17)-1</f>
         <v>61</v>
@@ -5700,9 +5720,7 @@
       <c r="AR18" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="AS18" s="19" t="s">
-        <v>289</v>
-      </c>
+      <c r="AS18" s="19"/>
       <c r="AT18" s="19" t="s">
         <v>511</v>
       </c>
@@ -5710,6 +5728,9 @@
       <c r="AW18" s="15"/>
       <c r="AX18" s="15"/>
       <c r="AZ18" s="28"/>
+      <c r="BA18" s="19" t="s">
+        <v>289</v>
+      </c>
       <c r="BB18" s="22">
         <f>RANK(BX18,$BX$3:$BX$112)+COUNTIF(BX$3:BX19,BX18)-1</f>
         <v>62</v>
@@ -5873,9 +5894,7 @@
       <c r="AR19" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="AS19" s="19" t="s">
-        <v>231</v>
-      </c>
+      <c r="AS19" s="19"/>
       <c r="AT19" s="19" t="s">
         <v>512</v>
       </c>
@@ -5883,6 +5902,9 @@
       <c r="AW19" s="15"/>
       <c r="AX19" s="15"/>
       <c r="AZ19" s="28"/>
+      <c r="BA19" s="19" t="s">
+        <v>231</v>
+      </c>
       <c r="BB19" s="22">
         <f>RANK(BX19,$BX$3:$BX$112)+COUNTIF(BX$3:BX20,BX19)-1</f>
         <v>63</v>
@@ -6044,9 +6066,7 @@
       <c r="AR20" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="AS20" s="19" t="s">
-        <v>293</v>
-      </c>
+      <c r="AS20" s="19"/>
       <c r="AT20" s="19" t="s">
         <v>513</v>
       </c>
@@ -6054,6 +6074,9 @@
       <c r="AW20" s="15"/>
       <c r="AX20" s="15"/>
       <c r="AZ20" s="28"/>
+      <c r="BA20" s="19" t="s">
+        <v>293</v>
+      </c>
       <c r="BB20" s="22">
         <f>RANK(BX20,$BX$3:$BX$112)+COUNTIF(BX$3:BX21,BX20)-1</f>
         <v>63</v>
@@ -6217,9 +6240,7 @@
       <c r="AR21" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="AS21" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="AS21" s="19"/>
       <c r="AT21" s="19" t="s">
         <v>514</v>
       </c>
@@ -6227,6 +6248,9 @@
       <c r="AW21" s="15"/>
       <c r="AX21" s="15"/>
       <c r="AZ21" s="28"/>
+      <c r="BA21" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="BB21" s="22">
         <f>RANK(BX21,$BX$3:$BX$112)+COUNTIF(BX$3:BX22,BX21)-1</f>
         <v>78</v>
@@ -6388,9 +6412,7 @@
       <c r="AR22" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="AS22" s="19" t="s">
-        <v>298</v>
-      </c>
+      <c r="AS22" s="19"/>
       <c r="AT22" s="19" t="s">
         <v>515</v>
       </c>
@@ -6398,6 +6420,9 @@
       <c r="AW22" s="15"/>
       <c r="AX22" s="15"/>
       <c r="AZ22" s="28"/>
+      <c r="BA22" s="19" t="s">
+        <v>298</v>
+      </c>
       <c r="BB22" s="22">
         <f>RANK(BX22,$BX$3:$BX$112)+COUNTIF(BX$3:BX23,BX22)-1</f>
         <v>64</v>
@@ -6561,9 +6586,7 @@
       <c r="AR23" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="AS23" s="19" t="s">
-        <v>300</v>
-      </c>
+      <c r="AS23" s="19"/>
       <c r="AT23" s="19" t="s">
         <v>516</v>
       </c>
@@ -6571,6 +6594,9 @@
       <c r="AW23" s="15"/>
       <c r="AX23" s="15"/>
       <c r="AZ23" s="28"/>
+      <c r="BA23" s="19" t="s">
+        <v>300</v>
+      </c>
       <c r="BB23" s="22">
         <f>RANK(BX23,$BX$3:$BX$112)+COUNTIF(BX$3:BX24,BX23)-1</f>
         <v>27</v>
@@ -6736,9 +6762,7 @@
       <c r="AR24" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="AS24" s="19" t="s">
-        <v>445</v>
-      </c>
+      <c r="AS24" s="19"/>
       <c r="AT24" s="19" t="s">
         <v>517</v>
       </c>
@@ -6746,6 +6770,9 @@
       <c r="AW24" s="15"/>
       <c r="AX24" s="15"/>
       <c r="AZ24" s="28"/>
+      <c r="BA24" s="19" t="s">
+        <v>445</v>
+      </c>
       <c r="BB24" s="22">
         <f>RANK(BX24,$BX$3:$BX$112)+COUNTIF(BX$3:BX25,BX24)-1</f>
         <v>31</v>
@@ -6909,9 +6936,7 @@
       <c r="AR25" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="AS25" s="19" t="s">
-        <v>101</v>
-      </c>
+      <c r="AS25" s="19"/>
       <c r="AT25" s="19" t="s">
         <v>519</v>
       </c>
@@ -6919,6 +6944,9 @@
       <c r="AW25" s="15"/>
       <c r="AX25" s="15"/>
       <c r="AZ25" s="28"/>
+      <c r="BA25" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="BB25" s="22">
         <f>RANK(BX25,$BX$3:$BX$112)+COUNTIF(BX$3:BX26,BX25)-1</f>
         <v>79</v>
@@ -7080,9 +7108,7 @@
       <c r="AR26" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="AS26" s="19" t="s">
-        <v>304</v>
-      </c>
+      <c r="AS26" s="19"/>
       <c r="AT26" s="19" t="s">
         <v>520</v>
       </c>
@@ -7090,6 +7116,9 @@
       <c r="AW26" s="15"/>
       <c r="AX26" s="15"/>
       <c r="AZ26" s="28"/>
+      <c r="BA26" s="19" t="s">
+        <v>304</v>
+      </c>
       <c r="BB26" s="22">
         <f>RANK(BX26,$BX$3:$BX$112)+COUNTIF(BX$3:BX27,BX26)-1</f>
         <v>22</v>
@@ -7253,9 +7282,7 @@
       <c r="AR27" s="42" t="s">
         <v>449</v>
       </c>
-      <c r="AS27" s="19" t="s">
-        <v>448</v>
-      </c>
+      <c r="AS27" s="19"/>
       <c r="AT27" s="19" t="s">
         <v>521</v>
       </c>
@@ -7263,6 +7290,9 @@
       <c r="AW27" s="15"/>
       <c r="AX27" s="15"/>
       <c r="AZ27" s="28"/>
+      <c r="BA27" s="19" t="s">
+        <v>448</v>
+      </c>
       <c r="BB27" s="22">
         <f>RANK(BX27,$BX$3:$BX$112)+COUNTIF(BX$3:BX28,BX27)-1</f>
         <v>33</v>
@@ -7426,9 +7456,7 @@
       <c r="AR28" s="27" t="s">
         <v>453</v>
       </c>
-      <c r="AS28" s="19" t="s">
-        <v>454</v>
-      </c>
+      <c r="AS28" s="19"/>
       <c r="AT28" s="19" t="s">
         <v>522</v>
       </c>
@@ -7436,6 +7464,9 @@
       <c r="AW28" s="15"/>
       <c r="AX28" s="15"/>
       <c r="AZ28" s="28"/>
+      <c r="BA28" s="19" t="s">
+        <v>454</v>
+      </c>
       <c r="BB28" s="22">
         <f>RANK(BX28,$BX$3:$BX$112)+COUNTIF(BX$3:BX29,BX28)-1</f>
         <v>34</v>
@@ -7599,9 +7630,7 @@
       <c r="AR29" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="AS29" s="19" t="s">
-        <v>419</v>
-      </c>
+      <c r="AS29" s="19"/>
       <c r="AT29" s="19" t="s">
         <v>523</v>
       </c>
@@ -7609,6 +7638,9 @@
       <c r="AW29" s="15"/>
       <c r="AX29" s="15"/>
       <c r="AZ29" s="28"/>
+      <c r="BA29" s="19" t="s">
+        <v>419</v>
+      </c>
       <c r="BB29" s="22">
         <f>RANK(BX29,$BX$3:$BX$112)+COUNTIF(BX$3:BX30,BX29)-1</f>
         <v>34</v>
@@ -7772,9 +7804,7 @@
       <c r="AR30" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="AS30" s="19" t="s">
-        <v>384</v>
-      </c>
+      <c r="AS30" s="19"/>
       <c r="AT30" s="19" t="s">
         <v>525</v>
       </c>
@@ -7782,6 +7812,9 @@
       <c r="AW30" s="15"/>
       <c r="AX30" s="15"/>
       <c r="AZ30" s="28"/>
+      <c r="BA30" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="BB30" s="22">
         <f>RANK(BX30,$BX$3:$BX$112)+COUNTIF(BX$3:BX31,BX30)-1</f>
         <v>48</v>
@@ -7951,6 +7984,7 @@
       <c r="AW31" s="15"/>
       <c r="AX31" s="15"/>
       <c r="AZ31" s="28"/>
+      <c r="BA31" s="19"/>
       <c r="BB31" s="22">
         <f>RANK(BX31,$BX$3:$BX$112)+COUNTIF(BX$3:BX32,BX31)-1</f>
         <v>80</v>
@@ -8114,9 +8148,7 @@
       <c r="AR32" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="AS32" s="19" t="s">
-        <v>387</v>
-      </c>
+      <c r="AS32" s="19"/>
       <c r="AT32" s="19" t="s">
         <v>527</v>
       </c>
@@ -8124,6 +8156,9 @@
       <c r="AW32" s="15"/>
       <c r="AX32" s="15"/>
       <c r="AZ32" s="28"/>
+      <c r="BA32" s="19" t="s">
+        <v>387</v>
+      </c>
       <c r="BB32" s="22">
         <f>RANK(BX32,$BX$3:$BX$112)+COUNTIF(BX$3:BX33,BX32)-1</f>
         <v>49</v>
@@ -8287,9 +8322,7 @@
       <c r="AR33" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="AS33" s="19" t="s">
-        <v>77</v>
-      </c>
+      <c r="AS33" s="19"/>
       <c r="AT33" s="19" t="s">
         <v>528</v>
       </c>
@@ -8297,6 +8330,9 @@
       <c r="AW33" s="15"/>
       <c r="AX33" s="15"/>
       <c r="AZ33" s="28"/>
+      <c r="BA33" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="BB33" s="22">
         <f>RANK(BX33,$BX$3:$BX$112)+COUNTIF(BX$3:BX34,BX33)-1</f>
         <v>16</v>
@@ -8470,6 +8506,7 @@
       <c r="AW34" s="15"/>
       <c r="AX34" s="15"/>
       <c r="AZ34" s="28"/>
+      <c r="BA34" s="19"/>
       <c r="BB34" s="22">
         <f>RANK(BX34,$BX$3:$BX$112)+COUNTIF(BX$3:BX35,BX34)-1</f>
         <v>26</v>
@@ -8635,9 +8672,7 @@
       <c r="AR35" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="AS35" s="19" t="s">
-        <v>397</v>
-      </c>
+      <c r="AS35" s="19"/>
       <c r="AT35" s="19" t="s">
         <v>530</v>
       </c>
@@ -8645,6 +8680,9 @@
       <c r="AW35" s="15"/>
       <c r="AX35" s="15"/>
       <c r="AZ35" s="28"/>
+      <c r="BA35" s="19" t="s">
+        <v>397</v>
+      </c>
       <c r="BB35" s="22">
         <f>RANK(BX35,$BX$3:$BX$112)+COUNTIF(BX$3:BX36,BX35)-1</f>
         <v>2</v>
@@ -8812,9 +8850,7 @@
       <c r="AR36" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="AS36" s="19" t="s">
-        <v>469</v>
-      </c>
+      <c r="AS36" s="19"/>
       <c r="AT36" s="19" t="s">
         <v>531</v>
       </c>
@@ -8822,6 +8858,9 @@
       <c r="AW36" s="15"/>
       <c r="AX36" s="15"/>
       <c r="AZ36" s="28"/>
+      <c r="BA36" s="19" t="s">
+        <v>469</v>
+      </c>
       <c r="BB36" s="22">
         <f>RANK(BX36,$BX$3:$BX$112)+COUNTIF(BX$3:BX37,BX36)-1</f>
         <v>35</v>
@@ -8985,9 +9024,7 @@
       <c r="AR37" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="AS37" s="19" t="s">
-        <v>241</v>
-      </c>
+      <c r="AS37" s="19"/>
       <c r="AT37" s="19" t="s">
         <v>532</v>
       </c>
@@ -8995,6 +9032,9 @@
       <c r="AW37" s="15"/>
       <c r="AX37" s="15"/>
       <c r="AZ37" s="28"/>
+      <c r="BA37" s="19" t="s">
+        <v>241</v>
+      </c>
       <c r="BB37" s="22">
         <f>RANK(BX37,$BX$3:$BX$112)+COUNTIF(BX$3:BX38,BX37)-1</f>
         <v>65</v>
@@ -9158,9 +9198,7 @@
       <c r="AR38" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="AS38" s="19" t="s">
-        <v>422</v>
-      </c>
+      <c r="AS38" s="19"/>
       <c r="AT38" s="19" t="s">
         <v>533</v>
       </c>
@@ -9168,6 +9206,9 @@
       <c r="AW38" s="15"/>
       <c r="AX38" s="15"/>
       <c r="AZ38" s="28"/>
+      <c r="BA38" s="19" t="s">
+        <v>422</v>
+      </c>
       <c r="BB38" s="22">
         <f>RANK(BX38,$BX$3:$BX$112)+COUNTIF(BX$3:BX39,BX38)-1</f>
         <v>37</v>
@@ -9331,9 +9372,7 @@
       <c r="AR39" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="AS39" s="19" t="s">
-        <v>474</v>
-      </c>
+      <c r="AS39" s="19"/>
       <c r="AT39" s="19" t="s">
         <v>536</v>
       </c>
@@ -9343,7 +9382,9 @@
       <c r="AX39" s="15"/>
       <c r="AY39" s="22"/>
       <c r="AZ39" s="28"/>
-      <c r="BA39" s="22"/>
+      <c r="BA39" s="19" t="s">
+        <v>474</v>
+      </c>
       <c r="BB39" s="22">
         <f>RANK(BX39,$BX$3:$BX$112)+COUNTIF(BX$3:BX40,BX39)-1</f>
         <v>37</v>
@@ -9509,9 +9550,7 @@
       <c r="AR40" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="AS40" s="19" t="s">
-        <v>245</v>
-      </c>
+      <c r="AS40" s="19"/>
       <c r="AT40" s="19" t="s">
         <v>537</v>
       </c>
@@ -9519,6 +9558,9 @@
       <c r="AW40" s="15"/>
       <c r="AX40" s="15"/>
       <c r="AZ40" s="28"/>
+      <c r="BA40" s="19" t="s">
+        <v>245</v>
+      </c>
       <c r="BB40" s="22">
         <f>RANK(BX40,$BX$3:$BX$112)+COUNTIF(BX$3:BX41,BX40)-1</f>
         <v>67</v>
@@ -9682,9 +9724,7 @@
       <c r="AR41" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="AS41" s="19" t="s">
-        <v>249</v>
-      </c>
+      <c r="AS41" s="19"/>
       <c r="AT41" s="19" t="s">
         <v>538</v>
       </c>
@@ -9692,6 +9732,9 @@
       <c r="AW41" s="15"/>
       <c r="AX41" s="15"/>
       <c r="AZ41" s="28"/>
+      <c r="BA41" s="19" t="s">
+        <v>249</v>
+      </c>
       <c r="BB41" s="22">
         <f>RANK(BX41,$BX$3:$BX$112)+COUNTIF(BX$3:BX42,BX41)-1</f>
         <v>67</v>
@@ -9855,9 +9898,7 @@
       <c r="AR42" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="AS42" s="19" t="s">
-        <v>234</v>
-      </c>
+      <c r="AS42" s="19"/>
       <c r="AT42" s="19" t="s">
         <v>539</v>
       </c>
@@ -9867,7 +9908,9 @@
       <c r="AX42" s="15"/>
       <c r="AY42" s="22"/>
       <c r="AZ42" s="28"/>
-      <c r="BA42" s="22"/>
+      <c r="BA42" s="19" t="s">
+        <v>234</v>
+      </c>
       <c r="BB42" s="22">
         <f>RANK(BX42,$BX$3:$BX$112)+COUNTIF(BX$3:BX43,BX42)-1</f>
         <v>14</v>
@@ -10037,9 +10080,7 @@
       <c r="AR43" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="AS43" s="19" t="s">
-        <v>479</v>
-      </c>
+      <c r="AS43" s="19"/>
       <c r="AT43" s="19" t="s">
         <v>540</v>
       </c>
@@ -10047,6 +10088,9 @@
       <c r="AW43" s="15"/>
       <c r="AX43" s="15"/>
       <c r="AZ43" s="28"/>
+      <c r="BA43" s="19" t="s">
+        <v>479</v>
+      </c>
       <c r="BB43" s="22">
         <f>RANK(BX43,$BX$3:$BX$112)+COUNTIF(BX$3:BX44,BX43)-1</f>
         <v>38</v>
@@ -10210,9 +10254,7 @@
       <c r="AR44" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="AS44" s="19" t="s">
-        <v>313</v>
-      </c>
+      <c r="AS44" s="19"/>
       <c r="AT44" s="19" t="s">
         <v>541</v>
       </c>
@@ -10220,6 +10262,9 @@
       <c r="AW44" s="15"/>
       <c r="AX44" s="15"/>
       <c r="AZ44" s="28"/>
+      <c r="BA44" s="19" t="s">
+        <v>313</v>
+      </c>
       <c r="BB44" s="22">
         <f>RANK(BX44,$BX$3:$BX$112)+COUNTIF(BX$3:BX45,BX44)-1</f>
         <v>68</v>
@@ -10383,9 +10428,7 @@
       <c r="AR45" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="AS45" s="19" t="s">
-        <v>107</v>
-      </c>
+      <c r="AS45" s="19"/>
       <c r="AT45" s="19" t="s">
         <v>542</v>
       </c>
@@ -10395,7 +10438,9 @@
       <c r="AX45" s="15"/>
       <c r="AY45" s="22"/>
       <c r="AZ45" s="28"/>
-      <c r="BA45" s="22"/>
+      <c r="BA45" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="BB45" s="22">
         <f>RANK(BX45,$BX$3:$BX$112)+COUNTIF(BX$3:BX46,BX45)-1</f>
         <v>9</v>
@@ -10567,9 +10612,7 @@
       <c r="AR46" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AS46" s="19" t="s">
-        <v>65</v>
-      </c>
+      <c r="AS46" s="19"/>
       <c r="AT46" s="19" t="s">
         <v>543</v>
       </c>
@@ -10577,6 +10620,9 @@
       <c r="AW46" s="15"/>
       <c r="AX46" s="15"/>
       <c r="AZ46" s="28"/>
+      <c r="BA46" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="BB46" s="22">
         <f>RANK(BX46,$BX$3:$BX$112)+COUNTIF(BX$3:BX47,BX46)-1</f>
         <v>81</v>
@@ -10740,9 +10786,7 @@
       <c r="AR47" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="AS47" s="19" t="s">
-        <v>321</v>
-      </c>
+      <c r="AS47" s="19"/>
       <c r="AT47" s="19" t="s">
         <v>544</v>
       </c>
@@ -10750,6 +10794,9 @@
       <c r="AW47" s="15"/>
       <c r="AX47" s="15"/>
       <c r="AZ47" s="28"/>
+      <c r="BA47" s="19" t="s">
+        <v>321</v>
+      </c>
       <c r="BB47" s="22">
         <f>RANK(BX47,$BX$3:$BX$112)+COUNTIF(BX$3:BX48,BX47)-1</f>
         <v>11</v>
@@ -10917,9 +10964,7 @@
       <c r="AR48" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="AS48" s="19" t="s">
-        <v>442</v>
-      </c>
+      <c r="AS48" s="19"/>
       <c r="AT48" s="19" t="s">
         <v>546</v>
       </c>
@@ -10929,7 +10974,9 @@
       <c r="AX48" s="15"/>
       <c r="AY48" s="22"/>
       <c r="AZ48" s="28"/>
-      <c r="BA48" s="22"/>
+      <c r="BA48" s="19" t="s">
+        <v>442</v>
+      </c>
       <c r="BB48" s="22">
         <f>RANK(BX48,$BX$3:$BX$112)+COUNTIF(BX$3:BX59,BX48)-1</f>
         <v>39</v>
@@ -11095,9 +11142,7 @@
       <c r="AR49" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="AS49" s="19" t="s">
-        <v>162</v>
-      </c>
+      <c r="AS49" s="19"/>
       <c r="AT49" s="19" t="s">
         <v>548</v>
       </c>
@@ -11105,6 +11150,9 @@
       <c r="AW49" s="15"/>
       <c r="AX49" s="15"/>
       <c r="AZ49" s="28"/>
+      <c r="BA49" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="BB49" s="22">
         <f>RANK(BX49,$BX$3:$BX$112)+COUNTIF(BX$3:BX50,BX49)-1</f>
         <v>82</v>
@@ -11268,9 +11316,7 @@
       <c r="AR50" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="AS50" s="19" t="s">
-        <v>318</v>
-      </c>
+      <c r="AS50" s="19"/>
       <c r="AT50" s="19" t="s">
         <v>547</v>
       </c>
@@ -11278,6 +11324,9 @@
       <c r="AW50" s="15"/>
       <c r="AX50" s="15"/>
       <c r="AZ50" s="28"/>
+      <c r="BA50" s="19" t="s">
+        <v>318</v>
+      </c>
       <c r="BB50" s="22">
         <f>RANK(BX50,$BX$3:$BX$112)+COUNTIF(BX$3:BX51,BX50)-1</f>
         <v>7</v>
@@ -11443,9 +11492,7 @@
       <c r="AR51" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="AS51" s="19" t="s">
-        <v>358</v>
-      </c>
+      <c r="AS51" s="19"/>
       <c r="AT51" s="19" t="s">
         <v>549</v>
       </c>
@@ -11455,7 +11502,9 @@
       <c r="AX51" s="15"/>
       <c r="AY51" s="22"/>
       <c r="AZ51" s="28"/>
-      <c r="BA51" s="22"/>
+      <c r="BA51" s="19" t="s">
+        <v>358</v>
+      </c>
       <c r="BB51" s="22">
         <f>RANK(BX51,$BX$3:$BX$112)+COUNTIF(BX$3:BX52,BX51)-1</f>
         <v>51</v>
@@ -11627,6 +11676,7 @@
       <c r="AW52" s="15"/>
       <c r="AX52" s="15"/>
       <c r="AZ52" s="28"/>
+      <c r="BA52" s="19"/>
       <c r="BB52" s="22">
         <f>RANK(BX52,$BX$3:$BX$112)+COUNTIF(BX$3:BX53,BX52)-1</f>
         <v>51</v>
@@ -11798,6 +11848,7 @@
       <c r="AW53" s="15"/>
       <c r="AX53" s="15"/>
       <c r="AZ53" s="28"/>
+      <c r="BA53" s="19"/>
       <c r="BB53" s="22">
         <f>RANK(BX53,$BX$3:$BX$112)+COUNTIF(BX$3:BX54,BX53)-1</f>
         <v>84</v>
@@ -11961,9 +12012,7 @@
       <c r="AR54" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="AS54" s="19" t="s">
-        <v>173</v>
-      </c>
+      <c r="AS54" s="19"/>
       <c r="AT54" s="19" t="s">
         <v>552</v>
       </c>
@@ -11973,7 +12022,9 @@
       <c r="AX54" s="15"/>
       <c r="AY54" s="22"/>
       <c r="AZ54" s="28"/>
-      <c r="BA54" s="22"/>
+      <c r="BA54" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="BB54" s="22">
         <f>RANK(BX54,$BX$3:$BX$112)+COUNTIF(BX$3:BX55,BX54)-1</f>
         <v>84</v>
@@ -12139,9 +12190,7 @@
       <c r="AR55" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AS55" s="19" t="s">
-        <v>48</v>
-      </c>
+      <c r="AS55" s="19"/>
       <c r="AT55" s="20" t="s">
         <v>553</v>
       </c>
@@ -12150,7 +12199,9 @@
       <c r="AX55" s="16"/>
       <c r="AY55" s="23"/>
       <c r="AZ55" s="23"/>
-      <c r="BA55" s="23"/>
+      <c r="BA55" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="BB55" s="22">
         <f>RANK(BX55,$BX$3:$BX$112)+COUNTIF(BX$3:BX56,BX55)-1</f>
         <v>3</v>
@@ -12322,9 +12373,7 @@
       <c r="AR56" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="AS56" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="AS56" s="19"/>
       <c r="AT56" s="19" t="s">
         <v>554</v>
       </c>
@@ -12332,6 +12381,9 @@
       <c r="AW56" s="15"/>
       <c r="AX56" s="15"/>
       <c r="AZ56" s="28"/>
+      <c r="BA56" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="BB56" s="22">
         <f>RANK(BX56,$BX$3:$BX$112)+COUNTIF(BX$3:BX57,BX56)-1</f>
         <v>85</v>
@@ -12495,9 +12547,7 @@
       <c r="AR57" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="AS57" s="19" t="s">
-        <v>361</v>
-      </c>
+      <c r="AS57" s="19"/>
       <c r="AT57" s="19" t="s">
         <v>555</v>
       </c>
@@ -12507,7 +12557,9 @@
       <c r="AX57" s="15"/>
       <c r="AY57" s="22"/>
       <c r="AZ57" s="28"/>
-      <c r="BA57" s="22"/>
+      <c r="BA57" s="19" t="s">
+        <v>361</v>
+      </c>
       <c r="BB57" s="22">
         <f>RANK(BX57,$BX$3:$BX$112)+COUNTIF(BX$3:BX58,BX57)-1</f>
         <v>6</v>
@@ -12679,9 +12731,7 @@
       <c r="AR58" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="AS58" s="19" t="s">
-        <v>326</v>
-      </c>
+      <c r="AS58" s="19"/>
       <c r="AT58" s="19" t="s">
         <v>556</v>
       </c>
@@ -12689,6 +12739,9 @@
       <c r="AW58" s="15"/>
       <c r="AX58" s="15"/>
       <c r="AZ58" s="28"/>
+      <c r="BA58" s="19" t="s">
+        <v>326</v>
+      </c>
       <c r="BB58" s="22">
         <f>RANK(BX58,$BX$3:$BX$112)+COUNTIF(BX$3:BX59,BX58)-1</f>
         <v>23</v>
@@ -12854,9 +12907,7 @@
       <c r="AR59" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="AS59" s="19" t="s">
-        <v>253</v>
-      </c>
+      <c r="AS59" s="19"/>
       <c r="AT59" s="19" t="s">
         <v>557</v>
       </c>
@@ -12864,6 +12915,9 @@
       <c r="AW59" s="15"/>
       <c r="AX59" s="15"/>
       <c r="AZ59" s="28"/>
+      <c r="BA59" s="19" t="s">
+        <v>253</v>
+      </c>
       <c r="BB59" s="22">
         <f>RANK(BX59,$BX$3:$BX$112)+COUNTIF(BX$3:BX60,BX59)-1</f>
         <v>69</v>
@@ -13027,9 +13081,7 @@
       <c r="AR60" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AS60" s="19" t="s">
-        <v>57</v>
-      </c>
+      <c r="AS60" s="19"/>
       <c r="AT60" s="19" t="s">
         <v>558</v>
       </c>
@@ -13039,7 +13091,9 @@
       <c r="AX60" s="15"/>
       <c r="AY60" s="22"/>
       <c r="AZ60" s="28"/>
-      <c r="BA60" s="22"/>
+      <c r="BA60" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="BB60" s="22">
         <f>RANK(BX60,$BX$3:$BX$112)+COUNTIF(BX$3:BX61,BX60)-1</f>
         <v>29</v>
@@ -13205,9 +13259,7 @@
       <c r="AR61" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="AS61" s="19" t="s">
-        <v>327</v>
-      </c>
+      <c r="AS61" s="19"/>
       <c r="AT61" s="19" t="s">
         <v>559</v>
       </c>
@@ -13215,6 +13267,9 @@
       <c r="AW61" s="15"/>
       <c r="AX61" s="15"/>
       <c r="AZ61" s="28"/>
+      <c r="BA61" s="19" t="s">
+        <v>327</v>
+      </c>
       <c r="BB61" s="22">
         <f>RANK(BX61,$BX$3:$BX$112)+COUNTIF(BX$3:BX62,BX61)-1</f>
         <v>5</v>
@@ -13382,9 +13437,7 @@
       <c r="AR62" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="AS62" s="19" t="s">
-        <v>424</v>
-      </c>
+      <c r="AS62" s="19"/>
       <c r="AT62" s="19" t="s">
         <v>560</v>
       </c>
@@ -13392,6 +13445,9 @@
       <c r="AW62" s="15"/>
       <c r="AX62" s="15"/>
       <c r="AZ62" s="28"/>
+      <c r="BA62" s="19" t="s">
+        <v>424</v>
+      </c>
       <c r="BB62" s="22">
         <f>RANK(BX62,$BX$3:$BX$112)+COUNTIF(BX$3:BX63,BX62)-1</f>
         <v>1</v>
@@ -13561,9 +13617,7 @@
       <c r="AR63" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AS63" s="19" t="s">
-        <v>120</v>
-      </c>
+      <c r="AS63" s="19"/>
       <c r="AT63" s="19" t="s">
         <v>561</v>
       </c>
@@ -13573,7 +13627,9 @@
       <c r="AX63" s="15"/>
       <c r="AY63" s="22"/>
       <c r="AZ63" s="28"/>
-      <c r="BA63" s="22"/>
+      <c r="BA63" s="19" t="s">
+        <v>120</v>
+      </c>
       <c r="BB63" s="22">
         <f>RANK(BX63,$BX$3:$BX$112)+COUNTIF(BX$3:BX64,BX63)-1</f>
         <v>86</v>
@@ -13739,9 +13795,7 @@
       <c r="AR64" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="AS64" s="19" t="s">
-        <v>425</v>
-      </c>
+      <c r="AS64" s="19"/>
       <c r="AT64" s="19" t="s">
         <v>562</v>
       </c>
@@ -13749,6 +13803,9 @@
       <c r="AW64" s="15"/>
       <c r="AX64" s="15"/>
       <c r="AZ64" s="28"/>
+      <c r="BA64" s="19" t="s">
+        <v>425</v>
+      </c>
       <c r="BB64" s="22">
         <f>RANK(BX64,$BX$3:$BX$112)+COUNTIF(BX$3:BX65,BX64)-1</f>
         <v>4</v>
@@ -13930,7 +13987,7 @@
       <c r="AX65" s="15"/>
       <c r="AY65" s="22"/>
       <c r="AZ65" s="28"/>
-      <c r="BA65" s="22"/>
+      <c r="BA65" s="19"/>
       <c r="BB65" s="22">
         <f>RANK(BX65,$BX$3:$BX$112)+COUNTIF(BX$3:BX66,BX65)-1</f>
         <v>87</v>
@@ -14096,9 +14153,7 @@
       <c r="AR66" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="AS66" s="19" t="s">
-        <v>485</v>
-      </c>
+      <c r="AS66" s="19"/>
       <c r="AT66" s="19" t="s">
         <v>564</v>
       </c>
@@ -14106,6 +14161,9 @@
       <c r="AW66" s="15"/>
       <c r="AX66" s="15"/>
       <c r="AZ66" s="28"/>
+      <c r="BA66" s="19" t="s">
+        <v>485</v>
+      </c>
       <c r="BB66" s="22">
         <f>RANK(BX66,$BX$3:$BX$112)+COUNTIF(BX$3:BX67,BX66)-1</f>
         <v>40</v>
@@ -14269,9 +14327,7 @@
       <c r="AR67" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="AS67" s="19" t="s">
-        <v>184</v>
-      </c>
+      <c r="AS67" s="19"/>
       <c r="AT67" s="19" t="s">
         <v>565</v>
       </c>
@@ -14279,6 +14335,9 @@
       <c r="AW67" s="15"/>
       <c r="AX67" s="15"/>
       <c r="AZ67" s="28"/>
+      <c r="BA67" s="19" t="s">
+        <v>184</v>
+      </c>
       <c r="BB67" s="22">
         <f>RANK(BX67,$BX$3:$BX$112)+COUNTIF(BX$3:BX68,BX67)-1</f>
         <v>88</v>
@@ -14442,9 +14501,7 @@
       <c r="AR68" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="AS68" s="19" t="s">
-        <v>188</v>
-      </c>
+      <c r="AS68" s="19"/>
       <c r="AT68" s="19" t="s">
         <v>566</v>
       </c>
@@ -14454,7 +14511,9 @@
       <c r="AX68" s="15"/>
       <c r="AY68" s="22"/>
       <c r="AZ68" s="28"/>
-      <c r="BA68" s="22"/>
+      <c r="BA68" s="19" t="s">
+        <v>188</v>
+      </c>
       <c r="BB68" s="22">
         <f>RANK(BX68,$BX$3:$BX$112)+COUNTIF(BX$3:BX69,BX68)-1</f>
         <v>8</v>
@@ -14634,6 +14693,7 @@
       <c r="AW69" s="15"/>
       <c r="AX69" s="15"/>
       <c r="AZ69" s="28"/>
+      <c r="BA69" s="19"/>
       <c r="BB69" s="22">
         <f>RANK(BX69,$BX$3:$BX$112)+COUNTIF(BX$3:BX70,BX69)-1</f>
         <v>89</v>
@@ -14797,9 +14857,7 @@
       <c r="AR70" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="AS70" s="19" t="s">
-        <v>333</v>
-      </c>
+      <c r="AS70" s="19"/>
       <c r="AT70" s="19" t="s">
         <v>569</v>
       </c>
@@ -14807,6 +14865,9 @@
       <c r="AW70" s="15"/>
       <c r="AX70" s="15"/>
       <c r="AZ70" s="28"/>
+      <c r="BA70" s="19" t="s">
+        <v>333</v>
+      </c>
       <c r="BB70" s="22">
         <f>RANK(BX70,$BX$3:$BX$112)+COUNTIF(BX$3:BX71,BX70)-1</f>
         <v>24</v>
@@ -14972,9 +15033,7 @@
       <c r="AR71" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="AS71" s="19" t="s">
-        <v>367</v>
-      </c>
+      <c r="AS71" s="19"/>
       <c r="AT71" s="19" t="s">
         <v>570</v>
       </c>
@@ -14984,7 +15043,9 @@
       <c r="AX71" s="15"/>
       <c r="AY71" s="22"/>
       <c r="AZ71" s="28"/>
-      <c r="BA71" s="22"/>
+      <c r="BA71" s="19" t="s">
+        <v>367</v>
+      </c>
       <c r="BB71" s="22">
         <f>RANK(BX71,$BX$3:$BX$112)+COUNTIF(BX$3:BX72,BX71)-1</f>
         <v>52</v>
@@ -15158,6 +15219,7 @@
       <c r="AW72" s="15"/>
       <c r="AX72" s="15"/>
       <c r="AZ72" s="28"/>
+      <c r="BA72" s="19"/>
       <c r="BB72" s="22">
         <f>RANK(BX72,$BX$3:$BX$112)+COUNTIF(BX$3:BX155,BX72)-1</f>
         <v>95</v>
@@ -15321,9 +15383,7 @@
       <c r="AR73" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="AS73" s="19" t="s">
-        <v>432</v>
-      </c>
+      <c r="AS73" s="19"/>
       <c r="AT73" s="19" t="s">
         <v>573</v>
       </c>
@@ -15331,6 +15391,9 @@
       <c r="AW73" s="15"/>
       <c r="AX73" s="15"/>
       <c r="AZ73" s="28"/>
+      <c r="BA73" s="19" t="s">
+        <v>432</v>
+      </c>
       <c r="BB73" s="22">
         <f>RANK(BX73,$BX$3:$BX$112)+COUNTIF(BX$3:BX74,BX73)-1</f>
         <v>42</v>
@@ -15494,9 +15557,7 @@
       <c r="AR74" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="AS74" s="19" t="s">
-        <v>490</v>
-      </c>
+      <c r="AS74" s="19"/>
       <c r="AT74" s="19" t="s">
         <v>574</v>
       </c>
@@ -15506,7 +15567,9 @@
       <c r="AX74" s="15"/>
       <c r="AY74" s="22"/>
       <c r="AZ74" s="28"/>
-      <c r="BA74" s="22"/>
+      <c r="BA74" s="19" t="s">
+        <v>490</v>
+      </c>
       <c r="BB74" s="22">
         <f>RANK(BX74,$BX$3:$BX$112)+COUNTIF(BX$3:BX75,BX74)-1</f>
         <v>43</v>
@@ -15672,9 +15735,7 @@
       <c r="AR75" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="AS75" s="19" t="s">
-        <v>495</v>
-      </c>
+      <c r="AS75" s="19"/>
       <c r="AT75" s="19" t="s">
         <v>575</v>
       </c>
@@ -15682,6 +15743,9 @@
       <c r="AW75" s="15"/>
       <c r="AX75" s="15"/>
       <c r="AZ75" s="28"/>
+      <c r="BA75" s="19" t="s">
+        <v>495</v>
+      </c>
       <c r="BB75" s="22">
         <f>RANK(BX75,$BX$3:$BX$112)+COUNTIF(BX$3:BX113,BX75)-1</f>
         <v>45</v>
@@ -15845,9 +15909,7 @@
       <c r="AR76" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="AS76" s="19" t="s">
-        <v>392</v>
-      </c>
+      <c r="AS76" s="19"/>
       <c r="AT76" s="19" t="s">
         <v>577</v>
       </c>
@@ -15855,6 +15917,9 @@
       <c r="AW76" s="15"/>
       <c r="AX76" s="15"/>
       <c r="AZ76" s="28"/>
+      <c r="BA76" s="19" t="s">
+        <v>392</v>
+      </c>
       <c r="BB76" s="22">
         <f>RANK(BX76,$BX$3:$BX$112)+COUNTIF(BX$3:BX77,BX76)-1</f>
         <v>53</v>
@@ -16018,9 +16083,7 @@
       <c r="AR77" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="AS77" s="19" t="s">
-        <v>388</v>
-      </c>
+      <c r="AS77" s="19"/>
       <c r="AT77" s="19" t="s">
         <v>578</v>
       </c>
@@ -16028,6 +16091,9 @@
       <c r="AW77" s="15"/>
       <c r="AX77" s="15"/>
       <c r="AZ77" s="28"/>
+      <c r="BA77" s="19" t="s">
+        <v>388</v>
+      </c>
       <c r="BB77" s="22">
         <f>RANK(BX77,$BX$3:$BX$112)+COUNTIF(BX$3:BX78,BX77)-1</f>
         <v>13</v>
@@ -16193,9 +16259,7 @@
       <c r="AR78" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="AS78" s="19" t="s">
-        <v>309</v>
-      </c>
+      <c r="AS78" s="19"/>
       <c r="AT78" s="19" t="s">
         <v>579</v>
       </c>
@@ -16205,7 +16269,9 @@
       <c r="AX78" s="15"/>
       <c r="AY78" s="22"/>
       <c r="AZ78" s="28"/>
-      <c r="BA78" s="22"/>
+      <c r="BA78" s="19" t="s">
+        <v>309</v>
+      </c>
       <c r="BB78" s="22">
         <f>RANK(BX78,$BX$3:$BX$112)+COUNTIF(BX$3:BX79,BX78)-1</f>
         <v>25</v>
@@ -16373,9 +16439,7 @@
       <c r="AR79" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AS79" s="19" t="s">
-        <v>458</v>
-      </c>
+      <c r="AS79" s="19"/>
       <c r="AT79" s="19" t="s">
         <v>580</v>
       </c>
@@ -16383,6 +16447,9 @@
       <c r="AW79" s="15"/>
       <c r="AX79" s="15"/>
       <c r="AZ79" s="28"/>
+      <c r="BA79" s="19" t="s">
+        <v>458</v>
+      </c>
       <c r="BB79" s="22">
         <f>RANK(BX79,$BX$3:$BX$112)+COUNTIF(BX$3:BX80,BX79)-1</f>
         <v>17</v>
@@ -16554,6 +16621,7 @@
       <c r="AW80" s="15"/>
       <c r="AX80" s="15"/>
       <c r="AZ80" s="28"/>
+      <c r="BA80" s="19"/>
       <c r="BB80" s="22">
         <f>RANK(BX80,$BX$3:$BX$112)+COUNTIF(BX$3:BX81,BX80)-1</f>
         <v>91</v>
@@ -16717,9 +16785,7 @@
       <c r="AR81" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="AS81" s="19" t="s">
-        <v>258</v>
-      </c>
+      <c r="AS81" s="19"/>
       <c r="AT81" s="19" t="s">
         <v>583</v>
       </c>
@@ -16729,7 +16795,9 @@
       <c r="AX81" s="15"/>
       <c r="AY81" s="22"/>
       <c r="AZ81" s="28"/>
-      <c r="BA81" s="22"/>
+      <c r="BA81" s="19" t="s">
+        <v>258</v>
+      </c>
       <c r="BB81" s="22">
         <f>RANK(BX81,$BX$3:$BX$112)+COUNTIF(BX$3:BX82,BX81)-1</f>
         <v>70</v>
@@ -16895,9 +16963,7 @@
       <c r="AR82" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="AS82" s="19" t="s">
-        <v>196</v>
-      </c>
+      <c r="AS82" s="19"/>
       <c r="AT82" s="19" t="s">
         <v>584</v>
       </c>
@@ -16905,6 +16971,9 @@
       <c r="AW82" s="15"/>
       <c r="AX82" s="15"/>
       <c r="AZ82" s="28"/>
+      <c r="BA82" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="BB82" s="22">
         <f>RANK(BX82,$BX$3:$BX$112)+COUNTIF(BX$3:BX83,BX82)-1</f>
         <v>28</v>
@@ -17070,9 +17139,7 @@
       <c r="AR83" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="AS83" s="19" t="s">
-        <v>125</v>
-      </c>
+      <c r="AS83" s="19"/>
       <c r="AT83" s="19" t="s">
         <v>585</v>
       </c>
@@ -17080,6 +17147,9 @@
       <c r="AW83" s="15"/>
       <c r="AX83" s="15"/>
       <c r="AZ83" s="28"/>
+      <c r="BA83" s="19" t="s">
+        <v>125</v>
+      </c>
       <c r="BB83" s="22">
         <f>RANK(BX83,$BX$3:$BX$112)+COUNTIF(BX$3:BX84,BX83)-1</f>
         <v>92</v>
@@ -17243,9 +17313,7 @@
       <c r="AR84" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="AS84" s="19" t="s">
-        <v>337</v>
-      </c>
+      <c r="AS84" s="19"/>
       <c r="AT84" s="19" t="s">
         <v>586</v>
       </c>
@@ -17255,7 +17323,9 @@
       <c r="AX84" s="15"/>
       <c r="AY84" s="22"/>
       <c r="AZ84" s="28"/>
-      <c r="BA84" s="22"/>
+      <c r="BA84" s="19" t="s">
+        <v>337</v>
+      </c>
       <c r="BB84" s="22">
         <f>RANK(BX84,$BX$3:$BX$112)+COUNTIF(BX$3:BX85,BX84)-1</f>
         <v>72</v>
@@ -17421,9 +17491,7 @@
       <c r="AR85" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="AS85" s="19" t="s">
-        <v>342</v>
-      </c>
+      <c r="AS85" s="19"/>
       <c r="AT85" s="19" t="s">
         <v>587</v>
       </c>
@@ -17431,6 +17499,9 @@
       <c r="AW85" s="15"/>
       <c r="AX85" s="15"/>
       <c r="AZ85" s="28"/>
+      <c r="BA85" s="19" t="s">
+        <v>342</v>
+      </c>
       <c r="BB85" s="22">
         <f>RANK(BX85,$BX$3:$BX$112)+COUNTIF(BX$3:BX86,BX85)-1</f>
         <v>72</v>
@@ -17594,9 +17665,7 @@
       <c r="AR86" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="AS86" s="19" t="s">
-        <v>588</v>
-      </c>
+      <c r="AS86" s="19"/>
       <c r="AT86" s="19" t="s">
         <v>589</v>
       </c>
@@ -17604,6 +17673,9 @@
       <c r="AW86" s="15"/>
       <c r="AX86" s="15"/>
       <c r="AZ86" s="28"/>
+      <c r="BA86" s="19" t="s">
+        <v>588</v>
+      </c>
       <c r="BB86" s="22">
         <f>RANK(BX86,$BX$3:$BX$112)+COUNTIF(BX$3:BX86,BX86)-1</f>
         <v>19</v>
@@ -17767,9 +17839,7 @@
         <v>94700</v>
       </c>
       <c r="AR87" s="27"/>
-      <c r="AS87" s="19" t="s">
-        <v>200</v>
-      </c>
+      <c r="AS87" s="19"/>
       <c r="AT87" s="19" t="s">
         <v>591</v>
       </c>
@@ -17777,6 +17847,9 @@
       <c r="AW87" s="15"/>
       <c r="AX87" s="15"/>
       <c r="AZ87" s="28"/>
+      <c r="BA87" s="19" t="s">
+        <v>200</v>
+      </c>
       <c r="BB87" s="22">
         <f>RANK(BX87,$BX$3:$BX$112)+COUNTIF(BX$3:BX88,BX87)-1</f>
         <v>93</v>
@@ -17940,9 +18013,7 @@
       <c r="AR88" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="AS88" s="19" t="s">
-        <v>266</v>
-      </c>
+      <c r="AS88" s="19"/>
       <c r="AT88" s="19" t="s">
         <v>593</v>
       </c>
@@ -17950,6 +18021,9 @@
       <c r="AW88" s="15"/>
       <c r="AX88" s="15"/>
       <c r="AZ88" s="28"/>
+      <c r="BA88" s="19" t="s">
+        <v>266</v>
+      </c>
       <c r="BB88" s="22">
         <f>RANK(BX88,$BX$3:$BX$112)+COUNTIF(BX$3:BX89,BX88)-1</f>
         <v>73</v>
@@ -18113,9 +18187,7 @@
       <c r="AR89" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="AS89" s="19" t="s">
-        <v>130</v>
-      </c>
+      <c r="AS89" s="19"/>
       <c r="AT89" s="19" t="s">
         <v>594</v>
       </c>
@@ -18125,7 +18197,9 @@
       <c r="AX89" s="15"/>
       <c r="AY89" s="22"/>
       <c r="AZ89" s="28"/>
-      <c r="BA89" s="22"/>
+      <c r="BA89" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="BB89" s="22">
         <f>RANK(BX89,$BX$3:$BX$112)+COUNTIF(BX$3:BX90,BX89)-1</f>
         <v>15</v>
@@ -18295,9 +18369,7 @@
       <c r="AR90" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="AS90" s="19" t="s">
-        <v>402</v>
-      </c>
+      <c r="AS90" s="19"/>
       <c r="AT90" s="19" t="s">
         <v>595</v>
       </c>
@@ -18305,6 +18377,9 @@
       <c r="AW90" s="15"/>
       <c r="AX90" s="15"/>
       <c r="AZ90" s="28"/>
+      <c r="BA90" s="19" t="s">
+        <v>402</v>
+      </c>
       <c r="BB90" s="22">
         <f>RANK(BX90,$BX$3:$BX$112)+COUNTIF(BX$3:BX91,BX90)-1</f>
         <v>54</v>
@@ -18468,9 +18543,7 @@
       <c r="AR91" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="AS91" s="19" t="s">
-        <v>436</v>
-      </c>
+      <c r="AS91" s="19"/>
       <c r="AT91" s="19" t="s">
         <v>596</v>
       </c>
@@ -18478,6 +18551,9 @@
       <c r="AW91" s="15"/>
       <c r="AX91" s="15"/>
       <c r="AZ91" s="28"/>
+      <c r="BA91" s="19" t="s">
+        <v>436</v>
+      </c>
       <c r="BB91" s="22">
         <f>RANK(BX91,$BX$3:$BX$112)+COUNTIF(BX$3:BX92,BX91)-1</f>
         <v>44</v>
@@ -18643,9 +18719,7 @@
       <c r="AR92" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="AS92" s="19" t="s">
-        <v>407</v>
-      </c>
+      <c r="AS92" s="19"/>
       <c r="AT92" s="19" t="s">
         <v>598</v>
       </c>
@@ -18655,7 +18729,9 @@
       <c r="AX92" s="15"/>
       <c r="AY92" s="22"/>
       <c r="AZ92" s="28"/>
-      <c r="BA92" s="22"/>
+      <c r="BA92" s="19" t="s">
+        <v>407</v>
+      </c>
       <c r="BB92" s="22">
         <f>RANK(BX92,$BX$3:$BX$112)+COUNTIF(BX$3:BX93,BX92)-1</f>
         <v>55</v>
@@ -18821,9 +18897,7 @@
       <c r="AR93" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="AS93" s="19" t="s">
-        <v>463</v>
-      </c>
+      <c r="AS93" s="19"/>
       <c r="AT93" s="19" t="s">
         <v>599</v>
       </c>
@@ -18831,6 +18905,9 @@
       <c r="AW93" s="15"/>
       <c r="AX93" s="15"/>
       <c r="AZ93" s="28"/>
+      <c r="BA93" s="19" t="s">
+        <v>463</v>
+      </c>
       <c r="BB93" s="22">
         <f>RANK(BX93,$BX$3:$BX$112)+COUNTIF(BX$3:BX93,BX93)-1</f>
         <v>45</v>
@@ -18994,9 +19071,7 @@
       <c r="AR94" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="AS94" s="19" t="s">
-        <v>71</v>
-      </c>
+      <c r="AS94" s="19"/>
       <c r="AT94" s="19" t="s">
         <v>600</v>
       </c>
@@ -19006,7 +19081,9 @@
       <c r="AX94" s="15"/>
       <c r="AY94" s="22"/>
       <c r="AZ94" s="28"/>
-      <c r="BA94" s="22"/>
+      <c r="BA94" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="BB94" s="22">
         <f>RANK(BX94,$BX$3:$BX$112)+COUNTIF(BX$3:BX95,BX94)-1</f>
         <v>95</v>
@@ -19180,6 +19257,7 @@
       <c r="AW95" s="15"/>
       <c r="AX95" s="15"/>
       <c r="AZ95" s="28"/>
+      <c r="BA95" s="19"/>
       <c r="BB95" s="22">
         <f>RANK(BX95,$BX$3:$BX$112)+COUNTIF(BX$3:BX171,BX95)-1</f>
         <v>95</v>
@@ -19343,9 +19421,7 @@
       <c r="AR96" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="AS96" s="19" t="s">
-        <v>347</v>
-      </c>
+      <c r="AS96" s="19"/>
       <c r="AT96" s="19" t="s">
         <v>602</v>
       </c>
@@ -19353,6 +19429,9 @@
       <c r="AW96" s="15"/>
       <c r="AX96" s="15"/>
       <c r="AZ96" s="28"/>
+      <c r="BA96" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="BB96" s="22">
         <f>RANK(BX96,$BX$3:$BX$112)+COUNTIF(BX$3:BX97,BX96)-1</f>
         <v>74</v>
@@ -19516,9 +19595,7 @@
       <c r="AR97" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="AS97" s="19" t="s">
-        <v>371</v>
-      </c>
+      <c r="AS97" s="19"/>
       <c r="AT97" s="19" t="s">
         <v>604</v>
       </c>
@@ -19526,6 +19603,9 @@
       <c r="AW97" s="15"/>
       <c r="AX97" s="15"/>
       <c r="AZ97" s="28"/>
+      <c r="BA97" s="19" t="s">
+        <v>371</v>
+      </c>
       <c r="BB97" s="22">
         <f>RANK(BX97,$BX$3:$BX$112)+COUNTIF(BX$3:BX127,BX97)-1</f>
         <v>56</v>
@@ -19687,9 +19767,7 @@
       <c r="AR98" s="27" t="s">
         <v>608</v>
       </c>
-      <c r="AS98" s="19" t="s">
-        <v>609</v>
-      </c>
+      <c r="AS98" s="19"/>
       <c r="AT98" s="19" t="s">
         <v>610</v>
       </c>
@@ -19699,7 +19777,9 @@
       <c r="AX98" s="15"/>
       <c r="AY98" s="22"/>
       <c r="AZ98" s="28"/>
-      <c r="BA98" s="22"/>
+      <c r="BA98" s="19" t="s">
+        <v>609</v>
+      </c>
       <c r="BB98" s="22">
         <f>RANK(BX98,$BX$3:$BX$112)+COUNTIF(BX$3:BX99,BX98)-1</f>
         <v>97</v>
@@ -19863,9 +19943,7 @@
       <c r="AR99" s="27" t="s">
         <v>621</v>
       </c>
-      <c r="AS99" s="19" t="s">
-        <v>622</v>
-      </c>
+      <c r="AS99" s="19"/>
       <c r="AT99" s="19" t="s">
         <v>616</v>
       </c>
@@ -19873,6 +19951,9 @@
       <c r="AW99" s="15"/>
       <c r="AX99" s="15"/>
       <c r="AZ99" s="28"/>
+      <c r="BA99" s="19" t="s">
+        <v>622</v>
+      </c>
       <c r="BB99" s="22">
         <f>RANK(BX99,$BX$3:$BX$112)+COUNTIF(BX$3:BX100,BX99)-1</f>
         <v>98</v>
@@ -20034,9 +20115,7 @@
       <c r="AR100" s="27" t="s">
         <v>620</v>
       </c>
-      <c r="AS100" s="19" t="s">
-        <v>615</v>
-      </c>
+      <c r="AS100" s="19"/>
       <c r="AT100" s="19" t="s">
         <v>624</v>
       </c>
@@ -20044,6 +20123,9 @@
       <c r="AW100" s="15"/>
       <c r="AX100" s="15"/>
       <c r="AZ100" s="28"/>
+      <c r="BA100" s="19" t="s">
+        <v>615</v>
+      </c>
       <c r="BB100" s="22">
         <f>RANK(BX100,$BX$3:$BX$112)+COUNTIF(BX$3:BX101,BX100)-1</f>
         <v>99</v>
@@ -20203,9 +20285,7 @@
       <c r="AR101" s="27" t="s">
         <v>627</v>
       </c>
-      <c r="AS101" s="19" t="s">
-        <v>628</v>
-      </c>
+      <c r="AS101" s="19"/>
       <c r="AT101" s="19" t="s">
         <v>631</v>
       </c>
@@ -20215,7 +20295,9 @@
       <c r="AX101" s="15"/>
       <c r="AY101" s="22"/>
       <c r="AZ101" s="28"/>
-      <c r="BA101" s="22"/>
+      <c r="BA101" s="19" t="s">
+        <v>628</v>
+      </c>
       <c r="BB101" s="22">
         <f>RANK(BX101,$BX$3:$BX$112)+COUNTIF(BX$3:BX102,BX101)-1</f>
         <v>100</v>
@@ -20379,9 +20461,7 @@
       <c r="AR102" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="AS102" s="19" t="s">
-        <v>634</v>
-      </c>
+      <c r="AS102" s="19"/>
       <c r="AT102" s="19" t="s">
         <v>636</v>
       </c>
@@ -20389,6 +20469,9 @@
       <c r="AW102" s="15"/>
       <c r="AX102" s="15"/>
       <c r="AZ102" s="28"/>
+      <c r="BA102" s="19" t="s">
+        <v>634</v>
+      </c>
       <c r="BB102" s="22">
         <f>RANK(BX102,$BX$3:$BX$112)+COUNTIF(BX$3:BX103,BX102)-1</f>
         <v>101</v>
@@ -20558,6 +20641,7 @@
       <c r="AW103" s="15"/>
       <c r="AX103" s="15"/>
       <c r="AZ103" s="28"/>
+      <c r="BA103" s="19"/>
       <c r="BB103" s="22">
         <f>RANK(BX103,$BX$3:$BX$112)+COUNTIF(BX$3:BX104,BX103)-1</f>
         <v>102</v>
@@ -20719,9 +20803,7 @@
       <c r="AR104" s="42" t="s">
         <v>651</v>
       </c>
-      <c r="AS104" s="19" t="s">
-        <v>647</v>
-      </c>
+      <c r="AS104" s="19"/>
       <c r="AT104" s="19" t="s">
         <v>648</v>
       </c>
@@ -20731,7 +20813,9 @@
       <c r="AX104" s="15"/>
       <c r="AY104" s="22"/>
       <c r="AZ104" s="28"/>
-      <c r="BA104" s="22"/>
+      <c r="BA104" s="19" t="s">
+        <v>647</v>
+      </c>
       <c r="BB104" s="22">
         <f>RANK(BX104,$BX$3:$BX$112)+COUNTIF(BX$3:BX105,BX104)-1</f>
         <v>103</v>
@@ -20887,6 +20971,7 @@
       <c r="AW105" s="15"/>
       <c r="AX105" s="15"/>
       <c r="AZ105" s="28"/>
+      <c r="BA105" s="19"/>
       <c r="BB105" s="22">
         <f>RANK(BX105,$BX$3:$BX$112)+COUNTIF(BX$3:BX106,BX105)-1</f>
         <v>104</v>
@@ -21042,7 +21127,7 @@
       <c r="AX106" s="15"/>
       <c r="AY106" s="22"/>
       <c r="AZ106" s="28"/>
-      <c r="BA106" s="22"/>
+      <c r="BA106" s="19"/>
       <c r="BB106" s="22">
         <f>RANK(BX106,$BX$3:$BX$112)+COUNTIF(BX$3:BX107,BX106)-1</f>
         <v>105</v>
@@ -21198,6 +21283,7 @@
       <c r="AW107" s="15"/>
       <c r="AX107" s="15"/>
       <c r="AZ107" s="28"/>
+      <c r="BA107" s="19"/>
       <c r="BB107" s="22">
         <f>RANK(BX107,$BX$3:$BX$112)+COUNTIF(BX$3:BX108,BX107)-1</f>
         <v>106</v>
@@ -21351,6 +21437,7 @@
       <c r="AW108" s="15"/>
       <c r="AX108" s="15"/>
       <c r="AZ108" s="28"/>
+      <c r="BA108" s="19"/>
       <c r="BB108" s="22">
         <f>RANK(BX108,$BX$3:$BX$112)+COUNTIF(BX$3:BX109,BX108)-1</f>
         <v>107</v>
@@ -21506,7 +21593,7 @@
       <c r="AX109" s="15"/>
       <c r="AY109" s="22"/>
       <c r="AZ109" s="28"/>
-      <c r="BA109" s="22"/>
+      <c r="BA109" s="19"/>
       <c r="BB109" s="22">
         <f>RANK(BX109,$BX$3:$BX$112)+COUNTIF(BX$3:BX110,BX109)-1</f>
         <v>108</v>
@@ -21662,6 +21749,7 @@
       <c r="AW110" s="15"/>
       <c r="AX110" s="15"/>
       <c r="AZ110" s="28"/>
+      <c r="BA110" s="19"/>
       <c r="BB110" s="22">
         <f>RANK(BX110,$BX$3:$BX$112)+COUNTIF(BX$3:BX111,BX110)-1</f>
         <v>109</v>
@@ -21815,6 +21903,7 @@
       <c r="AW111" s="15"/>
       <c r="AX111" s="15"/>
       <c r="AZ111" s="28"/>
+      <c r="BA111" s="19"/>
       <c r="BB111" s="22">
         <f>RANK(BX111,$BX$3:$BX$112)+COUNTIF(BX$3:BX112,BX111)-1</f>
         <v>110</v>
@@ -21970,7 +22059,7 @@
       <c r="AX112" s="15"/>
       <c r="AY112" s="22"/>
       <c r="AZ112" s="28"/>
-      <c r="BA112" s="22"/>
+      <c r="BA112" s="19"/>
       <c r="BB112" s="22">
         <f>RANK(BX112,$BX$3:$BX$112)+COUNTIF(BX$3:BX113,BX112)-1</f>
         <v>111</v>
@@ -22126,6 +22215,7 @@
       <c r="AW113" s="15"/>
       <c r="AX113" s="15"/>
       <c r="AZ113" s="28"/>
+      <c r="BA113" s="19"/>
       <c r="BB113" s="22">
         <f>RANK(BX113,$BX$3:$BX$112)+COUNTIF(BX$3:BX113,BX113)-1</f>
         <v>111</v>
@@ -28956,87 +29046,87 @@
     <sortCondition ref="A123:A132"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="AS55" r:id="rId1" xr:uid="{D134FC07-F31D-44BE-8697-6C9D9D93D662}"/>
-    <hyperlink ref="AS60" r:id="rId2" xr:uid="{C26DB75C-48C9-43E7-B336-E8EDCC1A988D}"/>
-    <hyperlink ref="AS46" r:id="rId3" xr:uid="{04783F99-69C8-4A31-B01D-0789A81F3A87}"/>
-    <hyperlink ref="AS94" r:id="rId4" xr:uid="{859CF046-9736-4186-A3F1-28BD53E5A60D}"/>
-    <hyperlink ref="AS33" r:id="rId5" xr:uid="{2602FFE0-1E3C-479C-AC65-7A2DADEF1186}"/>
-    <hyperlink ref="AS9" r:id="rId6" xr:uid="{A5627B7E-99A0-4FF7-A34B-35296F43CBF2}"/>
-    <hyperlink ref="AS21" r:id="rId7" xr:uid="{5463CD77-6B13-4DF5-BB3B-678FA71C30A3}"/>
-    <hyperlink ref="AS25" r:id="rId8" xr:uid="{A6EBC384-E30C-4617-B4A4-F090E907E3D1}"/>
-    <hyperlink ref="AS45" r:id="rId9" xr:uid="{1B3BDBDB-B5D9-48AB-AA51-6851A9B58F22}"/>
-    <hyperlink ref="AS56" r:id="rId10" xr:uid="{2D1A58D5-C863-4AC6-B903-D2C06993D388}"/>
-    <hyperlink ref="AS61" r:id="rId11" display="frederic.barret@aphp.fr" xr:uid="{A6CE79D8-DBFC-4D6B-8152-9B75D060EF4E}"/>
-    <hyperlink ref="AS63" r:id="rId12" xr:uid="{903592E3-2AAA-4FAB-95FB-719F27E3B7DB}"/>
-    <hyperlink ref="AS83" r:id="rId13" xr:uid="{B2869929-A6FC-4F9C-BA4F-0EC72F070F6D}"/>
-    <hyperlink ref="AS89" r:id="rId14" xr:uid="{D4BC9C53-023A-401A-A9B3-672B9FE5A8AE}"/>
-    <hyperlink ref="AS23" r:id="rId15" display="f.polak@clinique-estree.fr" xr:uid="{7A2445FC-D8DA-4939-B677-1A00E4DFB032}"/>
-    <hyperlink ref="AS49" r:id="rId16" xr:uid="{444F49E0-7B3B-47C2-8027-65BC146B9C13}"/>
-    <hyperlink ref="AS54" r:id="rId17" xr:uid="{516E3940-3A48-434F-B297-4CBA5B70AEF4}"/>
-    <hyperlink ref="AS57" r:id="rId18" display="bruno.baune@aphp.fr" xr:uid="{D8B6E387-57AB-4D2B-BA45-8334C5CA2B0D}"/>
-    <hyperlink ref="AS67" r:id="rId19" xr:uid="{52C99270-09FB-4112-994E-107141A67458}"/>
-    <hyperlink ref="AS68" r:id="rId20" xr:uid="{5A432C8E-3448-4A9E-BFC2-2342B43D9AD0}"/>
-    <hyperlink ref="AS87" r:id="rId21" xr:uid="{8F03BC09-4630-4336-889B-1D64F3C57C90}"/>
-    <hyperlink ref="AS4" r:id="rId22" xr:uid="{A57F456A-45D0-4504-8E10-F935F14DDA57}"/>
-    <hyperlink ref="AS5" r:id="rId23" xr:uid="{B19D23BC-E502-4EBC-BD0C-6C01B3B5ED0E}"/>
-    <hyperlink ref="AS12" r:id="rId24" xr:uid="{B737D0EA-B55A-4434-929F-89E6050BEE78}"/>
-    <hyperlink ref="AS16" r:id="rId25" xr:uid="{7F4004BD-1101-4E95-ACA2-FE8AEB650E9A}"/>
-    <hyperlink ref="AS17" r:id="rId26" xr:uid="{DA18B33F-035C-4D30-9A92-7BA9E543ADA7}"/>
-    <hyperlink ref="AS19" r:id="rId27" xr:uid="{40EF59D1-684C-4355-B3C9-2E8D4C5C0A03}"/>
-    <hyperlink ref="AS77" r:id="rId28" display="nicole.lambourdiere@ville-bagnolet.fr" xr:uid="{7A82E0B3-689E-41A9-B1C0-737F08F9CC7A}"/>
-    <hyperlink ref="AS37" r:id="rId29" xr:uid="{C7996D26-15B5-4174-9A26-30E474954548}"/>
-    <hyperlink ref="AS40" r:id="rId30" xr:uid="{9F8C02B9-4BCF-4670-BE77-FE73484C94F8}"/>
-    <hyperlink ref="AS41" r:id="rId31" xr:uid="{FCD7C061-44CF-40E4-8204-4F818694202F}"/>
-    <hyperlink ref="AS59" r:id="rId32" xr:uid="{1FFAD8C8-E20D-4BAC-8289-F1C50071AF9E}"/>
-    <hyperlink ref="AS81" r:id="rId33" xr:uid="{ADDD8E4E-AD72-4993-97A1-41B6020079C2}"/>
-    <hyperlink ref="AS86" r:id="rId34" display="aymen.bcuisine@gmail.com" xr:uid="{3EF996E0-5C66-49A8-8673-8598AD504ECC}"/>
-    <hyperlink ref="AS88" r:id="rId35" xr:uid="{FB4E237B-EF3C-4727-9647-5A21928B25C6}"/>
-    <hyperlink ref="AS10" r:id="rId36" xr:uid="{18BB6FF6-0B07-4840-84C9-82FA2421B234}"/>
-    <hyperlink ref="AS11" r:id="rId37" xr:uid="{2A5F5E59-D0F4-4A56-816D-DB3B2F59C444}"/>
-    <hyperlink ref="AS14" r:id="rId38" xr:uid="{BAF37CB7-8FF4-4343-868B-EDDBBAE1E7D0}"/>
-    <hyperlink ref="AS15" r:id="rId39" xr:uid="{7825549D-9088-4660-BAB9-4804ADAE2966}"/>
-    <hyperlink ref="AS18" r:id="rId40" xr:uid="{6AA23209-EC90-4F1F-8004-2A5A0C8A04F1}"/>
-    <hyperlink ref="AS20" r:id="rId41" xr:uid="{EEB91DE3-3B82-4D29-977E-219258F18AD2}"/>
-    <hyperlink ref="AS22" r:id="rId42" xr:uid="{7BBDC113-5A84-4D7F-B63C-3191A4E83C89}"/>
-    <hyperlink ref="AS26" r:id="rId43" xr:uid="{093E1BA0-5249-4FDA-8A88-36AEC3C68FC4}"/>
-    <hyperlink ref="AS78" r:id="rId44" xr:uid="{82AFA381-C307-4272-BA14-33B4569B3868}"/>
-    <hyperlink ref="AS44" r:id="rId45" xr:uid="{6C4F11B1-8BBB-4AAB-9938-9649A7863071}"/>
-    <hyperlink ref="AS64" r:id="rId46" xr:uid="{B234A370-0837-4AD9-90D5-D88AE412693E}"/>
-    <hyperlink ref="AS58" r:id="rId47" xr:uid="{3B86A643-C31E-4722-931F-FB188EF207BD}"/>
-    <hyperlink ref="AS70" r:id="rId48" xr:uid="{45300B98-910C-4349-B093-BFDB98F5E0CB}"/>
-    <hyperlink ref="AS84" r:id="rId49" xr:uid="{9ED99A03-CAFB-47D2-8841-588AE0886256}"/>
-    <hyperlink ref="AS85" r:id="rId50" xr:uid="{34129EDC-9186-405E-9275-2A22ABEF70FF}"/>
-    <hyperlink ref="AS96" r:id="rId51" xr:uid="{442DD217-BAC2-4C1F-B1EB-6D1AE3CFBD2E}"/>
-    <hyperlink ref="AS3" r:id="rId52" xr:uid="{711A590F-0AD6-4E7D-90A2-202229C07795}"/>
-    <hyperlink ref="AS51" r:id="rId53" xr:uid="{1B8773BE-94A4-421A-AD1C-22E27218142B}"/>
-    <hyperlink ref="AS62" r:id="rId54" display="laurence.coupel@ch-aulnay.fr" xr:uid="{C42C7E4C-F22E-4E45-81D1-6E127DF0EC58}"/>
-    <hyperlink ref="AS71" r:id="rId55" xr:uid="{4E2C4C8B-AF69-40FD-8C38-D1CC65A0B49C}"/>
-    <hyperlink ref="AS97" r:id="rId56" xr:uid="{46BC09AC-6539-4AA6-91B2-3B196D6A3295}"/>
-    <hyperlink ref="AS13" r:id="rId57" xr:uid="{AB21D094-11F0-424E-BB2C-7A4624E11F5A}"/>
-    <hyperlink ref="AS30" r:id="rId58" xr:uid="{7E8C7355-24F1-48F7-85B0-642E3A226D1A}"/>
-    <hyperlink ref="AS32" r:id="rId59" xr:uid="{6A1E9964-60AC-49C6-A464-D088D725E09F}"/>
-    <hyperlink ref="AS35" r:id="rId60" xr:uid="{63A6CF5D-8E77-4DAF-82F4-73EA457A1FEA}"/>
-    <hyperlink ref="AS90" r:id="rId61" xr:uid="{7131A896-5999-41BA-8B7C-500837DB7370}"/>
-    <hyperlink ref="AS92" r:id="rId62" xr:uid="{95AF6503-2A1B-448D-BDC4-BAA858149A8C}"/>
-    <hyperlink ref="AS29" r:id="rId63" xr:uid="{2A80D3E8-7C8A-46EE-87F2-6A77DF8E6F14}"/>
-    <hyperlink ref="AS73" r:id="rId64" xr:uid="{668D62AA-F631-44E3-B769-736714653ED7}"/>
-    <hyperlink ref="AS48" r:id="rId65" xr:uid="{B8B3009C-B860-4094-801D-B93443B37A63}"/>
-    <hyperlink ref="AS24" r:id="rId66" xr:uid="{7DB7CCF1-7DC2-46FC-AFF2-59B05D3639A6}"/>
-    <hyperlink ref="AS27" r:id="rId67" xr:uid="{A0A7D563-1790-4CFA-8A82-539ED0287E91}"/>
-    <hyperlink ref="AS28" r:id="rId68" xr:uid="{68F74A83-8748-48AC-8B82-835CE61C0D03}"/>
-    <hyperlink ref="AS79" r:id="rId69" xr:uid="{5A367E19-3064-4E8B-8B44-BA13A62C0390}"/>
-    <hyperlink ref="AS93" r:id="rId70" xr:uid="{C5E7FB00-0AA9-4884-BCBD-18C71A589D13}"/>
-    <hyperlink ref="AS36" r:id="rId71" xr:uid="{C3B223DF-BD90-4B20-9352-FF224E319B38}"/>
-    <hyperlink ref="AS39" r:id="rId72" xr:uid="{0DB02164-4836-4FA0-A3DF-B9D7F9BEC735}"/>
-    <hyperlink ref="AS43" r:id="rId73" xr:uid="{DE32AE39-9BED-4E84-926C-4EF3C84D3332}"/>
-    <hyperlink ref="AS66" r:id="rId74" xr:uid="{4F717DD0-9330-46C6-B4E7-993E10EC4663}"/>
-    <hyperlink ref="AS74" r:id="rId75" xr:uid="{EBB97C00-48C2-428C-8E12-042E2B206275}"/>
-    <hyperlink ref="AS75" r:id="rId76" xr:uid="{918B6EF7-91D4-4541-95A8-B588B3A9EB80}"/>
-    <hyperlink ref="AS98" r:id="rId77" xr:uid="{DE61F386-54AB-4DC5-83C3-D33EC1B96592}"/>
-    <hyperlink ref="AS99" r:id="rId78" xr:uid="{2FC51CA3-6732-4DB8-87A4-58F9BB4D742B}"/>
-    <hyperlink ref="AS101" r:id="rId79" xr:uid="{74917680-C7B9-4D4A-80D2-4D25869E4DA9}"/>
-    <hyperlink ref="AS102" r:id="rId80" xr:uid="{C5C94AB8-6E55-45E9-8A6C-7984DCF10E2D}"/>
-    <hyperlink ref="AS104" r:id="rId81" xr:uid="{79050D63-5B64-4D48-9C58-80A7685EC4F7}"/>
+    <hyperlink ref="BA55" r:id="rId1" xr:uid="{E502EC2E-8BFE-4972-AD7B-153635A2D3F5}"/>
+    <hyperlink ref="BA60" r:id="rId2" xr:uid="{BAA8126A-91D0-4AD8-923E-88340EA6A0BF}"/>
+    <hyperlink ref="BA46" r:id="rId3" xr:uid="{EA8A9F21-DCAD-4D13-9D4C-13C4DA594959}"/>
+    <hyperlink ref="BA94" r:id="rId4" xr:uid="{036BF4E7-E8AD-4C92-BC4C-7D0895F87AA7}"/>
+    <hyperlink ref="BA33" r:id="rId5" xr:uid="{DDFF4953-8CF2-44F3-AC30-BF2C3FFA095E}"/>
+    <hyperlink ref="BA9" r:id="rId6" xr:uid="{043B402C-0B1D-4315-873B-D779007CF6B8}"/>
+    <hyperlink ref="BA21" r:id="rId7" xr:uid="{433B76CE-E6CE-46D4-8050-3F85D7CE9727}"/>
+    <hyperlink ref="BA25" r:id="rId8" xr:uid="{86C1E962-2A02-4BB8-8AF8-DC1269BB491E}"/>
+    <hyperlink ref="BA45" r:id="rId9" xr:uid="{8966A9F4-494C-4161-9E77-B922D188C72A}"/>
+    <hyperlink ref="BA56" r:id="rId10" xr:uid="{C3DC7C05-6C4D-4536-9B7D-F4BC846FD864}"/>
+    <hyperlink ref="BA61" r:id="rId11" display="frederic.barret@aphp.fr" xr:uid="{05E8B62E-8C9F-4031-B9DC-E81607EDAFFD}"/>
+    <hyperlink ref="BA63" r:id="rId12" xr:uid="{30C16268-C1CE-4CA7-B47F-7CB488370254}"/>
+    <hyperlink ref="BA83" r:id="rId13" xr:uid="{10823D82-A930-49BC-B448-236C9A810574}"/>
+    <hyperlink ref="BA89" r:id="rId14" xr:uid="{874F52D1-1E0D-49B5-889C-5C16FFFC2C1F}"/>
+    <hyperlink ref="BA23" r:id="rId15" display="f.polak@clinique-estree.fr" xr:uid="{F66112FD-237C-4972-9A72-620A164E8921}"/>
+    <hyperlink ref="BA49" r:id="rId16" xr:uid="{115E7FFF-4C30-473A-8E08-7A0750D18EDD}"/>
+    <hyperlink ref="BA54" r:id="rId17" xr:uid="{6A1C4B56-43C8-4D83-9286-598DED4E9B48}"/>
+    <hyperlink ref="BA57" r:id="rId18" display="bruno.baune@aphp.fr" xr:uid="{680F9157-5B4F-4E1E-9B9D-5B2F3207D2BB}"/>
+    <hyperlink ref="BA67" r:id="rId19" xr:uid="{24EE7B98-65C5-4307-A800-2FB51DF29A52}"/>
+    <hyperlink ref="BA68" r:id="rId20" xr:uid="{ED4A4F3B-7D74-44FF-BAB5-F0E58DE8485A}"/>
+    <hyperlink ref="BA87" r:id="rId21" xr:uid="{A3CC5D33-25A4-4A3D-92EF-54D27C91C9AC}"/>
+    <hyperlink ref="BA4" r:id="rId22" xr:uid="{82E39823-DC5B-43E5-A54A-1647FCE16C9A}"/>
+    <hyperlink ref="BA5" r:id="rId23" xr:uid="{291E0E7A-7B88-4049-94DC-09A18F17C68E}"/>
+    <hyperlink ref="BA12" r:id="rId24" xr:uid="{5EB103D4-D3B9-4520-A454-9D07BDCC01F6}"/>
+    <hyperlink ref="BA16" r:id="rId25" xr:uid="{B5F3A440-9EDA-414E-93FB-9577EA43AE69}"/>
+    <hyperlink ref="BA17" r:id="rId26" xr:uid="{323ED47E-77D9-401D-BBDC-4EC7E111949A}"/>
+    <hyperlink ref="BA19" r:id="rId27" xr:uid="{A6B6E3E7-14E9-4043-B65F-CD2FE5A992B7}"/>
+    <hyperlink ref="BA77" r:id="rId28" display="nicole.lambourdiere@ville-bagnolet.fr" xr:uid="{D95E21A1-DCB6-46C5-B588-B1F7DCAC8ED2}"/>
+    <hyperlink ref="BA37" r:id="rId29" xr:uid="{3B2569E0-C686-4C1F-8B75-1FD8B4D36076}"/>
+    <hyperlink ref="BA40" r:id="rId30" xr:uid="{00DE1199-87A3-4DAB-95B2-F4E537C82D0F}"/>
+    <hyperlink ref="BA41" r:id="rId31" xr:uid="{E90F622B-5DE2-43EA-93A5-34068D8261C9}"/>
+    <hyperlink ref="BA59" r:id="rId32" xr:uid="{99EADD0B-5993-4B02-9445-49F86C98C7CC}"/>
+    <hyperlink ref="BA81" r:id="rId33" xr:uid="{13C1818E-3C78-4DFE-8DCB-F7FAEF562E52}"/>
+    <hyperlink ref="BA86" r:id="rId34" display="aymen.bcuisine@gmail.com" xr:uid="{375F94B8-D309-4A29-9FAA-B388459ED0AD}"/>
+    <hyperlink ref="BA88" r:id="rId35" xr:uid="{06528137-D6C7-404E-8342-875E54F1A8B8}"/>
+    <hyperlink ref="BA10" r:id="rId36" xr:uid="{12DCA2D2-6728-4695-943D-7B7ACD15F8EC}"/>
+    <hyperlink ref="BA11" r:id="rId37" xr:uid="{409E9135-EB35-4403-A9DA-74C54E9FB641}"/>
+    <hyperlink ref="BA14" r:id="rId38" xr:uid="{C63ABC72-897F-42E7-835A-2C7789C8090C}"/>
+    <hyperlink ref="BA15" r:id="rId39" xr:uid="{61F398E0-AFB9-45D8-99C8-304B0F48C336}"/>
+    <hyperlink ref="BA18" r:id="rId40" xr:uid="{AA03CE1B-74DE-4ECC-8682-39585321F2AF}"/>
+    <hyperlink ref="BA20" r:id="rId41" xr:uid="{9F4D4647-CCA3-496A-ACA0-5F822751B050}"/>
+    <hyperlink ref="BA22" r:id="rId42" xr:uid="{203FD614-EB3D-4BD7-AF8C-63E682D5B87C}"/>
+    <hyperlink ref="BA26" r:id="rId43" xr:uid="{48BAD5C5-C1D7-4DBE-A5D2-C6BB906875BD}"/>
+    <hyperlink ref="BA78" r:id="rId44" xr:uid="{33F7186C-D6F2-4672-9D11-B02E60FD35CC}"/>
+    <hyperlink ref="BA44" r:id="rId45" xr:uid="{1905F303-B9C7-41D3-A2E3-20555091695B}"/>
+    <hyperlink ref="BA64" r:id="rId46" xr:uid="{9E12D6F8-6D34-48BF-8246-27A514EAFB41}"/>
+    <hyperlink ref="BA58" r:id="rId47" xr:uid="{FBDC4936-4E67-4513-90EE-2D1EF7BC3AB0}"/>
+    <hyperlink ref="BA70" r:id="rId48" xr:uid="{B7E1BCA0-64DC-42A8-B8C9-1D2F71E27EF0}"/>
+    <hyperlink ref="BA84" r:id="rId49" xr:uid="{F4693E66-2F9D-47B0-9B8E-0C49BFD720CB}"/>
+    <hyperlink ref="BA85" r:id="rId50" xr:uid="{300EB0BE-8207-41CA-BFF1-F9F8F9D8B58C}"/>
+    <hyperlink ref="BA96" r:id="rId51" xr:uid="{13570AE4-772F-4AAD-B90D-445138594AF8}"/>
+    <hyperlink ref="BA3" r:id="rId52" xr:uid="{562F9061-D426-46AC-BB20-58F36313CF6D}"/>
+    <hyperlink ref="BA51" r:id="rId53" xr:uid="{0DD43313-60FA-4FC7-9014-A94846123AB2}"/>
+    <hyperlink ref="BA62" r:id="rId54" display="laurence.coupel@ch-aulnay.fr" xr:uid="{8144FE98-FF58-40AF-ABCF-6AC03900B653}"/>
+    <hyperlink ref="BA71" r:id="rId55" xr:uid="{67D053DA-A2F0-42F7-B626-287472AB45A9}"/>
+    <hyperlink ref="BA97" r:id="rId56" xr:uid="{09E282AA-B365-4169-87EC-A5143CFE6095}"/>
+    <hyperlink ref="BA13" r:id="rId57" xr:uid="{135CD49A-77BE-4C1C-9576-6249341A878C}"/>
+    <hyperlink ref="BA30" r:id="rId58" xr:uid="{F5F6CBF1-CABE-4BFC-A469-230B5C93F726}"/>
+    <hyperlink ref="BA32" r:id="rId59" xr:uid="{D5A3A11C-D0A5-4A72-90BF-FAD10A5A0BE8}"/>
+    <hyperlink ref="BA35" r:id="rId60" xr:uid="{B7381C60-F65A-4769-BA86-389A72D2EA62}"/>
+    <hyperlink ref="BA90" r:id="rId61" xr:uid="{D62CC1BD-CDD4-42FE-9AE8-A4169D6EC108}"/>
+    <hyperlink ref="BA92" r:id="rId62" xr:uid="{662139F9-ABD7-4F94-A56B-CEC3AF13229B}"/>
+    <hyperlink ref="BA29" r:id="rId63" xr:uid="{D58D9B01-576B-4FD9-8D88-6490F9365332}"/>
+    <hyperlink ref="BA73" r:id="rId64" xr:uid="{89A7098C-D6D1-4502-9589-33011D07B79E}"/>
+    <hyperlink ref="BA48" r:id="rId65" xr:uid="{0890DFD2-68DD-4CA2-A6EA-9B9992FC168B}"/>
+    <hyperlink ref="BA24" r:id="rId66" xr:uid="{A50A852B-8011-4F49-93CA-CFE436B8CA0C}"/>
+    <hyperlink ref="BA27" r:id="rId67" xr:uid="{BE7EE42B-1ABB-494A-BA4F-FD70A2462431}"/>
+    <hyperlink ref="BA28" r:id="rId68" xr:uid="{CD58F96D-FE8A-417C-9BC6-C428465280A3}"/>
+    <hyperlink ref="BA79" r:id="rId69" xr:uid="{0F7A8A26-0EC0-4743-9EE4-4EC912477A4E}"/>
+    <hyperlink ref="BA93" r:id="rId70" xr:uid="{8FB30449-0685-4461-8D60-F6A575581C84}"/>
+    <hyperlink ref="BA36" r:id="rId71" xr:uid="{5392433C-2E22-4A51-A726-8418974FD953}"/>
+    <hyperlink ref="BA39" r:id="rId72" xr:uid="{D06EF456-346C-4E80-ABFC-68F7ABA9A0AF}"/>
+    <hyperlink ref="BA43" r:id="rId73" xr:uid="{A25FB1CE-F343-4AA1-AB6F-3F2E5F9DFB75}"/>
+    <hyperlink ref="BA66" r:id="rId74" xr:uid="{C89E81EF-E9FA-409D-82D0-D59A70D53698}"/>
+    <hyperlink ref="BA74" r:id="rId75" xr:uid="{696623EC-282E-4D47-846D-B0F846D6D33F}"/>
+    <hyperlink ref="BA75" r:id="rId76" xr:uid="{E2DB3A7D-6792-4B12-92FB-24E342978214}"/>
+    <hyperlink ref="BA98" r:id="rId77" xr:uid="{A30E5980-217D-4ECC-88B4-F2B882DC51D4}"/>
+    <hyperlink ref="BA99" r:id="rId78" xr:uid="{D20FA5D1-072B-4FCC-9CF2-D2236AC280B1}"/>
+    <hyperlink ref="BA101" r:id="rId79" xr:uid="{5C4FCCF3-B66B-44EA-A6B1-08CDEBD25231}"/>
+    <hyperlink ref="BA102" r:id="rId80" xr:uid="{A9A271E5-62A1-4319-84DD-3921BF762EC0}"/>
+    <hyperlink ref="BA104" r:id="rId81" xr:uid="{22D4797B-A528-452E-83E9-EE32EF924289}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>

--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/559a6546c7b07495/Lycée/2021-2022 Paul Eluard/Lieux_de_Stages/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/559a6546c7b07495/Lycée/2021-2022 Paul Eluard/Lieux_de_Stages/StagesBioQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C9F5C1-03DF-4D60-9040-E22D0E6E6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{06C9F5C1-03DF-4D60-9040-E22D0E6E6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00337FE8-DE5A-48E8-B058-16468B6C2B73}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,9 +176,6 @@
     <t>Restauration</t>
   </si>
   <si>
-    <t>Médical</t>
-  </si>
-  <si>
     <t>Cosmétique</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
   </si>
   <si>
     <t>Laboratoires URGO</t>
-  </si>
-  <si>
-    <t>Parémédical</t>
   </si>
   <si>
     <t>2 avenue de Strasbourg</t>
@@ -1325,9 +1319,6 @@
     <t>emoreau@ghpsj.fr</t>
   </si>
   <si>
-    <t>Laboratoire départemental de Biologie Médicale de Bondy</t>
-  </si>
-  <si>
     <t>Abbatoir</t>
   </si>
   <si>
@@ -1962,9 +1953,6 @@
     <t>48.90849636801762, 2.3082854268128727</t>
   </si>
   <si>
-    <t>Gaz à usage médical</t>
-  </si>
-  <si>
     <t>SOL France</t>
   </si>
   <si>
@@ -2009,6 +1997,18 @@
   </si>
   <si>
     <t>Lien Internet</t>
+  </si>
+  <si>
+    <t>Hôpital</t>
+  </si>
+  <si>
+    <t>Laboratoire départemental de Biologie Hôpitale de Bondy</t>
+  </si>
+  <si>
+    <t>ParéHôpital</t>
+  </si>
+  <si>
+    <t>Gaz à usage Hôpital</t>
   </si>
 </sst>
 </file>
@@ -2644,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1:BA1048576"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="DA24" sqref="DA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,35 +2654,35 @@
     <col min="2" max="2" width="21.5703125" style="33" customWidth="1"/>
     <col min="3" max="3" width="48.5703125" style="34" customWidth="1"/>
     <col min="4" max="4" width="44.42578125" style="40" customWidth="1"/>
-    <col min="5" max="12" width="30.7109375" style="40" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="30" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="30" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" style="30" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="30" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" style="30" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" style="30" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="30" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" style="30" customWidth="1"/>
-    <col min="21" max="21" width="47.140625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="47.140625" style="31" customWidth="1"/>
-    <col min="23" max="23" width="47" style="34" customWidth="1"/>
-    <col min="24" max="24" width="32.7109375" style="30" customWidth="1"/>
-    <col min="25" max="25" width="44" style="31" customWidth="1"/>
-    <col min="26" max="26" width="46.140625" style="36" customWidth="1"/>
-    <col min="27" max="27" width="47" style="30" customWidth="1"/>
-    <col min="28" max="28" width="32.7109375" style="30" customWidth="1"/>
-    <col min="29" max="29" width="27.140625" style="30" customWidth="1"/>
-    <col min="30" max="30" width="46.7109375" style="34" customWidth="1"/>
-    <col min="31" max="31" width="59.85546875" style="34" customWidth="1"/>
-    <col min="32" max="32" width="44.42578125" style="30" customWidth="1"/>
-    <col min="33" max="33" width="25.140625" style="30" customWidth="1"/>
-    <col min="34" max="34" width="33.5703125" style="30" customWidth="1"/>
-    <col min="35" max="35" width="36" style="30" customWidth="1"/>
-    <col min="36" max="36" width="32.7109375" style="30" customWidth="1"/>
-    <col min="37" max="37" width="25.140625" style="34" customWidth="1"/>
-    <col min="38" max="38" width="33.5703125" style="34" customWidth="1"/>
-    <col min="39" max="39" width="33.42578125" style="34" customWidth="1"/>
-    <col min="40" max="40" width="37.5703125" style="30" customWidth="1"/>
+    <col min="5" max="12" width="30.7109375" style="40" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" style="30" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" style="30" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="26.85546875" style="30" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="30" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" style="30" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" style="30" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="30" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" style="30" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="47.140625" style="30" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="47.140625" style="31" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="47" style="34" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="32.7109375" style="30" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="44" style="31" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="46.140625" style="36" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="47" style="30" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="32.7109375" style="30" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="27.140625" style="30" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="46.7109375" style="34" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="59.85546875" style="34" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="44.42578125" style="30" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="25.140625" style="30" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="33.5703125" style="30" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="36" style="30" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="32.7109375" style="30" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="25.140625" style="34" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="33.5703125" style="34" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="33.42578125" style="34" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="37.5703125" style="30" hidden="1" customWidth="1"/>
     <col min="41" max="42" width="33.28515625" style="34" customWidth="1"/>
     <col min="43" max="43" width="15" style="37" customWidth="1"/>
     <col min="44" max="44" width="33.28515625" style="30" customWidth="1"/>
@@ -2768,7 +2768,7 @@
         <v>4</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>29</v>
@@ -2783,7 +2783,7 @@
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="2"/>
       <c r="BB1" s="6" t="s">
@@ -2799,34 +2799,34 @@
         <v>16</v>
       </c>
       <c r="BF1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BI1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BJ1" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="BK1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BL1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="BJ1" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BM1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BN1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BO1" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="BN1" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO1" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="BP1" s="8" t="s">
         <v>39</v>
@@ -2955,7 +2955,7 @@
       <c r="AR2" s="18"/>
       <c r="AS2" s="19"/>
       <c r="AT2" s="20" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="AU2" s="21"/>
       <c r="AV2" s="28"/>
@@ -3056,13 +3056,13 @@
     </row>
     <row r="3" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D3" s="14" t="str">
         <f t="shared" ref="D3:D33" si="0">IF(BF3&lt;&gt;0,";2022_BioQ1="&amp;BF3," ")&amp;IF(BG3&lt;&gt;0," ; 2022_BioQ2="&amp;BG3," ")&amp;IF(BH3&lt;&gt;0,";2021_BioQ1="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2021_QIAB2="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0,";2020_QIAB1="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2020_QIAB2="&amp;BK3," ")&amp;IF(BL3&lt;&gt;0,";2019_QIAB1="&amp;BL3," ")&amp;IF(BM3&lt;&gt;0," ; 2019_QIAB2="&amp;BM3," ")&amp;IF(BN3&lt;&gt;0,";2018_QIAB1="&amp;BN3," ")&amp;IF(BO3&lt;&gt;0," ; 2018_QIAB2="&amp;BO3," ")&amp;IF(BP3&lt;&gt;0," ; 2017_QIAB1="&amp;BP3," ")&amp;IF(BQ3&lt;&gt;0," ; 2017_QIAB2="&amp;BQ3," ")&amp;IF(BR3&lt;&gt;0," ; 2016_QIAB1="&amp;BR3," ")&amp;IF(BS3&lt;&gt;0," ; 2016_QIAB2="&amp;BS3," ")&amp;IF(BT3&lt;&gt;0," ; 2015_QIAB1="&amp;BT3," ")&amp;IF(BU3&lt;&gt;0," ; 2015_QIAB2="&amp;BU3," ")&amp;IF(BV3&lt;&gt;0," ; 2014_QIAB1="&amp;BV3," ")&amp;IF(BW3&lt;&gt;0," ; 2014_QIAB2="&amp;BW3," ")</f>
@@ -3105,26 +3105,26 @@
       <c r="AM3" s="15"/>
       <c r="AN3" s="15"/>
       <c r="AO3" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AP3" s="24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AQ3" s="26">
         <v>93571</v>
       </c>
       <c r="AR3" s="27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AS3" s="19"/>
       <c r="AT3" s="19" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AU3" s="21"/>
       <c r="AW3" s="15"/>
       <c r="AX3" s="15"/>
       <c r="AZ3" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BA3" s="42"/>
       <c r="BB3" s="22">
@@ -3233,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3279,26 +3279,26 @@
       <c r="AM4" s="15"/>
       <c r="AN4" s="15"/>
       <c r="AO4" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AP4" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AQ4" s="26">
         <v>77290</v>
       </c>
       <c r="AR4" s="27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AS4" s="19"/>
       <c r="AT4" s="19" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AU4" s="21"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="15"/>
       <c r="AZ4" s="19" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="BA4" s="42"/>
       <c r="BB4" s="22">
@@ -3411,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3457,26 +3457,26 @@
       <c r="AM5" s="15"/>
       <c r="AN5" s="15"/>
       <c r="AO5" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AP5" s="24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AQ5" s="26">
         <v>95140</v>
       </c>
       <c r="AR5" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AS5" s="19"/>
       <c r="AT5" s="19" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AU5" s="21"/>
       <c r="AW5" s="15"/>
       <c r="AX5" s="15"/>
       <c r="AZ5" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BA5" s="42"/>
       <c r="BB5" s="22">
@@ -3585,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3631,26 +3631,26 @@
       <c r="AM6" s="15"/>
       <c r="AN6" s="15"/>
       <c r="AO6" s="24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AP6" s="24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AQ6" s="26">
         <v>77164</v>
       </c>
       <c r="AR6" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AS6" s="19"/>
       <c r="AT6" s="19" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AU6" s="21"/>
       <c r="AW6" s="15"/>
       <c r="AX6" s="15"/>
       <c r="AZ6" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="BA6" s="42"/>
       <c r="BB6" s="22">
@@ -3759,10 +3759,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3805,20 +3805,20 @@
       <c r="AM7" s="15"/>
       <c r="AN7" s="15"/>
       <c r="AO7" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AP7" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AQ7" s="26">
         <v>93541</v>
       </c>
       <c r="AR7" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AS7" s="19"/>
       <c r="AT7" s="19" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AU7" s="21"/>
       <c r="AW7" s="15"/>
@@ -3931,10 +3931,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3977,20 +3977,20 @@
       <c r="AM8" s="15"/>
       <c r="AN8" s="15"/>
       <c r="AO8" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AP8" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AQ8" s="26">
         <v>93800</v>
       </c>
       <c r="AR8" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AS8" s="19"/>
       <c r="AT8" s="19" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AU8" s="21"/>
       <c r="AW8" s="15"/>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4149,26 +4149,26 @@
       <c r="AM9" s="15"/>
       <c r="AN9" s="15"/>
       <c r="AO9" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AP9" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AQ9" s="26">
         <v>93230</v>
       </c>
       <c r="AR9" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AS9" s="19"/>
       <c r="AT9" s="19" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AU9" s="21"/>
       <c r="AW9" s="15"/>
       <c r="AX9" s="15"/>
       <c r="AZ9" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BA9" s="42"/>
       <c r="BB9" s="22">
@@ -4277,10 +4277,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4323,26 +4323,26 @@
       <c r="AM10" s="15"/>
       <c r="AN10" s="15"/>
       <c r="AO10" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AP10" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AQ10" s="26">
         <v>91700</v>
       </c>
       <c r="AR10" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AS10" s="19"/>
       <c r="AT10" s="19" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AU10" s="21"/>
       <c r="AW10" s="15"/>
       <c r="AX10" s="15"/>
       <c r="AZ10" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BA10" s="42"/>
       <c r="BB10" s="22">
@@ -4448,13 +4448,13 @@
     </row>
     <row r="11" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4497,7 +4497,7 @@
       <c r="AM11" s="15"/>
       <c r="AN11" s="15"/>
       <c r="AO11" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AP11" s="24" t="s">
         <v>34</v>
@@ -4506,17 +4506,17 @@
         <v>93200</v>
       </c>
       <c r="AR11" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AS11" s="19"/>
       <c r="AT11" s="19" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AU11" s="21"/>
       <c r="AW11" s="15"/>
       <c r="AX11" s="15"/>
       <c r="AZ11" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BA11" s="42"/>
       <c r="BB11" s="22">
@@ -4627,10 +4627,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4673,26 +4673,26 @@
       <c r="AM12" s="15"/>
       <c r="AN12" s="15"/>
       <c r="AO12" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AP12" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AQ12" s="26">
         <v>77270</v>
       </c>
       <c r="AR12" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AS12" s="19"/>
       <c r="AT12" s="19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AU12" s="21"/>
       <c r="AW12" s="15"/>
       <c r="AX12" s="15"/>
       <c r="AZ12" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BA12" s="42"/>
       <c r="BB12" s="22">
@@ -4803,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4849,7 +4849,7 @@
       <c r="AM13" s="15"/>
       <c r="AN13" s="15"/>
       <c r="AO13" s="24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AP13" s="24" t="s">
         <v>34</v>
@@ -4858,17 +4858,17 @@
         <v>93200</v>
       </c>
       <c r="AR13" s="27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AS13" s="19"/>
       <c r="AT13" s="19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AU13" s="21"/>
       <c r="AW13" s="15"/>
       <c r="AX13" s="15"/>
       <c r="AZ13" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="BA13" s="42"/>
       <c r="BB13" s="22">
@@ -4977,10 +4977,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D14" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5023,26 +5023,26 @@
       <c r="AM14" s="15"/>
       <c r="AN14" s="15"/>
       <c r="AO14" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AP14" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AQ14" s="26">
         <v>92230</v>
       </c>
       <c r="AR14" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AS14" s="19"/>
       <c r="AT14" s="19" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AU14" s="21"/>
       <c r="AW14" s="15"/>
       <c r="AX14" s="15"/>
       <c r="AZ14" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BA14" s="42"/>
       <c r="BB14" s="22">
@@ -5151,10 +5151,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5197,26 +5197,26 @@
       <c r="AM15" s="15"/>
       <c r="AN15" s="15"/>
       <c r="AO15" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AP15" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ15" s="26">
         <v>75014</v>
       </c>
       <c r="AR15" s="27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AS15" s="19"/>
       <c r="AT15" s="19" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AU15" s="21"/>
       <c r="AW15" s="15"/>
       <c r="AX15" s="15"/>
       <c r="AZ15" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="BA15" s="42"/>
       <c r="BB15" s="22">
@@ -5327,10 +5327,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5373,26 +5373,26 @@
       <c r="AM16" s="15"/>
       <c r="AN16" s="15"/>
       <c r="AO16" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AP16" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AQ16" s="26">
         <v>91320</v>
       </c>
       <c r="AR16" s="27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AS16" s="19"/>
       <c r="AT16" s="19" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AU16" s="21"/>
       <c r="AW16" s="15"/>
       <c r="AX16" s="15"/>
       <c r="AZ16" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BA16" s="42"/>
       <c r="BB16" s="22">
@@ -5505,10 +5505,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5551,26 +5551,26 @@
       <c r="AM17" s="15"/>
       <c r="AN17" s="15"/>
       <c r="AO17" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AP17" s="24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AQ17" s="26">
         <v>78410</v>
       </c>
       <c r="AR17" s="27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AS17" s="19"/>
       <c r="AT17" s="19" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AU17" s="21"/>
       <c r="AW17" s="15"/>
       <c r="AX17" s="15"/>
       <c r="AZ17" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="BA17" s="42"/>
       <c r="BB17" s="22">
@@ -5679,10 +5679,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5725,7 +5725,7 @@
       <c r="AM18" s="15"/>
       <c r="AN18" s="15"/>
       <c r="AO18" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AP18" s="24" t="s">
         <v>34</v>
@@ -5734,17 +5734,17 @@
         <v>93200</v>
       </c>
       <c r="AR18" s="27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AS18" s="19"/>
       <c r="AT18" s="19" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AU18" s="21"/>
       <c r="AW18" s="15"/>
       <c r="AX18" s="15"/>
       <c r="AZ18" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BA18" s="42"/>
       <c r="BB18" s="22">
@@ -5853,10 +5853,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5899,26 +5899,26 @@
       <c r="AM19" s="15"/>
       <c r="AN19" s="15"/>
       <c r="AO19" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AP19" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AQ19" s="26">
         <v>92390</v>
       </c>
       <c r="AR19" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AS19" s="19"/>
       <c r="AT19" s="19" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AU19" s="21"/>
       <c r="AW19" s="15"/>
       <c r="AX19" s="15"/>
       <c r="AZ19" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="BA19" s="42"/>
       <c r="BB19" s="22">
@@ -6024,11 +6024,11 @@
     </row>
     <row r="20" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6071,7 +6071,7 @@
       <c r="AM20" s="15"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AP20" s="24" t="s">
         <v>34</v>
@@ -6080,17 +6080,17 @@
         <v>93200</v>
       </c>
       <c r="AR20" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AS20" s="19"/>
       <c r="AT20" s="19" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AU20" s="21"/>
       <c r="AW20" s="15"/>
       <c r="AX20" s="15"/>
       <c r="AZ20" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BA20" s="42"/>
       <c r="BB20" s="22">
@@ -6196,13 +6196,13 @@
     </row>
     <row r="21" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6245,26 +6245,26 @@
       <c r="AM21" s="15"/>
       <c r="AN21" s="15"/>
       <c r="AO21" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AP21" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AQ21" s="26">
         <v>93300</v>
       </c>
       <c r="AR21" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AS21" s="19"/>
       <c r="AT21" s="19" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AU21" s="21"/>
       <c r="AW21" s="15"/>
       <c r="AX21" s="15"/>
       <c r="AZ21" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BA21" s="42"/>
       <c r="BB21" s="22">
@@ -6370,11 +6370,11 @@
     </row>
     <row r="22" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D22" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6417,26 +6417,26 @@
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
       <c r="AO22" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AP22" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AQ22" s="26">
         <v>93310</v>
       </c>
       <c r="AR22" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AS22" s="19"/>
       <c r="AT22" s="19" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AU22" s="21"/>
       <c r="AW22" s="15"/>
       <c r="AX22" s="15"/>
       <c r="AZ22" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BA22" s="42"/>
       <c r="BB22" s="22">
@@ -6542,13 +6542,13 @@
     </row>
     <row r="23" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D23" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6591,26 +6591,26 @@
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
       <c r="AO23" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AP23" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AQ23" s="26">
         <v>93140</v>
       </c>
       <c r="AR23" s="41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AS23" s="19"/>
       <c r="AT23" s="19" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AU23" s="21"/>
       <c r="AW23" s="15"/>
       <c r="AX23" s="15"/>
       <c r="AZ23" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BA23" s="42"/>
       <c r="BB23" s="22">
@@ -6718,13 +6718,13 @@
     </row>
     <row r="24" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D24" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6767,26 +6767,26 @@
       <c r="AM24" s="15"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="24" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AP24" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ24" s="26">
         <v>75001</v>
       </c>
       <c r="AR24" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AS24" s="19"/>
       <c r="AT24" s="19" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AU24" s="21"/>
       <c r="AW24" s="15"/>
       <c r="AX24" s="15"/>
       <c r="AZ24" s="19" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="BA24" s="42"/>
       <c r="BB24" s="22">
@@ -6892,13 +6892,13 @@
     </row>
     <row r="25" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6941,26 +6941,26 @@
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
       <c r="AO25" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP25" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ25" s="26">
         <v>75013</v>
       </c>
       <c r="AR25" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AS25" s="19"/>
       <c r="AT25" s="19" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AU25" s="21"/>
       <c r="AW25" s="15"/>
       <c r="AX25" s="15"/>
       <c r="AZ25" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BA25" s="42"/>
       <c r="BB25" s="22">
@@ -7066,11 +7066,11 @@
     </row>
     <row r="26" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D26" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7113,26 +7113,26 @@
       <c r="AM26" s="15"/>
       <c r="AN26" s="15"/>
       <c r="AO26" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AP26" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ26" s="26">
         <v>75019</v>
       </c>
       <c r="AR26" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AS26" s="19"/>
       <c r="AT26" s="19" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AU26" s="21"/>
       <c r="AW26" s="15"/>
       <c r="AX26" s="15"/>
       <c r="AZ26" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="BA26" s="42"/>
       <c r="BB26" s="22">
@@ -7240,11 +7240,11 @@
     </row>
     <row r="27" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D27" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7287,26 +7287,26 @@
       <c r="AM27" s="15"/>
       <c r="AN27" s="15"/>
       <c r="AO27" s="24" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AP27" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ27" s="26">
         <v>75007</v>
       </c>
       <c r="AR27" s="41" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AS27" s="19"/>
       <c r="AT27" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AU27" s="21"/>
       <c r="AW27" s="15"/>
       <c r="AX27" s="15"/>
       <c r="AZ27" s="19" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="BA27" s="42"/>
       <c r="BB27" s="22">
@@ -7412,13 +7412,13 @@
     </row>
     <row r="28" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D28" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7461,26 +7461,26 @@
       <c r="AM28" s="15"/>
       <c r="AN28" s="15"/>
       <c r="AO28" s="24" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AP28" s="24" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AQ28" s="26">
         <v>78300</v>
       </c>
       <c r="AR28" s="27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AS28" s="19"/>
       <c r="AT28" s="19" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AU28" s="21"/>
       <c r="AW28" s="15"/>
       <c r="AX28" s="15"/>
       <c r="AZ28" s="19" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="BA28" s="42"/>
       <c r="BB28" s="22">
@@ -7589,10 +7589,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D29" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7635,26 +7635,26 @@
       <c r="AM29" s="15"/>
       <c r="AN29" s="15"/>
       <c r="AO29" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AP29" s="24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AQ29" s="26">
         <v>92140</v>
       </c>
       <c r="AR29" s="27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AS29" s="19"/>
       <c r="AT29" s="19" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AU29" s="21"/>
       <c r="AW29" s="15"/>
       <c r="AX29" s="15"/>
       <c r="AZ29" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="BA29" s="42"/>
       <c r="BB29" s="22">
@@ -7763,10 +7763,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D30" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7809,26 +7809,26 @@
       <c r="AM30" s="15"/>
       <c r="AN30" s="15"/>
       <c r="AO30" s="24" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AP30" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AQ30" s="26">
         <v>92230</v>
       </c>
       <c r="AR30" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AS30" s="19"/>
       <c r="AT30" s="19" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AU30" s="21"/>
       <c r="AW30" s="15"/>
       <c r="AX30" s="15"/>
       <c r="AZ30" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="BA30" s="42"/>
       <c r="BB30" s="22">
@@ -7937,10 +7937,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7983,10 +7983,10 @@
       <c r="AM31" s="15"/>
       <c r="AN31" s="15"/>
       <c r="AO31" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AP31" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AQ31" s="26">
         <v>92000</v>
@@ -7994,7 +7994,7 @@
       <c r="AR31" s="27"/>
       <c r="AS31" s="19"/>
       <c r="AT31" s="19" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AU31" s="21"/>
       <c r="AW31" s="15"/>
@@ -8107,10 +8107,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D32" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8153,26 +8153,26 @@
       <c r="AM32" s="15"/>
       <c r="AN32" s="15"/>
       <c r="AO32" s="24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AP32" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ32" s="26">
         <v>75020</v>
       </c>
       <c r="AR32" s="27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AS32" s="19"/>
       <c r="AT32" s="19" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AU32" s="21"/>
       <c r="AW32" s="15"/>
       <c r="AX32" s="15"/>
       <c r="AZ32" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="BA32" s="42"/>
       <c r="BB32" s="22">
@@ -8281,10 +8281,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8327,26 +8327,26 @@
       <c r="AM33" s="15"/>
       <c r="AN33" s="15"/>
       <c r="AO33" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AP33" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AQ33" s="26">
         <v>93006</v>
       </c>
       <c r="AR33" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS33" s="19"/>
       <c r="AT33" s="19" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AU33" s="21"/>
       <c r="AW33" s="15"/>
       <c r="AX33" s="15"/>
       <c r="AZ33" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BA33" s="42"/>
       <c r="BB33" s="22">
@@ -8457,10 +8457,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D34" s="14" t="str">
         <f t="shared" ref="D34:D65" si="19">IF(BF34&lt;&gt;0,";2022_BioQ1="&amp;BF34," ")&amp;IF(BG34&lt;&gt;0," ; 2022_BioQ2="&amp;BG34," ")&amp;IF(BH34&lt;&gt;0,";2021_BioQ1="&amp;BH34," ")&amp;IF(BI34&lt;&gt;0," ; 2021_QIAB2="&amp;BI34," ")&amp;IF(BJ34&lt;&gt;0,";2020_QIAB1="&amp;BJ34," ")&amp;IF(BK34&lt;&gt;0," ; 2020_QIAB2="&amp;BK34," ")&amp;IF(BL34&lt;&gt;0,";2019_QIAB1="&amp;BL34," ")&amp;IF(BM34&lt;&gt;0," ; 2019_QIAB2="&amp;BM34," ")&amp;IF(BN34&lt;&gt;0,";2018_QIAB1="&amp;BN34," ")&amp;IF(BO34&lt;&gt;0," ; 2018_QIAB2="&amp;BO34," ")&amp;IF(BP34&lt;&gt;0," ; 2017_QIAB1="&amp;BP34," ")&amp;IF(BQ34&lt;&gt;0," ; 2017_QIAB2="&amp;BQ34," ")&amp;IF(BR34&lt;&gt;0," ; 2016_QIAB1="&amp;BR34," ")&amp;IF(BS34&lt;&gt;0," ; 2016_QIAB2="&amp;BS34," ")&amp;IF(BT34&lt;&gt;0," ; 2015_QIAB1="&amp;BT34," ")&amp;IF(BU34&lt;&gt;0," ; 2015_QIAB2="&amp;BU34," ")&amp;IF(BV34&lt;&gt;0," ; 2014_QIAB1="&amp;BV34," ")&amp;IF(BW34&lt;&gt;0," ; 2014_QIAB2="&amp;BW34," ")</f>
@@ -8503,20 +8503,20 @@
       <c r="AM34" s="15"/>
       <c r="AN34" s="15"/>
       <c r="AO34" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AP34" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AQ34" s="26">
         <v>93000</v>
       </c>
       <c r="AR34" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AS34" s="19"/>
       <c r="AT34" s="19" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AU34" s="21"/>
       <c r="AW34" s="15"/>
@@ -8631,10 +8631,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D35" s="14" t="str">
         <f t="shared" si="19"/>
@@ -8677,26 +8677,26 @@
       <c r="AM35" s="15"/>
       <c r="AN35" s="15"/>
       <c r="AO35" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AP35" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AQ35" s="26">
         <v>93240</v>
       </c>
       <c r="AR35" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AS35" s="19"/>
       <c r="AT35" s="19" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AU35" s="21"/>
       <c r="AW35" s="15"/>
       <c r="AX35" s="15"/>
       <c r="AZ35" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BA35" s="42"/>
       <c r="BB35" s="22">
@@ -8806,13 +8806,13 @@
     </row>
     <row r="36" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D36" s="14" t="str">
         <f t="shared" si="19"/>
@@ -8855,26 +8855,26 @@
       <c r="AM36" s="15"/>
       <c r="AN36" s="15"/>
       <c r="AO36" s="24" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AP36" s="24" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AQ36" s="26">
         <v>93320</v>
       </c>
       <c r="AR36" s="27" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AS36" s="19"/>
       <c r="AT36" s="19" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AU36" s="21"/>
       <c r="AW36" s="15"/>
       <c r="AX36" s="15"/>
       <c r="AZ36" s="19" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="BA36" s="42"/>
       <c r="BB36" s="22">
@@ -8983,10 +8983,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D37" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9029,26 +9029,26 @@
       <c r="AM37" s="15"/>
       <c r="AN37" s="15"/>
       <c r="AO37" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AP37" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AQ37" s="26">
         <v>94201</v>
       </c>
       <c r="AR37" s="27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AS37" s="19"/>
       <c r="AT37" s="19" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AU37" s="21"/>
       <c r="AW37" s="15"/>
       <c r="AX37" s="15"/>
       <c r="AZ37" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BA37" s="42"/>
       <c r="BB37" s="22">
@@ -9157,10 +9157,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D38" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9203,26 +9203,26 @@
       <c r="AM38" s="15"/>
       <c r="AN38" s="15"/>
       <c r="AO38" s="24" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AP38" s="24" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AQ38" s="26">
         <v>78680</v>
       </c>
       <c r="AR38" s="27" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AS38" s="19"/>
       <c r="AT38" s="19" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AU38" s="21"/>
       <c r="AW38" s="15"/>
       <c r="AX38" s="15"/>
       <c r="AZ38" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BA38" s="42"/>
       <c r="BB38" s="22">
@@ -9331,10 +9331,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D39" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9377,20 +9377,20 @@
       <c r="AM39" s="15"/>
       <c r="AN39" s="15"/>
       <c r="AO39" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AP39" s="24" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AQ39" s="26">
         <v>93160</v>
       </c>
       <c r="AR39" s="27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AS39" s="19"/>
       <c r="AT39" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AU39" s="21"/>
       <c r="AV39" s="22"/>
@@ -9398,7 +9398,7 @@
       <c r="AX39" s="15"/>
       <c r="AY39" s="22"/>
       <c r="AZ39" s="19" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="BA39" s="42"/>
       <c r="BB39" s="22">
@@ -9509,10 +9509,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D40" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9555,26 +9555,26 @@
       <c r="AM40" s="15"/>
       <c r="AN40" s="15"/>
       <c r="AO40" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AP40" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ40" s="26">
         <v>75006</v>
       </c>
       <c r="AR40" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AS40" s="19"/>
       <c r="AT40" s="19" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AU40" s="21"/>
       <c r="AW40" s="15"/>
       <c r="AX40" s="15"/>
       <c r="AZ40" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="BA40" s="42"/>
       <c r="BB40" s="22">
@@ -9683,10 +9683,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D41" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9729,26 +9729,26 @@
       <c r="AM41" s="15"/>
       <c r="AN41" s="15"/>
       <c r="AO41" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AP41" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AQ41" s="26">
         <v>93240</v>
       </c>
       <c r="AR41" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AS41" s="19"/>
       <c r="AT41" s="19" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AU41" s="21"/>
       <c r="AW41" s="15"/>
       <c r="AX41" s="15"/>
       <c r="AZ41" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="BA41" s="42"/>
       <c r="BB41" s="22">
@@ -9857,10 +9857,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D42" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9903,20 +9903,20 @@
       <c r="AM42" s="15"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AP42" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AQ42" s="26">
         <v>95220</v>
       </c>
       <c r="AR42" s="41" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AS42" s="19"/>
       <c r="AT42" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AU42" s="21"/>
       <c r="AV42" s="22"/>
@@ -9924,7 +9924,7 @@
       <c r="AX42" s="15"/>
       <c r="AY42" s="22"/>
       <c r="AZ42" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="BA42" s="42"/>
       <c r="BB42" s="22">
@@ -10039,10 +10039,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D43" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10085,26 +10085,26 @@
       <c r="AM43" s="15"/>
       <c r="AN43" s="15"/>
       <c r="AO43" s="24" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AP43" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AQ43" s="26">
         <v>93240</v>
       </c>
       <c r="AR43" s="27" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AS43" s="19"/>
       <c r="AT43" s="19" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AU43" s="21"/>
       <c r="AW43" s="15"/>
       <c r="AX43" s="15"/>
       <c r="AZ43" s="19" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="BA43" s="42"/>
       <c r="BB43" s="22">
@@ -10210,13 +10210,13 @@
     </row>
     <row r="44" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D44" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10259,26 +10259,26 @@
       <c r="AM44" s="15"/>
       <c r="AN44" s="15"/>
       <c r="AO44" s="24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AP44" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AQ44" s="26">
         <v>92390</v>
       </c>
       <c r="AR44" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AS44" s="19"/>
       <c r="AT44" s="19" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AU44" s="21"/>
       <c r="AW44" s="15"/>
       <c r="AX44" s="15"/>
       <c r="AZ44" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BA44" s="42"/>
       <c r="BB44" s="22">
@@ -10387,10 +10387,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D45" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10433,20 +10433,20 @@
       <c r="AM45" s="15"/>
       <c r="AN45" s="15"/>
       <c r="AO45" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AP45" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AQ45" s="26">
         <v>95400</v>
       </c>
       <c r="AR45" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AS45" s="19"/>
       <c r="AT45" s="19" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AU45" s="21"/>
       <c r="AV45" s="22"/>
@@ -10454,7 +10454,7 @@
       <c r="AX45" s="15"/>
       <c r="AY45" s="22"/>
       <c r="AZ45" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BA45" s="42"/>
       <c r="BB45" s="22">
@@ -10571,10 +10571,10 @@
         <v>11</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D46" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10617,26 +10617,26 @@
       <c r="AM46" s="15"/>
       <c r="AN46" s="15"/>
       <c r="AO46" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AP46" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AQ46" s="26">
         <v>93600</v>
       </c>
       <c r="AR46" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AS46" s="19"/>
       <c r="AT46" s="19" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AU46" s="21"/>
       <c r="AW46" s="15"/>
       <c r="AX46" s="15"/>
       <c r="AZ46" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BA46" s="42"/>
       <c r="BB46" s="22">
@@ -10742,13 +10742,13 @@
     </row>
     <row r="47" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D47" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10791,26 +10791,26 @@
       <c r="AM47" s="15"/>
       <c r="AN47" s="15"/>
       <c r="AO47" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AP47" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AQ47" s="26">
         <v>93200</v>
       </c>
       <c r="AR47" s="41" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AS47" s="19"/>
       <c r="AT47" s="19" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AU47" s="21"/>
       <c r="AW47" s="15"/>
       <c r="AX47" s="15"/>
       <c r="AZ47" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="BA47" s="42"/>
       <c r="BB47" s="22">
@@ -10920,13 +10920,13 @@
     </row>
     <row r="48" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D48" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10969,20 +10969,20 @@
       <c r="AM48" s="15"/>
       <c r="AN48" s="15"/>
       <c r="AO48" s="24" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AP48" s="24" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AQ48" s="26">
         <v>93130</v>
       </c>
       <c r="AR48" s="27" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AS48" s="19"/>
       <c r="AT48" s="19" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AU48" s="21"/>
       <c r="AV48" s="22"/>
@@ -10990,7 +10990,7 @@
       <c r="AX48" s="15"/>
       <c r="AY48" s="22"/>
       <c r="AZ48" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="BA48" s="42"/>
       <c r="BB48" s="22">
@@ -11098,13 +11098,13 @@
     </row>
     <row r="49" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11147,26 +11147,26 @@
       <c r="AM49" s="15"/>
       <c r="AN49" s="15"/>
       <c r="AO49" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AP49" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ49" s="26">
         <v>75012</v>
       </c>
       <c r="AR49" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AS49" s="19"/>
       <c r="AT49" s="19" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AU49" s="21"/>
       <c r="AW49" s="15"/>
       <c r="AX49" s="15"/>
       <c r="AZ49" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BA49" s="42"/>
       <c r="BB49" s="22">
@@ -11272,13 +11272,13 @@
     </row>
     <row r="50" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D50" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11321,26 +11321,26 @@
       <c r="AM50" s="15"/>
       <c r="AN50" s="15"/>
       <c r="AO50" s="24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AP50" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ50" s="26">
         <v>75018</v>
       </c>
       <c r="AR50" s="41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AS50" s="19"/>
       <c r="AT50" s="19" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AU50" s="21"/>
       <c r="AW50" s="15"/>
       <c r="AX50" s="15"/>
       <c r="AZ50" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="BA50" s="42"/>
       <c r="BB50" s="22">
@@ -11448,13 +11448,13 @@
     </row>
     <row r="51" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D51" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11497,20 +11497,20 @@
       <c r="AM51" s="15"/>
       <c r="AN51" s="15"/>
       <c r="AO51" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AP51" s="24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AQ51" s="26">
         <v>91480</v>
       </c>
       <c r="AR51" s="27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AS51" s="19"/>
       <c r="AT51" s="19" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AU51" s="21"/>
       <c r="AV51" s="22"/>
@@ -11518,7 +11518,7 @@
       <c r="AX51" s="15"/>
       <c r="AY51" s="22"/>
       <c r="AZ51" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="BA51" s="42"/>
       <c r="BB51" s="22">
@@ -11626,11 +11626,11 @@
     </row>
     <row r="52" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D52" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11673,20 +11673,20 @@
       <c r="AM52" s="15"/>
       <c r="AN52" s="15"/>
       <c r="AO52" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AP52" s="24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AQ52" s="26">
         <v>95107</v>
       </c>
       <c r="AR52" s="27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AS52" s="19"/>
       <c r="AT52" s="19" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AU52" s="21"/>
       <c r="AW52" s="15"/>
@@ -11796,13 +11796,13 @@
     </row>
     <row r="53" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>165</v>
       </c>
       <c r="D53" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11845,20 +11845,20 @@
       <c r="AM53" s="15"/>
       <c r="AN53" s="15"/>
       <c r="AO53" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AP53" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AQ53" s="26">
         <v>97109</v>
       </c>
       <c r="AR53" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AS53" s="19"/>
       <c r="AT53" s="19" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AU53" s="21"/>
       <c r="AW53" s="15"/>
@@ -11968,13 +11968,13 @@
     </row>
     <row r="54" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D54" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12017,20 +12017,20 @@
       <c r="AM54" s="15"/>
       <c r="AN54" s="15"/>
       <c r="AO54" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AP54" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ54" s="26">
         <v>75015</v>
       </c>
       <c r="AR54" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AS54" s="19"/>
       <c r="AT54" s="19" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AU54" s="21"/>
       <c r="AV54" s="22"/>
@@ -12038,7 +12038,7 @@
       <c r="AX54" s="15"/>
       <c r="AY54" s="22"/>
       <c r="AZ54" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="BA54" s="42"/>
       <c r="BB54" s="22">
@@ -12146,7 +12146,7 @@
     </row>
     <row r="55" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>43</v>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="AS55" s="19"/>
       <c r="AT55" s="20" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AU55" s="21"/>
       <c r="AW55" s="23"/>
@@ -12329,13 +12329,13 @@
     </row>
     <row r="56" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D56" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12378,26 +12378,26 @@
       <c r="AM56" s="15"/>
       <c r="AN56" s="15"/>
       <c r="AO56" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AP56" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ56" s="26">
         <v>75010</v>
       </c>
       <c r="AR56" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AS56" s="19"/>
       <c r="AT56" s="19" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AU56" s="21"/>
       <c r="AW56" s="15"/>
       <c r="AX56" s="15"/>
       <c r="AZ56" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="BA56" s="42"/>
       <c r="BB56" s="22">
@@ -12503,13 +12503,13 @@
     </row>
     <row r="57" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12552,20 +12552,20 @@
       <c r="AM57" s="15"/>
       <c r="AN57" s="15"/>
       <c r="AO57" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AP57" s="24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AQ57" s="26">
         <v>92700</v>
       </c>
       <c r="AR57" s="41" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AS57" s="19"/>
       <c r="AT57" s="19" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AU57" s="21"/>
       <c r="AV57" s="22"/>
@@ -12573,7 +12573,7 @@
       <c r="AX57" s="15"/>
       <c r="AY57" s="22"/>
       <c r="AZ57" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="BA57" s="42"/>
       <c r="BB57" s="22">
@@ -12687,13 +12687,13 @@
     </row>
     <row r="58" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D58" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12736,26 +12736,26 @@
       <c r="AM58" s="15"/>
       <c r="AN58" s="15"/>
       <c r="AO58" s="24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AP58" s="24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AQ58" s="26">
         <v>94410</v>
       </c>
       <c r="AR58" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AS58" s="19"/>
       <c r="AT58" s="19" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AU58" s="21"/>
       <c r="AW58" s="15"/>
       <c r="AX58" s="15"/>
       <c r="AZ58" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BA58" s="42"/>
       <c r="BB58" s="22">
@@ -12863,13 +12863,13 @@
     </row>
     <row r="59" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D59" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12912,26 +12912,26 @@
       <c r="AM59" s="15"/>
       <c r="AN59" s="15"/>
       <c r="AO59" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AP59" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ59" s="26">
         <v>75015</v>
       </c>
       <c r="AR59" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AS59" s="19"/>
       <c r="AT59" s="19" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AU59" s="21"/>
       <c r="AW59" s="15"/>
       <c r="AX59" s="15"/>
       <c r="AZ59" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BA59" s="42"/>
       <c r="BB59" s="22">
@@ -13037,13 +13037,13 @@
     </row>
     <row r="60" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13086,20 +13086,20 @@
       <c r="AM60" s="15"/>
       <c r="AN60" s="15"/>
       <c r="AO60" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP60" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="AP60" s="24" t="s">
-        <v>55</v>
       </c>
       <c r="AQ60" s="26">
         <v>92390</v>
       </c>
       <c r="AR60" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AS60" s="19"/>
       <c r="AT60" s="19" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AU60" s="21"/>
       <c r="AV60" s="22"/>
@@ -13107,7 +13107,7 @@
       <c r="AX60" s="15"/>
       <c r="AY60" s="22"/>
       <c r="AZ60" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA60" s="42"/>
       <c r="BB60" s="22">
@@ -13215,13 +13215,13 @@
     </row>
     <row r="61" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D61" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13264,26 +13264,26 @@
       <c r="AM61" s="15"/>
       <c r="AN61" s="15"/>
       <c r="AO61" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AP61" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ61" s="26">
         <v>75013</v>
       </c>
       <c r="AR61" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AS61" s="19"/>
       <c r="AT61" s="19" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AU61" s="21"/>
       <c r="AW61" s="15"/>
       <c r="AX61" s="15"/>
       <c r="AZ61" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BA61" s="42"/>
       <c r="BB61" s="22">
@@ -13393,13 +13393,13 @@
     </row>
     <row r="62" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D62" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13442,26 +13442,26 @@
       <c r="AM62" s="15"/>
       <c r="AN62" s="15"/>
       <c r="AO62" s="24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AP62" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AQ62" s="26">
         <v>93600</v>
       </c>
       <c r="AR62" s="41" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AS62" s="19"/>
       <c r="AT62" s="19" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AU62" s="21"/>
       <c r="AW62" s="15"/>
       <c r="AX62" s="15"/>
       <c r="AZ62" s="19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="BA62" s="42"/>
       <c r="BB62" s="22">
@@ -13573,13 +13573,13 @@
     </row>
     <row r="63" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D63" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13622,20 +13622,20 @@
       <c r="AM63" s="15"/>
       <c r="AN63" s="15"/>
       <c r="AO63" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AP63" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ63" s="26">
         <v>75012</v>
       </c>
       <c r="AR63" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AS63" s="19"/>
       <c r="AT63" s="19" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AU63" s="21"/>
       <c r="AV63" s="22"/>
@@ -13643,7 +13643,7 @@
       <c r="AX63" s="15"/>
       <c r="AY63" s="22"/>
       <c r="AZ63" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BA63" s="42"/>
       <c r="BB63" s="22">
@@ -13751,13 +13751,13 @@
     </row>
     <row r="64" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D64" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13800,26 +13800,26 @@
       <c r="AM64" s="15"/>
       <c r="AN64" s="15"/>
       <c r="AO64" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AP64" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ64" s="26">
         <v>75014</v>
       </c>
       <c r="AR64" s="41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AS64" s="19"/>
       <c r="AT64" s="19" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AU64" s="21"/>
       <c r="AW64" s="15"/>
       <c r="AX64" s="15"/>
       <c r="AZ64" s="19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="BA64" s="42"/>
       <c r="BB64" s="22">
@@ -13933,13 +13933,13 @@
     </row>
     <row r="65" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D65" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13982,20 +13982,20 @@
       <c r="AM65" s="15"/>
       <c r="AN65" s="15"/>
       <c r="AO65" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AP65" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ65" s="26">
         <v>75016</v>
       </c>
       <c r="AR65" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AS65" s="19"/>
       <c r="AT65" s="19" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AU65" s="21"/>
       <c r="AV65" s="22"/>
@@ -14112,10 +14112,10 @@
         <v>0</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D66" s="14" t="str">
         <f t="shared" ref="D66:D95" si="38">IF(BF66&lt;&gt;0,";2022_BioQ1="&amp;BF66," ")&amp;IF(BG66&lt;&gt;0," ; 2022_BioQ2="&amp;BG66," ")&amp;IF(BH66&lt;&gt;0,";2021_BioQ1="&amp;BH66," ")&amp;IF(BI66&lt;&gt;0," ; 2021_QIAB2="&amp;BI66," ")&amp;IF(BJ66&lt;&gt;0,";2020_QIAB1="&amp;BJ66," ")&amp;IF(BK66&lt;&gt;0," ; 2020_QIAB2="&amp;BK66," ")&amp;IF(BL66&lt;&gt;0,";2019_QIAB1="&amp;BL66," ")&amp;IF(BM66&lt;&gt;0," ; 2019_QIAB2="&amp;BM66," ")&amp;IF(BN66&lt;&gt;0,";2018_QIAB1="&amp;BN66," ")&amp;IF(BO66&lt;&gt;0," ; 2018_QIAB2="&amp;BO66," ")&amp;IF(BP66&lt;&gt;0," ; 2017_QIAB1="&amp;BP66," ")&amp;IF(BQ66&lt;&gt;0," ; 2017_QIAB2="&amp;BQ66," ")&amp;IF(BR66&lt;&gt;0," ; 2016_QIAB1="&amp;BR66," ")&amp;IF(BS66&lt;&gt;0," ; 2016_QIAB2="&amp;BS66," ")&amp;IF(BT66&lt;&gt;0," ; 2015_QIAB1="&amp;BT66," ")&amp;IF(BU66&lt;&gt;0," ; 2015_QIAB2="&amp;BU66," ")&amp;IF(BV66&lt;&gt;0," ; 2014_QIAB1="&amp;BV66," ")&amp;IF(BW66&lt;&gt;0," ; 2014_QIAB2="&amp;BW66," ")</f>
@@ -14158,26 +14158,26 @@
       <c r="AM66" s="15"/>
       <c r="AN66" s="15"/>
       <c r="AO66" s="24" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AP66" s="24" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AQ66" s="26">
         <v>91240</v>
       </c>
       <c r="AR66" s="27" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AS66" s="19"/>
       <c r="AT66" s="19" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AU66" s="21"/>
       <c r="AW66" s="15"/>
       <c r="AX66" s="15"/>
       <c r="AZ66" s="19" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="BA66" s="42"/>
       <c r="BB66" s="22">
@@ -14286,10 +14286,10 @@
         <v>0</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D67" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14332,26 +14332,26 @@
       <c r="AM67" s="15"/>
       <c r="AN67" s="15"/>
       <c r="AO67" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AP67" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AQ67" s="26">
         <v>93390</v>
       </c>
       <c r="AR67" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AS67" s="19"/>
       <c r="AT67" s="19" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AU67" s="21"/>
       <c r="AW67" s="15"/>
       <c r="AX67" s="15"/>
       <c r="AZ67" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BA67" s="42"/>
       <c r="BB67" s="22">
@@ -14457,13 +14457,13 @@
     </row>
     <row r="68" spans="1:93" ht="57" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>426</v>
+        <v>650</v>
       </c>
       <c r="D68" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14506,20 +14506,20 @@
       <c r="AM68" s="15"/>
       <c r="AN68" s="15"/>
       <c r="AO68" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AP68" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AQ68" s="26">
         <v>93140</v>
       </c>
       <c r="AR68" s="27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AS68" s="19"/>
       <c r="AT68" s="19" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AU68" s="21"/>
       <c r="AV68" s="22"/>
@@ -14527,7 +14527,7 @@
       <c r="AX68" s="15"/>
       <c r="AY68" s="22"/>
       <c r="AZ68" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="BA68" s="42"/>
       <c r="BB68" s="22">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="BC68" s="14" t="str">
         <f t="shared" si="39"/>
-        <v>N° 8 Laboratoire départemental de Biologie Médicale de Bondy</v>
+        <v>N° 8 Laboratoire départemental de Biologie Hôpitale de Bondy</v>
       </c>
       <c r="BD68" s="22">
         <f>RANK(BY68,$BY$3:$BY$112)+COUNTIF(BY$3:BY69,BY68)-1</f>
@@ -14544,7 +14544,7 @@
       </c>
       <c r="BE68" s="14" t="str">
         <f t="shared" si="40"/>
-        <v>N° 6 Laboratoire départemental de Biologie Médicale de Bondy</v>
+        <v>N° 6 Laboratoire départemental de Biologie Hôpitale de Bondy</v>
       </c>
       <c r="BF68" s="24"/>
       <c r="BG68" s="24"/>
@@ -14641,13 +14641,13 @@
     </row>
     <row r="69" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>59</v>
+        <v>651</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D69" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14690,20 +14690,20 @@
       <c r="AM69" s="15"/>
       <c r="AN69" s="15"/>
       <c r="AO69" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AP69" s="24" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AQ69" s="26">
         <v>21800</v>
       </c>
       <c r="AR69" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AS69" s="19"/>
       <c r="AT69" s="19" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AU69" s="21"/>
       <c r="AW69" s="15"/>
@@ -14816,10 +14816,10 @@
         <v>0</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D70" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14862,26 +14862,26 @@
       <c r="AM70" s="15"/>
       <c r="AN70" s="15"/>
       <c r="AO70" s="24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AP70" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AQ70" s="26">
         <v>94380</v>
       </c>
       <c r="AR70" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AS70" s="19"/>
       <c r="AT70" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AU70" s="21"/>
       <c r="AW70" s="15"/>
       <c r="AX70" s="15"/>
       <c r="AZ70" s="19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA70" s="42"/>
       <c r="BB70" s="22">
@@ -14992,10 +14992,10 @@
         <v>0</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D71" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15038,20 +15038,20 @@
       <c r="AM71" s="15"/>
       <c r="AN71" s="15"/>
       <c r="AO71" s="24" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AP71" s="24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AQ71" s="26">
         <v>94310</v>
       </c>
       <c r="AR71" s="27" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AS71" s="19"/>
       <c r="AT71" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AU71" s="21"/>
       <c r="AV71" s="22"/>
@@ -15059,7 +15059,7 @@
       <c r="AX71" s="15"/>
       <c r="AY71" s="22"/>
       <c r="AZ71" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="BA71" s="42"/>
       <c r="BB71" s="22">
@@ -15170,10 +15170,10 @@
         <v>0</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D72" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15216,20 +15216,20 @@
       <c r="AM72" s="15"/>
       <c r="AN72" s="15"/>
       <c r="AO72" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AP72" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AQ72" s="26">
         <v>77270</v>
       </c>
       <c r="AR72" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AS72" s="19"/>
       <c r="AT72" s="19" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AU72" s="21"/>
       <c r="AW72" s="15"/>
@@ -15342,10 +15342,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D73" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15388,26 +15388,26 @@
       <c r="AM73" s="15"/>
       <c r="AN73" s="15"/>
       <c r="AO73" s="24" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AP73" s="24" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AQ73" s="26">
         <v>18410</v>
       </c>
       <c r="AR73" s="27" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AS73" s="19"/>
       <c r="AT73" s="19" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AU73" s="21"/>
       <c r="AW73" s="15"/>
       <c r="AX73" s="15"/>
       <c r="AZ73" s="19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="BA73" s="42"/>
       <c r="BB73" s="22">
@@ -15516,10 +15516,10 @@
         <v>0</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D74" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15562,20 +15562,20 @@
       <c r="AM74" s="15"/>
       <c r="AN74" s="15"/>
       <c r="AO74" s="24" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AP74" s="24" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AQ74" s="26">
         <v>77400</v>
       </c>
       <c r="AR74" s="27" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AS74" s="19"/>
       <c r="AT74" s="19" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AU74" s="21"/>
       <c r="AV74" s="22"/>
@@ -15583,7 +15583,7 @@
       <c r="AX74" s="15"/>
       <c r="AY74" s="22"/>
       <c r="AZ74" s="19" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="BA74" s="42"/>
       <c r="BB74" s="22">
@@ -15694,10 +15694,10 @@
         <v>0</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D75" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15740,26 +15740,26 @@
       <c r="AM75" s="15"/>
       <c r="AN75" s="15"/>
       <c r="AO75" s="24" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AP75" s="24" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AQ75" s="26">
         <v>64400</v>
       </c>
       <c r="AR75" s="27" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AS75" s="19"/>
       <c r="AT75" s="19" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AU75" s="21"/>
       <c r="AW75" s="15"/>
       <c r="AX75" s="15"/>
       <c r="AZ75" s="19" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="BA75" s="42"/>
       <c r="BB75" s="22">
@@ -15868,10 +15868,10 @@
         <v>0</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D76" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15914,26 +15914,26 @@
       <c r="AM76" s="15"/>
       <c r="AN76" s="15"/>
       <c r="AO76" s="24" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AP76" s="24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AQ76" s="26">
         <v>95100</v>
       </c>
       <c r="AR76" s="27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AS76" s="19"/>
       <c r="AT76" s="19" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AU76" s="21"/>
       <c r="AW76" s="15"/>
       <c r="AX76" s="15"/>
       <c r="AZ76" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="BA76" s="42"/>
       <c r="BB76" s="22">
@@ -16042,10 +16042,10 @@
         <v>0</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D77" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16088,26 +16088,26 @@
       <c r="AM77" s="15"/>
       <c r="AN77" s="15"/>
       <c r="AO77" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AP77" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AQ77" s="26">
         <v>93170</v>
       </c>
       <c r="AR77" s="41" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AS77" s="19"/>
       <c r="AT77" s="19" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AU77" s="21"/>
       <c r="AW77" s="15"/>
       <c r="AX77" s="15"/>
       <c r="AZ77" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="BA77" s="42"/>
       <c r="BB77" s="22">
@@ -16218,10 +16218,10 @@
         <v>0</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D78" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16264,20 +16264,20 @@
       <c r="AM78" s="15"/>
       <c r="AN78" s="15"/>
       <c r="AO78" s="24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AP78" s="24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AQ78" s="26">
         <v>92500</v>
       </c>
       <c r="AR78" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AS78" s="19"/>
       <c r="AT78" s="19" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AU78" s="21"/>
       <c r="AV78" s="22"/>
@@ -16285,7 +16285,7 @@
       <c r="AX78" s="15"/>
       <c r="AY78" s="22"/>
       <c r="AZ78" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BA78" s="42"/>
       <c r="BB78" s="22">
@@ -16398,10 +16398,10 @@
         <v>0</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D79" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16444,7 +16444,7 @@
       <c r="AM79" s="15"/>
       <c r="AN79" s="15"/>
       <c r="AO79" s="24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AP79" s="24" t="s">
         <v>34</v>
@@ -16453,17 +16453,17 @@
         <v>93200</v>
       </c>
       <c r="AR79" s="27" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AS79" s="19"/>
       <c r="AT79" s="19" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AU79" s="21"/>
       <c r="AW79" s="15"/>
       <c r="AX79" s="15"/>
       <c r="AZ79" s="19" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="BA79" s="42"/>
       <c r="BB79" s="22">
@@ -16572,10 +16572,10 @@
         <v>0</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D80" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16618,20 +16618,20 @@
       <c r="AM80" s="15"/>
       <c r="AN80" s="15"/>
       <c r="AO80" s="24" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AP80" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AQ80" s="26">
         <v>93240</v>
       </c>
       <c r="AR80" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AS80" s="19"/>
       <c r="AT80" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AU80" s="21"/>
       <c r="AW80" s="15"/>
@@ -16744,10 +16744,10 @@
         <v>0</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D81" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16790,20 +16790,20 @@
       <c r="AM81" s="15"/>
       <c r="AN81" s="15"/>
       <c r="AO81" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP81" s="24" t="s">
         <v>254</v>
-      </c>
-      <c r="AP81" s="24" t="s">
-        <v>256</v>
       </c>
       <c r="AQ81" s="26">
         <v>92150</v>
       </c>
       <c r="AR81" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AS81" s="19"/>
       <c r="AT81" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AU81" s="21"/>
       <c r="AV81" s="22"/>
@@ -16811,7 +16811,7 @@
       <c r="AX81" s="15"/>
       <c r="AY81" s="22"/>
       <c r="AZ81" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BA81" s="42"/>
       <c r="BB81" s="22">
@@ -16922,10 +16922,10 @@
         <v>0</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D82" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16968,26 +16968,26 @@
       <c r="AM82" s="15"/>
       <c r="AN82" s="15"/>
       <c r="AO82" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AP82" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AQ82" s="26">
         <v>92310</v>
       </c>
       <c r="AR82" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AS82" s="19"/>
       <c r="AT82" s="19" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AU82" s="21"/>
       <c r="AW82" s="15"/>
       <c r="AX82" s="15"/>
       <c r="AZ82" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BA82" s="42"/>
       <c r="BB82" s="22">
@@ -17095,13 +17095,13 @@
     </row>
     <row r="83" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D83" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17144,26 +17144,26 @@
       <c r="AM83" s="15"/>
       <c r="AN83" s="15"/>
       <c r="AO83" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AP83" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AQ83" s="26">
         <v>95520</v>
       </c>
       <c r="AR83" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS83" s="19"/>
       <c r="AT83" s="19" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AU83" s="21"/>
       <c r="AW83" s="15"/>
       <c r="AX83" s="15"/>
       <c r="AZ83" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BA83" s="42"/>
       <c r="BB83" s="22">
@@ -17272,10 +17272,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D84" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17318,20 +17318,20 @@
       <c r="AM84" s="15"/>
       <c r="AN84" s="15"/>
       <c r="AO84" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AP84" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AQ84" s="26">
         <v>92000</v>
       </c>
       <c r="AR84" s="27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AS84" s="19"/>
       <c r="AT84" s="19" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AU84" s="21"/>
       <c r="AV84" s="22"/>
@@ -17339,7 +17339,7 @@
       <c r="AX84" s="15"/>
       <c r="AY84" s="22"/>
       <c r="AZ84" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA84" s="42"/>
       <c r="BB84" s="22">
@@ -17450,10 +17450,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D85" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17496,26 +17496,26 @@
       <c r="AM85" s="15"/>
       <c r="AN85" s="15"/>
       <c r="AO85" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AP85" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AQ85" s="26">
         <v>95724</v>
       </c>
       <c r="AR85" s="27" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AS85" s="19"/>
       <c r="AT85" s="19" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AU85" s="21"/>
       <c r="AW85" s="15"/>
       <c r="AX85" s="15"/>
       <c r="AZ85" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BA85" s="42"/>
       <c r="BB85" s="22">
@@ -17624,10 +17624,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D86" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17670,26 +17670,26 @@
       <c r="AM86" s="15"/>
       <c r="AN86" s="15"/>
       <c r="AO86" s="24" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AP86" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AQ86" s="26">
         <v>92230</v>
       </c>
       <c r="AR86" s="27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AS86" s="19"/>
       <c r="AT86" s="19" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AU86" s="21"/>
       <c r="AW86" s="15"/>
       <c r="AX86" s="15"/>
       <c r="AZ86" s="19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="BA86" s="42"/>
       <c r="BB86" s="22">
@@ -17803,7 +17803,7 @@
         <v>12</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D87" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17846,10 +17846,10 @@
       <c r="AM87" s="15"/>
       <c r="AN87" s="15"/>
       <c r="AO87" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AP87" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AQ87" s="26">
         <v>94700</v>
@@ -17857,13 +17857,13 @@
       <c r="AR87" s="27"/>
       <c r="AS87" s="19"/>
       <c r="AT87" s="19" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AU87" s="21"/>
       <c r="AW87" s="15"/>
       <c r="AX87" s="15"/>
       <c r="AZ87" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BA87" s="42"/>
       <c r="BB87" s="22">
@@ -17972,10 +17972,10 @@
         <v>0</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D88" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18018,7 +18018,7 @@
       <c r="AM88" s="15"/>
       <c r="AN88" s="15"/>
       <c r="AO88" s="24" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AP88" s="24" t="s">
         <v>34</v>
@@ -18027,17 +18027,17 @@
         <v>93200</v>
       </c>
       <c r="AR88" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AS88" s="19"/>
       <c r="AT88" s="19" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AU88" s="21"/>
       <c r="AW88" s="15"/>
       <c r="AX88" s="15"/>
       <c r="AZ88" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="BA88" s="42"/>
       <c r="BB88" s="22">
@@ -18146,10 +18146,10 @@
         <v>0</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D89" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18192,20 +18192,20 @@
       <c r="AM89" s="15"/>
       <c r="AN89" s="15"/>
       <c r="AO89" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AP89" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AQ89" s="26">
         <v>93390</v>
       </c>
       <c r="AR89" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AS89" s="19"/>
       <c r="AT89" s="19" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AU89" s="21"/>
       <c r="AV89" s="22"/>
@@ -18213,7 +18213,7 @@
       <c r="AX89" s="15"/>
       <c r="AY89" s="22"/>
       <c r="AZ89" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="BA89" s="42"/>
       <c r="BB89" s="22">
@@ -18328,10 +18328,10 @@
         <v>0</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D90" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18374,26 +18374,26 @@
       <c r="AM90" s="15"/>
       <c r="AN90" s="15"/>
       <c r="AO90" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AP90" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AQ90" s="26">
         <v>93000</v>
       </c>
       <c r="AR90" s="27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AS90" s="19"/>
       <c r="AT90" s="19" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AU90" s="21"/>
       <c r="AW90" s="15"/>
       <c r="AX90" s="15"/>
       <c r="AZ90" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="BA90" s="42"/>
       <c r="BB90" s="22">
@@ -18502,10 +18502,10 @@
         <v>0</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D91" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18548,26 +18548,26 @@
       <c r="AM91" s="15"/>
       <c r="AN91" s="15"/>
       <c r="AO91" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AP91" s="24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AQ91" s="26">
         <v>77340</v>
       </c>
       <c r="AR91" s="27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AS91" s="19"/>
       <c r="AT91" s="19" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AU91" s="21"/>
       <c r="AW91" s="15"/>
       <c r="AX91" s="15"/>
       <c r="AZ91" s="19" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="BA91" s="42"/>
       <c r="BB91" s="22">
@@ -18678,10 +18678,10 @@
         <v>0</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D92" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18724,20 +18724,20 @@
       <c r="AM92" s="15"/>
       <c r="AN92" s="15"/>
       <c r="AO92" s="24" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AP92" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AQ92" s="26">
         <v>78190</v>
       </c>
       <c r="AR92" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AS92" s="19"/>
       <c r="AT92" s="19" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AU92" s="21"/>
       <c r="AV92" s="22"/>
@@ -18745,7 +18745,7 @@
       <c r="AX92" s="15"/>
       <c r="AY92" s="22"/>
       <c r="AZ92" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BA92" s="42"/>
       <c r="BB92" s="22">
@@ -18856,10 +18856,10 @@
         <v>0</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D93" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18902,26 +18902,26 @@
       <c r="AM93" s="15"/>
       <c r="AN93" s="15"/>
       <c r="AO93" s="24" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AP93" s="24" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AQ93" s="26">
         <v>92600</v>
       </c>
       <c r="AR93" s="27" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AS93" s="19"/>
       <c r="AT93" s="19" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AU93" s="21"/>
       <c r="AW93" s="15"/>
       <c r="AX93" s="15"/>
       <c r="AZ93" s="19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="BA93" s="42"/>
       <c r="BB93" s="22">
@@ -19027,13 +19027,13 @@
     </row>
     <row r="94" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D94" s="14" t="str">
         <f t="shared" si="38"/>
@@ -19076,20 +19076,20 @@
       <c r="AM94" s="15"/>
       <c r="AN94" s="15"/>
       <c r="AO94" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AP94" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AQ94" s="26">
         <v>95150</v>
       </c>
       <c r="AR94" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AS94" s="19"/>
       <c r="AT94" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AU94" s="21"/>
       <c r="AV94" s="22"/>
@@ -19097,7 +19097,7 @@
       <c r="AX94" s="15"/>
       <c r="AY94" s="22"/>
       <c r="AZ94" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BA94" s="42"/>
       <c r="BB94" s="22">
@@ -19208,10 +19208,10 @@
         <v>0</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D95" s="14" t="str">
         <f t="shared" si="38"/>
@@ -19254,20 +19254,20 @@
       <c r="AM95" s="15"/>
       <c r="AN95" s="15"/>
       <c r="AO95" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AP95" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AQ95" s="26">
         <v>94460</v>
       </c>
       <c r="AR95" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AS95" s="19"/>
       <c r="AT95" s="19" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AU95" s="21"/>
       <c r="AW95" s="15"/>
@@ -19380,10 +19380,10 @@
         <v>0</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D96" s="14" t="str">
         <f t="shared" ref="D96:D113" si="57">IF(BF96&lt;&gt;0,";2022_BioQ1="&amp;BF96," ")&amp;IF(BG96&lt;&gt;0," ; 2022_BioQ2="&amp;BG96," ")&amp;IF(BH96&lt;&gt;0,";2021_BioQ1="&amp;BH96," ")&amp;IF(BI96&lt;&gt;0," ; 2021_QIAB2="&amp;BI96," ")&amp;IF(BJ96&lt;&gt;0,";2020_QIAB1="&amp;BJ96," ")&amp;IF(BK96&lt;&gt;0," ; 2020_QIAB2="&amp;BK96," ")&amp;IF(BL96&lt;&gt;0,";2019_QIAB1="&amp;BL96," ")&amp;IF(BM96&lt;&gt;0," ; 2019_QIAB2="&amp;BM96," ")&amp;IF(BN96&lt;&gt;0,";2018_QIAB1="&amp;BN96," ")&amp;IF(BO96&lt;&gt;0," ; 2018_QIAB2="&amp;BO96," ")&amp;IF(BP96&lt;&gt;0," ; 2017_QIAB1="&amp;BP96," ")&amp;IF(BQ96&lt;&gt;0," ; 2017_QIAB2="&amp;BQ96," ")&amp;IF(BR96&lt;&gt;0," ; 2016_QIAB1="&amp;BR96," ")&amp;IF(BS96&lt;&gt;0," ; 2016_QIAB2="&amp;BS96," ")&amp;IF(BT96&lt;&gt;0," ; 2015_QIAB1="&amp;BT96," ")&amp;IF(BU96&lt;&gt;0," ; 2015_QIAB2="&amp;BU96," ")&amp;IF(BV96&lt;&gt;0," ; 2014_QIAB1="&amp;BV96," ")&amp;IF(BW96&lt;&gt;0," ; 2014_QIAB2="&amp;BW96," ")</f>
@@ -19426,26 +19426,26 @@
       <c r="AM96" s="15"/>
       <c r="AN96" s="15"/>
       <c r="AO96" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AP96" s="24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AQ96" s="26">
         <v>93120</v>
       </c>
       <c r="AR96" s="27" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AS96" s="19"/>
       <c r="AT96" s="19" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AU96" s="21"/>
       <c r="AW96" s="15"/>
       <c r="AX96" s="15"/>
       <c r="AZ96" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BA96" s="42"/>
       <c r="BB96" s="22">
@@ -19557,7 +19557,7 @@
         <v>12</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D97" s="14" t="str">
         <f t="shared" si="57"/>
@@ -19600,26 +19600,26 @@
       <c r="AM97" s="15"/>
       <c r="AN97" s="15"/>
       <c r="AO97" s="24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AP97" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AQ97" s="26">
         <v>92752</v>
       </c>
       <c r="AR97" s="27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AS97" s="19"/>
       <c r="AT97" s="19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AU97" s="21"/>
       <c r="AW97" s="15"/>
       <c r="AX97" s="15"/>
       <c r="AZ97" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="BA97" s="42"/>
       <c r="BB97" s="22">
@@ -19729,7 +19729,7 @@
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="13" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D98" s="14" t="str">
         <f t="shared" ref="D98:D105" si="76">IF(BF98&lt;&gt;0,";2022_BioQ1="&amp;BF98," ")&amp;IF(BG98&lt;&gt;0," ; 2022_BioQ2="&amp;BG98," ")&amp;IF(BH98&lt;&gt;0,";2021_BioQ1="&amp;BH98," ")&amp;IF(BI98&lt;&gt;0," ; 2021_QIAB2="&amp;BI98," ")&amp;IF(BJ98&lt;&gt;0,";2020_QIAB1="&amp;BJ98," ")&amp;IF(BK98&lt;&gt;0," ; 2020_QIAB2="&amp;BK98," ")&amp;IF(BL98&lt;&gt;0,";2019_QIAB1="&amp;BL98," ")&amp;IF(BM98&lt;&gt;0," ; 2019_QIAB2="&amp;BM98," ")&amp;IF(BN98&lt;&gt;0,";2018_QIAB1="&amp;BN98," ")&amp;IF(BO98&lt;&gt;0," ; 2018_QIAB2="&amp;BO98," ")&amp;IF(BP98&lt;&gt;0," ; 2017_QIAB1="&amp;BP98," ")&amp;IF(BQ98&lt;&gt;0," ; 2017_QIAB2="&amp;BQ98," ")&amp;IF(BR98&lt;&gt;0," ; 2016_QIAB1="&amp;BR98," ")&amp;IF(BS98&lt;&gt;0," ; 2016_QIAB2="&amp;BS98," ")&amp;IF(BT98&lt;&gt;0," ; 2015_QIAB1="&amp;BT98," ")&amp;IF(BU98&lt;&gt;0," ; 2015_QIAB2="&amp;BU98," ")&amp;IF(BV98&lt;&gt;0," ; 2014_QIAB1="&amp;BV98," ")&amp;IF(BW98&lt;&gt;0," ; 2014_QIAB2="&amp;BW98," ")</f>
@@ -19772,20 +19772,20 @@
       <c r="AM98" s="15"/>
       <c r="AN98" s="15"/>
       <c r="AO98" s="24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AP98" s="24" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AQ98" s="26">
         <v>95734</v>
       </c>
       <c r="AR98" s="27" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AS98" s="19"/>
       <c r="AT98" s="19" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AU98" s="21"/>
       <c r="AV98" s="22"/>
@@ -19793,7 +19793,7 @@
       <c r="AX98" s="15"/>
       <c r="AY98" s="22"/>
       <c r="AZ98" s="19" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="BA98" s="42"/>
       <c r="BB98" s="22">
@@ -19899,13 +19899,13 @@
     </row>
     <row r="99" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D99" s="14" t="str">
         <f t="shared" si="76"/>
@@ -19948,26 +19948,26 @@
       <c r="AM99" s="15"/>
       <c r="AN99" s="15"/>
       <c r="AO99" s="24" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AP99" s="24" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AQ99" s="26">
         <v>95230</v>
       </c>
       <c r="AR99" s="27" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AS99" s="19"/>
       <c r="AT99" s="19" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AU99" s="21"/>
       <c r="AW99" s="15"/>
       <c r="AX99" s="15"/>
       <c r="AZ99" s="19" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="BA99" s="42"/>
       <c r="BB99" s="22">
@@ -20074,10 +20074,10 @@
         <v>11</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D100" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20120,26 +20120,26 @@
       <c r="AM100" s="15"/>
       <c r="AN100" s="15"/>
       <c r="AO100" s="24" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AP100" s="24" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AQ100" s="26">
         <v>1480</v>
       </c>
       <c r="AR100" s="27" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AS100" s="19"/>
       <c r="AT100" s="19" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AU100" s="21"/>
       <c r="AW100" s="15"/>
       <c r="AX100" s="15"/>
       <c r="AZ100" s="19" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="BA100" s="42"/>
       <c r="BB100" s="22">
@@ -20247,7 +20247,7 @@
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D101" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20290,20 +20290,20 @@
       <c r="AM101" s="15"/>
       <c r="AN101" s="15"/>
       <c r="AO101" s="24" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AP101" s="24" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AQ101" s="26">
         <v>95500</v>
       </c>
       <c r="AR101" s="27" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AS101" s="19"/>
       <c r="AT101" s="19" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AU101" s="21"/>
       <c r="AV101" s="22"/>
@@ -20311,7 +20311,7 @@
       <c r="AX101" s="15"/>
       <c r="AY101" s="22"/>
       <c r="AZ101" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="BA101" s="42"/>
       <c r="BB101" s="22">
@@ -20417,13 +20417,13 @@
     </row>
     <row r="102" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D102" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20466,26 +20466,26 @@
       <c r="AM102" s="15"/>
       <c r="AN102" s="15"/>
       <c r="AO102" s="24" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AP102" s="24" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AQ102" s="26">
         <v>92110</v>
       </c>
       <c r="AR102" s="27" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AS102" s="19"/>
       <c r="AT102" s="19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AU102" s="21"/>
       <c r="AW102" s="15"/>
       <c r="AX102" s="15"/>
       <c r="AZ102" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="BA102" s="42"/>
       <c r="BB102" s="22">
@@ -20589,13 +20589,13 @@
     </row>
     <row r="103" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>50</v>
+        <v>649</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D103" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20638,20 +20638,20 @@
       <c r="AM103" s="15"/>
       <c r="AN103" s="15"/>
       <c r="AO103" s="24" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AP103" s="24" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AQ103" s="26">
         <v>95310</v>
       </c>
       <c r="AR103" s="27" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AS103" s="19"/>
       <c r="AT103" s="19" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="AU103" s="21"/>
       <c r="AW103" s="15"/>
@@ -20762,10 +20762,10 @@
         <v>0</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D104" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20808,20 +20808,20 @@
       <c r="AM104" s="15"/>
       <c r="AN104" s="15"/>
       <c r="AO104" s="24" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="AP104" s="24" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="AQ104" s="26">
         <v>94650</v>
       </c>
       <c r="AR104" s="41" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="AS104" s="19"/>
       <c r="AT104" s="19" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="AU104" s="21"/>
       <c r="AV104" s="22"/>
@@ -20829,7 +20829,7 @@
       <c r="AX104" s="15"/>
       <c r="AY104" s="22"/>
       <c r="AZ104" s="19" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="BA104" s="42"/>
       <c r="BB104" s="22">

--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/559a6546c7b07495/Lycée/2021-2022 Paul Eluard/Lieux_de_Stages/StagesBioQ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/559a6546c7b07495/Lycée/2021-2022 Paul Eluard/Lieux_de_Stages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{06C9F5C1-03DF-4D60-9040-E22D0E6E6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00337FE8-DE5A-48E8-B058-16468B6C2B73}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{06C9F5C1-03DF-4D60-9040-E22D0E6E6F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF189A04-0644-4BC7-B19D-9226F9671AA7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entreprises_Complet2" sheetId="2" r:id="rId1"/>
@@ -20,11 +20,20 @@
     <definedName name="d">Entreprises_Complet2!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="654">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -176,6 +185,9 @@
     <t>Restauration</t>
   </si>
   <si>
+    <t>Médical</t>
+  </si>
+  <si>
     <t>Cosmétique</t>
   </si>
   <si>
@@ -198,6 +210,9 @@
   </si>
   <si>
     <t>Laboratoires URGO</t>
+  </si>
+  <si>
+    <t>Parémédical</t>
   </si>
   <si>
     <t>2 avenue de Strasbourg</t>
@@ -1319,6 +1334,9 @@
     <t>emoreau@ghpsj.fr</t>
   </si>
   <si>
+    <t>Laboratoire départemental de Biologie Médicale de Bondy</t>
+  </si>
+  <si>
     <t>Abbatoir</t>
   </si>
   <si>
@@ -1953,6 +1971,9 @@
     <t>48.90849636801762, 2.3082854268128727</t>
   </si>
   <si>
+    <t>Gaz à usage médical</t>
+  </si>
+  <si>
     <t>SOL France</t>
   </si>
   <si>
@@ -1999,16 +2020,7 @@
     <t>Lien Internet</t>
   </si>
   <si>
-    <t>Hôpital</t>
-  </si>
-  <si>
-    <t>Laboratoire départemental de Biologie Hôpitale de Bondy</t>
-  </si>
-  <si>
-    <t>ParéHôpital</t>
-  </si>
-  <si>
-    <t>Gaz à usage Hôpital</t>
+    <t>Chimie</t>
   </si>
 </sst>
 </file>
@@ -2644,69 +2656,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO256"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="DA24" sqref="DA24"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" style="40" customWidth="1"/>
-    <col min="5" max="12" width="30.7109375" style="40" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="30" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="30" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" style="30" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="30" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" style="30" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" style="30" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="30" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" style="30" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="47.140625" style="30" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="47.140625" style="31" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="47" style="34" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="32.7109375" style="30" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="44" style="31" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="46.140625" style="36" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="47" style="30" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="32.7109375" style="30" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="27.140625" style="30" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="46.7109375" style="34" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="59.85546875" style="34" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="44.42578125" style="30" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="25.140625" style="30" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="33.5703125" style="30" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="36" style="30" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="32.7109375" style="30" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="25.140625" style="34" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="33.5703125" style="34" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="33.42578125" style="34" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="37.5703125" style="30" hidden="1" customWidth="1"/>
-    <col min="41" max="42" width="33.28515625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="48.59765625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="40" customWidth="1"/>
+    <col min="5" max="12" width="30.73046875" style="40" customWidth="1"/>
+    <col min="13" max="13" width="25.1328125" style="30" customWidth="1"/>
+    <col min="14" max="14" width="25.59765625" style="30" customWidth="1"/>
+    <col min="15" max="15" width="26.86328125" style="30" customWidth="1"/>
+    <col min="16" max="16" width="22.59765625" style="30" customWidth="1"/>
+    <col min="17" max="17" width="25.1328125" style="30" customWidth="1"/>
+    <col min="18" max="18" width="25.59765625" style="30" customWidth="1"/>
+    <col min="19" max="19" width="26.86328125" style="30" customWidth="1"/>
+    <col min="20" max="20" width="22.59765625" style="30" customWidth="1"/>
+    <col min="21" max="21" width="47.1328125" style="30" customWidth="1"/>
+    <col min="22" max="22" width="47.1328125" style="31" customWidth="1"/>
+    <col min="23" max="23" width="47" style="34" customWidth="1"/>
+    <col min="24" max="24" width="32.73046875" style="30" customWidth="1"/>
+    <col min="25" max="25" width="44" style="31" customWidth="1"/>
+    <col min="26" max="26" width="46.1328125" style="36" customWidth="1"/>
+    <col min="27" max="27" width="47" style="30" customWidth="1"/>
+    <col min="28" max="28" width="32.73046875" style="30" customWidth="1"/>
+    <col min="29" max="29" width="27.1328125" style="30" customWidth="1"/>
+    <col min="30" max="30" width="46.73046875" style="34" customWidth="1"/>
+    <col min="31" max="31" width="59.86328125" style="34" customWidth="1"/>
+    <col min="32" max="32" width="44.3984375" style="30" customWidth="1"/>
+    <col min="33" max="33" width="25.1328125" style="30" customWidth="1"/>
+    <col min="34" max="34" width="33.59765625" style="30" customWidth="1"/>
+    <col min="35" max="35" width="36" style="30" customWidth="1"/>
+    <col min="36" max="36" width="32.73046875" style="30" customWidth="1"/>
+    <col min="37" max="37" width="25.1328125" style="34" customWidth="1"/>
+    <col min="38" max="38" width="33.59765625" style="34" customWidth="1"/>
+    <col min="39" max="39" width="33.3984375" style="34" customWidth="1"/>
+    <col min="40" max="40" width="37.59765625" style="30" customWidth="1"/>
+    <col min="41" max="42" width="33.265625" style="34" customWidth="1"/>
     <col min="43" max="43" width="15" style="37" customWidth="1"/>
-    <col min="44" max="44" width="33.28515625" style="30" customWidth="1"/>
-    <col min="45" max="45" width="42.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="33.28515625" style="39" customWidth="1"/>
-    <col min="47" max="47" width="33.28515625" style="34" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="45.42578125" style="38" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="17.7109375" style="30" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" style="39" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="15.42578125" style="30" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="42.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="42.7109375" style="30" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" style="30"/>
-    <col min="55" max="55" width="24.7109375" style="30" customWidth="1"/>
-    <col min="56" max="56" width="11.42578125" style="30"/>
-    <col min="57" max="57" width="24.7109375" style="30" customWidth="1"/>
-    <col min="58" max="65" width="12.85546875" style="30" customWidth="1"/>
-    <col min="66" max="67" width="12.85546875" style="29" customWidth="1"/>
-    <col min="68" max="75" width="12.85546875" style="29" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="33.265625" style="30" customWidth="1"/>
+    <col min="45" max="45" width="42.73046875" style="30" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="33.265625" style="39" customWidth="1"/>
+    <col min="47" max="47" width="33.265625" style="34" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="45.3984375" style="38" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="17.73046875" style="30" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="21.1328125" style="39" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="15.3984375" style="30" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="42.73046875" style="30" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="42.73046875" style="30" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="11.3984375" style="30"/>
+    <col min="55" max="55" width="24.73046875" style="30" customWidth="1"/>
+    <col min="56" max="56" width="11.3984375" style="30"/>
+    <col min="57" max="57" width="24.73046875" style="30" customWidth="1"/>
+    <col min="58" max="65" width="12.86328125" style="30" customWidth="1"/>
+    <col min="66" max="67" width="12.86328125" style="29" customWidth="1"/>
+    <col min="68" max="75" width="12.86328125" style="29" hidden="1" customWidth="1"/>
     <col min="76" max="92" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="93" max="16384" width="11.42578125" style="30"/>
+    <col min="93" max="16384" width="11.3984375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="11" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93" s="11" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2768,7 +2780,7 @@
         <v>4</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>29</v>
@@ -2783,7 +2795,7 @@
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BA1" s="2"/>
       <c r="BB1" s="6" t="s">
@@ -2799,34 +2811,34 @@
         <v>16</v>
       </c>
       <c r="BF1" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="BG1" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BH1" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BI1" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BJ1" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="BK1" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="BL1" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BM1" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="BN1" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BO1" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BP1" s="8" t="s">
         <v>39</v>
@@ -2893,7 +2905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
@@ -2955,7 +2967,7 @@
       <c r="AR2" s="18"/>
       <c r="AS2" s="19"/>
       <c r="AT2" s="20" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="AU2" s="21"/>
       <c r="AV2" s="28"/>
@@ -3054,15 +3066,15 @@
       </c>
       <c r="CO2" s="22"/>
     </row>
-    <row r="3" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D3" s="14" t="str">
         <f t="shared" ref="D3:D33" si="0">IF(BF3&lt;&gt;0,";2022_BioQ1="&amp;BF3," ")&amp;IF(BG3&lt;&gt;0," ; 2022_BioQ2="&amp;BG3," ")&amp;IF(BH3&lt;&gt;0,";2021_BioQ1="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2021_QIAB2="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0,";2020_QIAB1="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2020_QIAB2="&amp;BK3," ")&amp;IF(BL3&lt;&gt;0,";2019_QIAB1="&amp;BL3," ")&amp;IF(BM3&lt;&gt;0," ; 2019_QIAB2="&amp;BM3," ")&amp;IF(BN3&lt;&gt;0,";2018_QIAB1="&amp;BN3," ")&amp;IF(BO3&lt;&gt;0," ; 2018_QIAB2="&amp;BO3," ")&amp;IF(BP3&lt;&gt;0," ; 2017_QIAB1="&amp;BP3," ")&amp;IF(BQ3&lt;&gt;0," ; 2017_QIAB2="&amp;BQ3," ")&amp;IF(BR3&lt;&gt;0," ; 2016_QIAB1="&amp;BR3," ")&amp;IF(BS3&lt;&gt;0," ; 2016_QIAB2="&amp;BS3," ")&amp;IF(BT3&lt;&gt;0," ; 2015_QIAB1="&amp;BT3," ")&amp;IF(BU3&lt;&gt;0," ; 2015_QIAB2="&amp;BU3," ")&amp;IF(BV3&lt;&gt;0," ; 2014_QIAB1="&amp;BV3," ")&amp;IF(BW3&lt;&gt;0," ; 2014_QIAB2="&amp;BW3," ")</f>
@@ -3105,26 +3117,26 @@
       <c r="AM3" s="15"/>
       <c r="AN3" s="15"/>
       <c r="AO3" s="24" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AP3" s="24" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AQ3" s="26">
         <v>93571</v>
       </c>
       <c r="AR3" s="27" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AS3" s="19"/>
       <c r="AT3" s="19" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AU3" s="21"/>
       <c r="AW3" s="15"/>
       <c r="AX3" s="15"/>
       <c r="AZ3" s="19" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BA3" s="42"/>
       <c r="BB3" s="22">
@@ -3228,15 +3240,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3279,26 +3291,26 @@
       <c r="AM4" s="15"/>
       <c r="AN4" s="15"/>
       <c r="AO4" s="24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AP4" s="24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AQ4" s="26">
         <v>77290</v>
       </c>
       <c r="AR4" s="27" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AS4" s="19"/>
       <c r="AT4" s="19" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AU4" s="21"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="15"/>
       <c r="AZ4" s="19" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="BA4" s="42"/>
       <c r="BB4" s="22">
@@ -3406,15 +3418,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3457,26 +3469,26 @@
       <c r="AM5" s="15"/>
       <c r="AN5" s="15"/>
       <c r="AO5" s="24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AP5" s="24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AQ5" s="26">
         <v>95140</v>
       </c>
       <c r="AR5" s="27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AS5" s="19"/>
       <c r="AT5" s="19" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AU5" s="21"/>
       <c r="AW5" s="15"/>
       <c r="AX5" s="15"/>
       <c r="AZ5" s="19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="BA5" s="42"/>
       <c r="BB5" s="22">
@@ -3580,15 +3592,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3631,26 +3643,26 @@
       <c r="AM6" s="15"/>
       <c r="AN6" s="15"/>
       <c r="AO6" s="24" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AP6" s="24" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AQ6" s="26">
         <v>77164</v>
       </c>
       <c r="AR6" s="27" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AS6" s="19"/>
       <c r="AT6" s="19" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AU6" s="21"/>
       <c r="AW6" s="15"/>
       <c r="AX6" s="15"/>
       <c r="AZ6" s="19" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="BA6" s="42"/>
       <c r="BB6" s="22">
@@ -3754,15 +3766,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3805,20 +3817,20 @@
       <c r="AM7" s="15"/>
       <c r="AN7" s="15"/>
       <c r="AO7" s="24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP7" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AQ7" s="26">
         <v>93541</v>
       </c>
       <c r="AR7" s="27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AS7" s="19"/>
       <c r="AT7" s="19" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AU7" s="21"/>
       <c r="AW7" s="15"/>
@@ -3926,15 +3938,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3977,20 +3989,20 @@
       <c r="AM8" s="15"/>
       <c r="AN8" s="15"/>
       <c r="AO8" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AP8" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AQ8" s="26">
         <v>93800</v>
       </c>
       <c r="AR8" s="27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AS8" s="19"/>
       <c r="AT8" s="19" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AU8" s="21"/>
       <c r="AW8" s="15"/>
@@ -4098,15 +4110,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4149,26 +4161,26 @@
       <c r="AM9" s="15"/>
       <c r="AN9" s="15"/>
       <c r="AO9" s="24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AP9" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AQ9" s="26">
         <v>93230</v>
       </c>
       <c r="AR9" s="27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AS9" s="19"/>
       <c r="AT9" s="19" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AU9" s="21"/>
       <c r="AW9" s="15"/>
       <c r="AX9" s="15"/>
       <c r="AZ9" s="19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BA9" s="42"/>
       <c r="BB9" s="22">
@@ -4272,15 +4284,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:93" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4323,26 +4335,26 @@
       <c r="AM10" s="15"/>
       <c r="AN10" s="15"/>
       <c r="AO10" s="24" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AP10" s="24" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AQ10" s="26">
         <v>91700</v>
       </c>
       <c r="AR10" s="27" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AS10" s="19"/>
       <c r="AT10" s="19" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AU10" s="21"/>
       <c r="AW10" s="15"/>
       <c r="AX10" s="15"/>
       <c r="AZ10" s="19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BA10" s="42"/>
       <c r="BB10" s="22">
@@ -4446,15 +4458,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4497,7 +4509,7 @@
       <c r="AM11" s="15"/>
       <c r="AN11" s="15"/>
       <c r="AO11" s="24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AP11" s="24" t="s">
         <v>34</v>
@@ -4506,17 +4518,17 @@
         <v>93200</v>
       </c>
       <c r="AR11" s="27" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AS11" s="19"/>
       <c r="AT11" s="19" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AU11" s="21"/>
       <c r="AW11" s="15"/>
       <c r="AX11" s="15"/>
       <c r="AZ11" s="19" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BA11" s="42"/>
       <c r="BB11" s="22">
@@ -4622,15 +4634,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4673,26 +4685,26 @@
       <c r="AM12" s="15"/>
       <c r="AN12" s="15"/>
       <c r="AO12" s="24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AP12" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ12" s="26">
         <v>77270</v>
       </c>
       <c r="AR12" s="27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AS12" s="19"/>
       <c r="AT12" s="19" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="AU12" s="21"/>
       <c r="AW12" s="15"/>
       <c r="AX12" s="15"/>
       <c r="AZ12" s="19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="BA12" s="42"/>
       <c r="BB12" s="22">
@@ -4798,15 +4810,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
@@ -4849,7 +4861,7 @@
       <c r="AM13" s="15"/>
       <c r="AN13" s="15"/>
       <c r="AO13" s="24" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AP13" s="24" t="s">
         <v>34</v>
@@ -4858,17 +4870,17 @@
         <v>93200</v>
       </c>
       <c r="AR13" s="27" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AS13" s="19"/>
       <c r="AT13" s="19" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="AU13" s="21"/>
       <c r="AW13" s="15"/>
       <c r="AX13" s="15"/>
       <c r="AZ13" s="19" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="BA13" s="42"/>
       <c r="BB13" s="22">
@@ -4972,15 +4984,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D14" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5023,26 +5035,26 @@
       <c r="AM14" s="15"/>
       <c r="AN14" s="15"/>
       <c r="AO14" s="24" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AP14" s="24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AQ14" s="26">
         <v>92230</v>
       </c>
       <c r="AR14" s="27" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AS14" s="19"/>
       <c r="AT14" s="19" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="AU14" s="21"/>
       <c r="AW14" s="15"/>
       <c r="AX14" s="15"/>
       <c r="AZ14" s="19" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BA14" s="42"/>
       <c r="BB14" s="22">
@@ -5146,15 +5158,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5197,26 +5209,26 @@
       <c r="AM15" s="15"/>
       <c r="AN15" s="15"/>
       <c r="AO15" s="24" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AP15" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ15" s="26">
         <v>75014</v>
       </c>
       <c r="AR15" s="27" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AS15" s="19"/>
       <c r="AT15" s="19" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AU15" s="21"/>
       <c r="AW15" s="15"/>
       <c r="AX15" s="15"/>
       <c r="AZ15" s="19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="BA15" s="42"/>
       <c r="BB15" s="22">
@@ -5322,15 +5334,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5373,26 +5385,26 @@
       <c r="AM16" s="15"/>
       <c r="AN16" s="15"/>
       <c r="AO16" s="24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AP16" s="24" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AQ16" s="26">
         <v>91320</v>
       </c>
       <c r="AR16" s="27" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AS16" s="19"/>
       <c r="AT16" s="19" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="AU16" s="21"/>
       <c r="AW16" s="15"/>
       <c r="AX16" s="15"/>
       <c r="AZ16" s="19" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BA16" s="42"/>
       <c r="BB16" s="22">
@@ -5500,15 +5512,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5551,26 +5563,26 @@
       <c r="AM17" s="15"/>
       <c r="AN17" s="15"/>
       <c r="AO17" s="24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AP17" s="24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AQ17" s="26">
         <v>78410</v>
       </c>
       <c r="AR17" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AS17" s="19"/>
       <c r="AT17" s="19" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AU17" s="21"/>
       <c r="AW17" s="15"/>
       <c r="AX17" s="15"/>
       <c r="AZ17" s="19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="BA17" s="42"/>
       <c r="BB17" s="22">
@@ -5674,15 +5686,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5725,7 +5737,7 @@
       <c r="AM18" s="15"/>
       <c r="AN18" s="15"/>
       <c r="AO18" s="24" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AP18" s="24" t="s">
         <v>34</v>
@@ -5734,17 +5746,17 @@
         <v>93200</v>
       </c>
       <c r="AR18" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AS18" s="19"/>
       <c r="AT18" s="19" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="AU18" s="21"/>
       <c r="AW18" s="15"/>
       <c r="AX18" s="15"/>
       <c r="AZ18" s="19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BA18" s="42"/>
       <c r="BB18" s="22">
@@ -5848,15 +5860,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5899,26 +5911,26 @@
       <c r="AM19" s="15"/>
       <c r="AN19" s="15"/>
       <c r="AO19" s="24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AP19" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ19" s="26">
         <v>92390</v>
       </c>
       <c r="AR19" s="27" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AS19" s="19"/>
       <c r="AT19" s="19" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AU19" s="21"/>
       <c r="AW19" s="15"/>
       <c r="AX19" s="15"/>
       <c r="AZ19" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="BA19" s="42"/>
       <c r="BB19" s="22">
@@ -6022,13 +6034,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6071,7 +6083,7 @@
       <c r="AM20" s="15"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="24" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AP20" s="24" t="s">
         <v>34</v>
@@ -6080,17 +6092,17 @@
         <v>93200</v>
       </c>
       <c r="AR20" s="27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AS20" s="19"/>
       <c r="AT20" s="19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AU20" s="21"/>
       <c r="AW20" s="15"/>
       <c r="AX20" s="15"/>
       <c r="AZ20" s="19" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="BA20" s="42"/>
       <c r="BB20" s="22">
@@ -6194,15 +6206,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D21" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6245,26 +6257,26 @@
       <c r="AM21" s="15"/>
       <c r="AN21" s="15"/>
       <c r="AO21" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AP21" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AQ21" s="26">
         <v>93300</v>
       </c>
       <c r="AR21" s="27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AS21" s="19"/>
       <c r="AT21" s="19" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AU21" s="21"/>
       <c r="AW21" s="15"/>
       <c r="AX21" s="15"/>
       <c r="AZ21" s="19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BA21" s="42"/>
       <c r="BB21" s="22">
@@ -6368,13 +6380,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D22" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6417,26 +6429,26 @@
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
       <c r="AO22" s="24" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AP22" s="24" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AQ22" s="26">
         <v>93310</v>
       </c>
       <c r="AR22" s="27" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AS22" s="19"/>
       <c r="AT22" s="19" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="AU22" s="21"/>
       <c r="AW22" s="15"/>
       <c r="AX22" s="15"/>
       <c r="AZ22" s="19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BA22" s="42"/>
       <c r="BB22" s="22">
@@ -6540,15 +6552,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D23" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6591,26 +6603,26 @@
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
       <c r="AO23" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AP23" s="24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AQ23" s="26">
         <v>93140</v>
       </c>
       <c r="AR23" s="41" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AS23" s="19"/>
       <c r="AT23" s="19" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AU23" s="21"/>
       <c r="AW23" s="15"/>
       <c r="AX23" s="15"/>
       <c r="AZ23" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="BA23" s="42"/>
       <c r="BB23" s="22">
@@ -6716,15 +6728,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D24" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6767,26 +6779,26 @@
       <c r="AM24" s="15"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="24" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AP24" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ24" s="26">
         <v>75001</v>
       </c>
       <c r="AR24" s="27" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AS24" s="19"/>
       <c r="AT24" s="19" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AU24" s="21"/>
       <c r="AW24" s="15"/>
       <c r="AX24" s="15"/>
       <c r="AZ24" s="19" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="BA24" s="42"/>
       <c r="BB24" s="22">
@@ -6890,15 +6902,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D25" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6941,26 +6953,26 @@
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
       <c r="AO25" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AP25" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ25" s="26">
         <v>75013</v>
       </c>
       <c r="AR25" s="27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AS25" s="19"/>
       <c r="AT25" s="19" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AU25" s="21"/>
       <c r="AW25" s="15"/>
       <c r="AX25" s="15"/>
       <c r="AZ25" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BA25" s="42"/>
       <c r="BB25" s="22">
@@ -7064,13 +7076,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D26" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7113,26 +7125,26 @@
       <c r="AM26" s="15"/>
       <c r="AN26" s="15"/>
       <c r="AO26" s="24" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AP26" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ26" s="26">
         <v>75019</v>
       </c>
       <c r="AR26" s="27" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AS26" s="19"/>
       <c r="AT26" s="19" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="AU26" s="21"/>
       <c r="AW26" s="15"/>
       <c r="AX26" s="15"/>
       <c r="AZ26" s="19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="BA26" s="42"/>
       <c r="BB26" s="22">
@@ -7238,13 +7250,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D27" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7287,26 +7299,26 @@
       <c r="AM27" s="15"/>
       <c r="AN27" s="15"/>
       <c r="AO27" s="24" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AP27" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ27" s="26">
         <v>75007</v>
       </c>
       <c r="AR27" s="41" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AS27" s="19"/>
       <c r="AT27" s="19" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AU27" s="21"/>
       <c r="AW27" s="15"/>
       <c r="AX27" s="15"/>
       <c r="AZ27" s="19" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="BA27" s="42"/>
       <c r="BB27" s="22">
@@ -7410,15 +7422,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D28" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7461,26 +7473,26 @@
       <c r="AM28" s="15"/>
       <c r="AN28" s="15"/>
       <c r="AO28" s="24" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AP28" s="24" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AQ28" s="26">
         <v>78300</v>
       </c>
       <c r="AR28" s="27" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AS28" s="19"/>
       <c r="AT28" s="19" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AU28" s="21"/>
       <c r="AW28" s="15"/>
       <c r="AX28" s="15"/>
       <c r="AZ28" s="19" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="BA28" s="42"/>
       <c r="BB28" s="22">
@@ -7584,15 +7596,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D29" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7635,26 +7647,26 @@
       <c r="AM29" s="15"/>
       <c r="AN29" s="15"/>
       <c r="AO29" s="24" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AP29" s="24" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AQ29" s="26">
         <v>92140</v>
       </c>
       <c r="AR29" s="27" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AS29" s="19"/>
       <c r="AT29" s="19" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AU29" s="21"/>
       <c r="AW29" s="15"/>
       <c r="AX29" s="15"/>
       <c r="AZ29" s="19" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="BA29" s="42"/>
       <c r="BB29" s="22">
@@ -7758,15 +7770,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D30" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7809,26 +7821,26 @@
       <c r="AM30" s="15"/>
       <c r="AN30" s="15"/>
       <c r="AO30" s="24" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="AP30" s="24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AQ30" s="26">
         <v>92230</v>
       </c>
       <c r="AR30" s="27" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AS30" s="19"/>
       <c r="AT30" s="19" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AU30" s="21"/>
       <c r="AW30" s="15"/>
       <c r="AX30" s="15"/>
       <c r="AZ30" s="19" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="BA30" s="42"/>
       <c r="BB30" s="22">
@@ -7932,15 +7944,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D31" s="14" t="str">
         <f t="shared" si="0"/>
@@ -7983,10 +7995,10 @@
       <c r="AM31" s="15"/>
       <c r="AN31" s="15"/>
       <c r="AO31" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AP31" s="24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AQ31" s="26">
         <v>92000</v>
@@ -7994,7 +8006,7 @@
       <c r="AR31" s="27"/>
       <c r="AS31" s="19"/>
       <c r="AT31" s="19" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AU31" s="21"/>
       <c r="AW31" s="15"/>
@@ -8102,15 +8114,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:91" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:91" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D32" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8153,26 +8165,26 @@
       <c r="AM32" s="15"/>
       <c r="AN32" s="15"/>
       <c r="AO32" s="24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AP32" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ32" s="26">
         <v>75020</v>
       </c>
       <c r="AR32" s="27" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AS32" s="19"/>
       <c r="AT32" s="19" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AU32" s="21"/>
       <c r="AW32" s="15"/>
       <c r="AX32" s="15"/>
       <c r="AZ32" s="19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="BA32" s="42"/>
       <c r="BB32" s="22">
@@ -8276,15 +8288,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:93" s="22" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A33" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D33" s="14" t="str">
         <f t="shared" si="0"/>
@@ -8327,26 +8339,26 @@
       <c r="AM33" s="15"/>
       <c r="AN33" s="15"/>
       <c r="AO33" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP33" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ33" s="26">
         <v>93006</v>
       </c>
       <c r="AR33" s="27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AS33" s="19"/>
       <c r="AT33" s="19" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AU33" s="21"/>
       <c r="AW33" s="15"/>
       <c r="AX33" s="15"/>
       <c r="AZ33" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BA33" s="42"/>
       <c r="BB33" s="22">
@@ -8452,15 +8464,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D34" s="14" t="str">
         <f t="shared" ref="D34:D65" si="19">IF(BF34&lt;&gt;0,";2022_BioQ1="&amp;BF34," ")&amp;IF(BG34&lt;&gt;0," ; 2022_BioQ2="&amp;BG34," ")&amp;IF(BH34&lt;&gt;0,";2021_BioQ1="&amp;BH34," ")&amp;IF(BI34&lt;&gt;0," ; 2021_QIAB2="&amp;BI34," ")&amp;IF(BJ34&lt;&gt;0,";2020_QIAB1="&amp;BJ34," ")&amp;IF(BK34&lt;&gt;0," ; 2020_QIAB2="&amp;BK34," ")&amp;IF(BL34&lt;&gt;0,";2019_QIAB1="&amp;BL34," ")&amp;IF(BM34&lt;&gt;0," ; 2019_QIAB2="&amp;BM34," ")&amp;IF(BN34&lt;&gt;0,";2018_QIAB1="&amp;BN34," ")&amp;IF(BO34&lt;&gt;0," ; 2018_QIAB2="&amp;BO34," ")&amp;IF(BP34&lt;&gt;0," ; 2017_QIAB1="&amp;BP34," ")&amp;IF(BQ34&lt;&gt;0," ; 2017_QIAB2="&amp;BQ34," ")&amp;IF(BR34&lt;&gt;0," ; 2016_QIAB1="&amp;BR34," ")&amp;IF(BS34&lt;&gt;0," ; 2016_QIAB2="&amp;BS34," ")&amp;IF(BT34&lt;&gt;0," ; 2015_QIAB1="&amp;BT34," ")&amp;IF(BU34&lt;&gt;0," ; 2015_QIAB2="&amp;BU34," ")&amp;IF(BV34&lt;&gt;0," ; 2014_QIAB1="&amp;BV34," ")&amp;IF(BW34&lt;&gt;0," ; 2014_QIAB2="&amp;BW34," ")</f>
@@ -8503,20 +8515,20 @@
       <c r="AM34" s="15"/>
       <c r="AN34" s="15"/>
       <c r="AO34" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AP34" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ34" s="26">
         <v>93000</v>
       </c>
       <c r="AR34" s="27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AS34" s="19"/>
       <c r="AT34" s="19" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="AU34" s="21"/>
       <c r="AW34" s="15"/>
@@ -8626,15 +8638,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D35" s="14" t="str">
         <f t="shared" si="19"/>
@@ -8677,26 +8689,26 @@
       <c r="AM35" s="15"/>
       <c r="AN35" s="15"/>
       <c r="AO35" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AP35" s="24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AQ35" s="26">
         <v>93240</v>
       </c>
       <c r="AR35" s="27" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AS35" s="19"/>
       <c r="AT35" s="19" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="AU35" s="21"/>
       <c r="AW35" s="15"/>
       <c r="AX35" s="15"/>
       <c r="AZ35" s="19" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="BA35" s="42"/>
       <c r="BB35" s="22">
@@ -8804,15 +8816,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D36" s="14" t="str">
         <f t="shared" si="19"/>
@@ -8855,26 +8867,26 @@
       <c r="AM36" s="15"/>
       <c r="AN36" s="15"/>
       <c r="AO36" s="24" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AP36" s="24" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AQ36" s="26">
         <v>93320</v>
       </c>
       <c r="AR36" s="27" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AS36" s="19"/>
       <c r="AT36" s="19" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AU36" s="21"/>
       <c r="AW36" s="15"/>
       <c r="AX36" s="15"/>
       <c r="AZ36" s="19" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="BA36" s="42"/>
       <c r="BB36" s="22">
@@ -8978,15 +8990,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D37" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9029,26 +9041,26 @@
       <c r="AM37" s="15"/>
       <c r="AN37" s="15"/>
       <c r="AO37" s="24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AP37" s="24" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AQ37" s="26">
         <v>94201</v>
       </c>
       <c r="AR37" s="27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AS37" s="19"/>
       <c r="AT37" s="19" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="AU37" s="21"/>
       <c r="AW37" s="15"/>
       <c r="AX37" s="15"/>
       <c r="AZ37" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BA37" s="42"/>
       <c r="BB37" s="22">
@@ -9152,15 +9164,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D38" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9203,26 +9215,26 @@
       <c r="AM38" s="15"/>
       <c r="AN38" s="15"/>
       <c r="AO38" s="24" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AP38" s="24" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AQ38" s="26">
         <v>78680</v>
       </c>
       <c r="AR38" s="27" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AS38" s="19"/>
       <c r="AT38" s="19" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AU38" s="21"/>
       <c r="AW38" s="15"/>
       <c r="AX38" s="15"/>
       <c r="AZ38" s="19" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="BA38" s="42"/>
       <c r="BB38" s="22">
@@ -9326,15 +9338,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D39" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9377,20 +9389,20 @@
       <c r="AM39" s="15"/>
       <c r="AN39" s="15"/>
       <c r="AO39" s="24" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AP39" s="24" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AQ39" s="26">
         <v>93160</v>
       </c>
       <c r="AR39" s="27" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AS39" s="19"/>
       <c r="AT39" s="19" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AU39" s="21"/>
       <c r="AV39" s="22"/>
@@ -9398,7 +9410,7 @@
       <c r="AX39" s="15"/>
       <c r="AY39" s="22"/>
       <c r="AZ39" s="19" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="BA39" s="42"/>
       <c r="BB39" s="22">
@@ -9504,15 +9516,15 @@
       <c r="CN39" s="22"/>
       <c r="CO39" s="22"/>
     </row>
-    <row r="40" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D40" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9555,26 +9567,26 @@
       <c r="AM40" s="15"/>
       <c r="AN40" s="15"/>
       <c r="AO40" s="24" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AP40" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ40" s="26">
         <v>75006</v>
       </c>
       <c r="AR40" s="27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AS40" s="19"/>
       <c r="AT40" s="19" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AU40" s="21"/>
       <c r="AW40" s="15"/>
       <c r="AX40" s="15"/>
       <c r="AZ40" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BA40" s="42"/>
       <c r="BB40" s="22">
@@ -9678,15 +9690,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D41" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9729,26 +9741,26 @@
       <c r="AM41" s="15"/>
       <c r="AN41" s="15"/>
       <c r="AO41" s="24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AP41" s="24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AQ41" s="26">
         <v>93240</v>
       </c>
       <c r="AR41" s="27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AS41" s="19"/>
       <c r="AT41" s="19" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AU41" s="21"/>
       <c r="AW41" s="15"/>
       <c r="AX41" s="15"/>
       <c r="AZ41" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BA41" s="42"/>
       <c r="BB41" s="22">
@@ -9852,15 +9864,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D42" s="14" t="str">
         <f t="shared" si="19"/>
@@ -9903,20 +9915,20 @@
       <c r="AM42" s="15"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AP42" s="24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AQ42" s="26">
         <v>95220</v>
       </c>
       <c r="AR42" s="41" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AS42" s="19"/>
       <c r="AT42" s="19" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AU42" s="21"/>
       <c r="AV42" s="22"/>
@@ -9924,7 +9936,7 @@
       <c r="AX42" s="15"/>
       <c r="AY42" s="22"/>
       <c r="AZ42" s="19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="BA42" s="42"/>
       <c r="BB42" s="22">
@@ -10034,15 +10046,15 @@
       <c r="CN42" s="22"/>
       <c r="CO42" s="22"/>
     </row>
-    <row r="43" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D43" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10085,26 +10097,26 @@
       <c r="AM43" s="15"/>
       <c r="AN43" s="15"/>
       <c r="AO43" s="24" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="AP43" s="24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AQ43" s="26">
         <v>93240</v>
       </c>
       <c r="AR43" s="27" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AS43" s="19"/>
       <c r="AT43" s="19" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AU43" s="21"/>
       <c r="AW43" s="15"/>
       <c r="AX43" s="15"/>
       <c r="AZ43" s="19" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="BA43" s="42"/>
       <c r="BB43" s="22">
@@ -10208,15 +10220,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D44" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10259,26 +10271,26 @@
       <c r="AM44" s="15"/>
       <c r="AN44" s="15"/>
       <c r="AO44" s="24" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AP44" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ44" s="26">
         <v>92390</v>
       </c>
       <c r="AR44" s="27" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AS44" s="19"/>
       <c r="AT44" s="19" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AU44" s="21"/>
       <c r="AW44" s="15"/>
       <c r="AX44" s="15"/>
       <c r="AZ44" s="19" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="BA44" s="42"/>
       <c r="BB44" s="22">
@@ -10382,15 +10394,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D45" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10433,20 +10445,20 @@
       <c r="AM45" s="15"/>
       <c r="AN45" s="15"/>
       <c r="AO45" s="24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AP45" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AQ45" s="26">
         <v>95400</v>
       </c>
       <c r="AR45" s="27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AS45" s="19"/>
       <c r="AT45" s="19" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AU45" s="21"/>
       <c r="AV45" s="22"/>
@@ -10454,7 +10466,7 @@
       <c r="AX45" s="15"/>
       <c r="AY45" s="22"/>
       <c r="AZ45" s="19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BA45" s="42"/>
       <c r="BB45" s="22">
@@ -10566,15 +10578,15 @@
       <c r="CN45" s="22"/>
       <c r="CO45" s="22"/>
     </row>
-    <row r="46" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A46" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D46" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10617,26 +10629,26 @@
       <c r="AM46" s="15"/>
       <c r="AN46" s="15"/>
       <c r="AO46" s="24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AP46" s="24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AQ46" s="26">
         <v>93600</v>
       </c>
       <c r="AR46" s="27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AS46" s="19"/>
       <c r="AT46" s="19" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AU46" s="21"/>
       <c r="AW46" s="15"/>
       <c r="AX46" s="15"/>
       <c r="AZ46" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="BA46" s="42"/>
       <c r="BB46" s="22">
@@ -10740,15 +10752,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:93" s="22" customFormat="1" ht="27" x14ac:dyDescent="0.45">
       <c r="A47" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D47" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10791,26 +10803,26 @@
       <c r="AM47" s="15"/>
       <c r="AN47" s="15"/>
       <c r="AO47" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AP47" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AQ47" s="26">
         <v>93200</v>
       </c>
       <c r="AR47" s="41" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AS47" s="19"/>
       <c r="AT47" s="19" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="AU47" s="21"/>
       <c r="AW47" s="15"/>
       <c r="AX47" s="15"/>
       <c r="AZ47" s="19" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BA47" s="42"/>
       <c r="BB47" s="22">
@@ -10918,15 +10930,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D48" s="14" t="str">
         <f t="shared" si="19"/>
@@ -10969,20 +10981,20 @@
       <c r="AM48" s="15"/>
       <c r="AN48" s="15"/>
       <c r="AO48" s="24" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AP48" s="24" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AQ48" s="26">
         <v>93130</v>
       </c>
       <c r="AR48" s="27" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AS48" s="19"/>
       <c r="AT48" s="19" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AU48" s="21"/>
       <c r="AV48" s="22"/>
@@ -10990,7 +11002,7 @@
       <c r="AX48" s="15"/>
       <c r="AY48" s="22"/>
       <c r="AZ48" s="19" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="BA48" s="42"/>
       <c r="BB48" s="22">
@@ -11096,15 +11108,15 @@
       <c r="CN48" s="22"/>
       <c r="CO48" s="22"/>
     </row>
-    <row r="49" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D49" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11147,26 +11159,26 @@
       <c r="AM49" s="15"/>
       <c r="AN49" s="15"/>
       <c r="AO49" s="24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP49" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ49" s="26">
         <v>75012</v>
       </c>
       <c r="AR49" s="27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AS49" s="19"/>
       <c r="AT49" s="19" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AU49" s="21"/>
       <c r="AW49" s="15"/>
       <c r="AX49" s="15"/>
       <c r="AZ49" s="19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BA49" s="42"/>
       <c r="BB49" s="22">
@@ -11270,15 +11282,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D50" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11321,26 +11333,26 @@
       <c r="AM50" s="15"/>
       <c r="AN50" s="15"/>
       <c r="AO50" s="24" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AP50" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ50" s="26">
         <v>75018</v>
       </c>
       <c r="AR50" s="41" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AS50" s="19"/>
       <c r="AT50" s="19" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AU50" s="21"/>
       <c r="AW50" s="15"/>
       <c r="AX50" s="15"/>
       <c r="AZ50" s="19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="BA50" s="42"/>
       <c r="BB50" s="22">
@@ -11446,15 +11458,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D51" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11497,20 +11509,20 @@
       <c r="AM51" s="15"/>
       <c r="AN51" s="15"/>
       <c r="AO51" s="24" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AP51" s="24" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AQ51" s="26">
         <v>91480</v>
       </c>
       <c r="AR51" s="27" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AS51" s="19"/>
       <c r="AT51" s="19" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AU51" s="21"/>
       <c r="AV51" s="22"/>
@@ -11518,7 +11530,7 @@
       <c r="AX51" s="15"/>
       <c r="AY51" s="22"/>
       <c r="AZ51" s="19" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="BA51" s="42"/>
       <c r="BB51" s="22">
@@ -11624,13 +11636,13 @@
       <c r="CN51" s="22"/>
       <c r="CO51" s="22"/>
     </row>
-    <row r="52" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D52" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11673,20 +11685,20 @@
       <c r="AM52" s="15"/>
       <c r="AN52" s="15"/>
       <c r="AO52" s="24" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AP52" s="24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AQ52" s="26">
         <v>95107</v>
       </c>
       <c r="AR52" s="27" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AS52" s="19"/>
       <c r="AT52" s="19" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AU52" s="21"/>
       <c r="AW52" s="15"/>
@@ -11794,15 +11806,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D53" s="14" t="str">
         <f t="shared" si="19"/>
@@ -11845,20 +11857,20 @@
       <c r="AM53" s="15"/>
       <c r="AN53" s="15"/>
       <c r="AO53" s="24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AP53" s="24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AQ53" s="26">
         <v>97109</v>
       </c>
       <c r="AR53" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AS53" s="19"/>
       <c r="AT53" s="19" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="AU53" s="21"/>
       <c r="AW53" s="15"/>
@@ -11966,15 +11978,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D54" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12017,20 +12029,20 @@
       <c r="AM54" s="15"/>
       <c r="AN54" s="15"/>
       <c r="AO54" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AP54" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ54" s="26">
         <v>75015</v>
       </c>
       <c r="AR54" s="27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AS54" s="19"/>
       <c r="AT54" s="19" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AU54" s="21"/>
       <c r="AV54" s="22"/>
@@ -12038,7 +12050,7 @@
       <c r="AX54" s="15"/>
       <c r="AY54" s="22"/>
       <c r="AZ54" s="19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BA54" s="42"/>
       <c r="BB54" s="22">
@@ -12144,9 +12156,9 @@
       <c r="CN54" s="22"/>
       <c r="CO54" s="22"/>
     </row>
-    <row r="55" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>43</v>
@@ -12208,7 +12220,7 @@
       </c>
       <c r="AS55" s="19"/>
       <c r="AT55" s="20" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AU55" s="21"/>
       <c r="AW55" s="23"/>
@@ -12327,15 +12339,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A56" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D56" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12378,26 +12390,26 @@
       <c r="AM56" s="15"/>
       <c r="AN56" s="15"/>
       <c r="AO56" s="24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP56" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ56" s="26">
         <v>75010</v>
       </c>
       <c r="AR56" s="27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AS56" s="19"/>
       <c r="AT56" s="19" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="AU56" s="21"/>
       <c r="AW56" s="15"/>
       <c r="AX56" s="15"/>
       <c r="AZ56" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BA56" s="42"/>
       <c r="BB56" s="22">
@@ -12501,15 +12513,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12552,20 +12564,20 @@
       <c r="AM57" s="15"/>
       <c r="AN57" s="15"/>
       <c r="AO57" s="24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AP57" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AQ57" s="26">
         <v>92700</v>
       </c>
       <c r="AR57" s="41" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AS57" s="19"/>
       <c r="AT57" s="19" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="AU57" s="21"/>
       <c r="AV57" s="22"/>
@@ -12573,7 +12585,7 @@
       <c r="AX57" s="15"/>
       <c r="AY57" s="22"/>
       <c r="AZ57" s="19" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="BA57" s="42"/>
       <c r="BB57" s="22">
@@ -12685,15 +12697,15 @@
       <c r="CN57" s="22"/>
       <c r="CO57" s="22"/>
     </row>
-    <row r="58" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D58" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12736,26 +12748,26 @@
       <c r="AM58" s="15"/>
       <c r="AN58" s="15"/>
       <c r="AO58" s="24" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AP58" s="24" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AQ58" s="26">
         <v>94410</v>
       </c>
       <c r="AR58" s="27" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AS58" s="19"/>
       <c r="AT58" s="19" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="AU58" s="21"/>
       <c r="AW58" s="15"/>
       <c r="AX58" s="15"/>
       <c r="AZ58" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="BA58" s="42"/>
       <c r="BB58" s="22">
@@ -12861,15 +12873,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D59" s="14" t="str">
         <f t="shared" si="19"/>
@@ -12912,26 +12924,26 @@
       <c r="AM59" s="15"/>
       <c r="AN59" s="15"/>
       <c r="AO59" s="24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AP59" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ59" s="26">
         <v>75015</v>
       </c>
       <c r="AR59" s="27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AS59" s="19"/>
       <c r="AT59" s="19" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AU59" s="21"/>
       <c r="AW59" s="15"/>
       <c r="AX59" s="15"/>
       <c r="AZ59" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BA59" s="42"/>
       <c r="BB59" s="22">
@@ -13035,15 +13047,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D60" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13086,20 +13098,20 @@
       <c r="AM60" s="15"/>
       <c r="AN60" s="15"/>
       <c r="AO60" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP60" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ60" s="26">
         <v>92390</v>
       </c>
       <c r="AR60" s="27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS60" s="19"/>
       <c r="AT60" s="19" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AU60" s="21"/>
       <c r="AV60" s="22"/>
@@ -13107,7 +13119,7 @@
       <c r="AX60" s="15"/>
       <c r="AY60" s="22"/>
       <c r="AZ60" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BA60" s="42"/>
       <c r="BB60" s="22">
@@ -13213,15 +13225,15 @@
       <c r="CN60" s="22"/>
       <c r="CO60" s="22"/>
     </row>
-    <row r="61" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:93" s="22" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A61" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D61" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13264,26 +13276,26 @@
       <c r="AM61" s="15"/>
       <c r="AN61" s="15"/>
       <c r="AO61" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AP61" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ61" s="26">
         <v>75013</v>
       </c>
       <c r="AR61" s="41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AS61" s="19"/>
       <c r="AT61" s="19" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AU61" s="21"/>
       <c r="AW61" s="15"/>
       <c r="AX61" s="15"/>
       <c r="AZ61" s="19" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BA61" s="42"/>
       <c r="BB61" s="22">
@@ -13391,15 +13403,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D62" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13442,26 +13454,26 @@
       <c r="AM62" s="15"/>
       <c r="AN62" s="15"/>
       <c r="AO62" s="24" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AP62" s="24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AQ62" s="26">
         <v>93600</v>
       </c>
       <c r="AR62" s="41" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AS62" s="19"/>
       <c r="AT62" s="19" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AU62" s="21"/>
       <c r="AW62" s="15"/>
       <c r="AX62" s="15"/>
       <c r="AZ62" s="19" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="BA62" s="42"/>
       <c r="BB62" s="22">
@@ -13571,15 +13583,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A63" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D63" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13622,20 +13634,20 @@
       <c r="AM63" s="15"/>
       <c r="AN63" s="15"/>
       <c r="AO63" s="24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AP63" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ63" s="26">
         <v>75012</v>
       </c>
       <c r="AR63" s="27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS63" s="19"/>
       <c r="AT63" s="19" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="AU63" s="21"/>
       <c r="AV63" s="22"/>
@@ -13643,7 +13655,7 @@
       <c r="AX63" s="15"/>
       <c r="AY63" s="22"/>
       <c r="AZ63" s="19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BA63" s="42"/>
       <c r="BB63" s="22">
@@ -13749,15 +13761,15 @@
       <c r="CN63" s="22"/>
       <c r="CO63" s="22"/>
     </row>
-    <row r="64" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:93" s="22" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A64" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D64" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13800,26 +13812,26 @@
       <c r="AM64" s="15"/>
       <c r="AN64" s="15"/>
       <c r="AO64" s="24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP64" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ64" s="26">
         <v>75014</v>
       </c>
       <c r="AR64" s="41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AS64" s="19"/>
       <c r="AT64" s="19" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AU64" s="21"/>
       <c r="AW64" s="15"/>
       <c r="AX64" s="15"/>
       <c r="AZ64" s="19" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="BA64" s="42"/>
       <c r="BB64" s="22">
@@ -13931,15 +13943,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A65" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D65" s="14" t="str">
         <f t="shared" si="19"/>
@@ -13982,20 +13994,20 @@
       <c r="AM65" s="15"/>
       <c r="AN65" s="15"/>
       <c r="AO65" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AP65" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AQ65" s="26">
         <v>75016</v>
       </c>
       <c r="AR65" s="27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AS65" s="19"/>
       <c r="AT65" s="19" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="AU65" s="21"/>
       <c r="AV65" s="22"/>
@@ -14107,15 +14119,15 @@
       <c r="CN65" s="22"/>
       <c r="CO65" s="22"/>
     </row>
-    <row r="66" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A66" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D66" s="14" t="str">
         <f t="shared" ref="D66:D95" si="38">IF(BF66&lt;&gt;0,";2022_BioQ1="&amp;BF66," ")&amp;IF(BG66&lt;&gt;0," ; 2022_BioQ2="&amp;BG66," ")&amp;IF(BH66&lt;&gt;0,";2021_BioQ1="&amp;BH66," ")&amp;IF(BI66&lt;&gt;0," ; 2021_QIAB2="&amp;BI66," ")&amp;IF(BJ66&lt;&gt;0,";2020_QIAB1="&amp;BJ66," ")&amp;IF(BK66&lt;&gt;0," ; 2020_QIAB2="&amp;BK66," ")&amp;IF(BL66&lt;&gt;0,";2019_QIAB1="&amp;BL66," ")&amp;IF(BM66&lt;&gt;0," ; 2019_QIAB2="&amp;BM66," ")&amp;IF(BN66&lt;&gt;0,";2018_QIAB1="&amp;BN66," ")&amp;IF(BO66&lt;&gt;0," ; 2018_QIAB2="&amp;BO66," ")&amp;IF(BP66&lt;&gt;0," ; 2017_QIAB1="&amp;BP66," ")&amp;IF(BQ66&lt;&gt;0," ; 2017_QIAB2="&amp;BQ66," ")&amp;IF(BR66&lt;&gt;0," ; 2016_QIAB1="&amp;BR66," ")&amp;IF(BS66&lt;&gt;0," ; 2016_QIAB2="&amp;BS66," ")&amp;IF(BT66&lt;&gt;0," ; 2015_QIAB1="&amp;BT66," ")&amp;IF(BU66&lt;&gt;0," ; 2015_QIAB2="&amp;BU66," ")&amp;IF(BV66&lt;&gt;0," ; 2014_QIAB1="&amp;BV66," ")&amp;IF(BW66&lt;&gt;0," ; 2014_QIAB2="&amp;BW66," ")</f>
@@ -14158,26 +14170,26 @@
       <c r="AM66" s="15"/>
       <c r="AN66" s="15"/>
       <c r="AO66" s="24" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AP66" s="24" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AQ66" s="26">
         <v>91240</v>
       </c>
       <c r="AR66" s="27" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AS66" s="19"/>
       <c r="AT66" s="19" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="AU66" s="21"/>
       <c r="AW66" s="15"/>
       <c r="AX66" s="15"/>
       <c r="AZ66" s="19" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="BA66" s="42"/>
       <c r="BB66" s="22">
@@ -14281,15 +14293,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A67" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D67" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14332,26 +14344,26 @@
       <c r="AM67" s="15"/>
       <c r="AN67" s="15"/>
       <c r="AO67" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AP67" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AQ67" s="26">
         <v>93390</v>
       </c>
       <c r="AR67" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AS67" s="19"/>
       <c r="AT67" s="19" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AU67" s="21"/>
       <c r="AW67" s="15"/>
       <c r="AX67" s="15"/>
       <c r="AZ67" s="19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BA67" s="42"/>
       <c r="BB67" s="22">
@@ -14455,15 +14467,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:93" ht="57" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:93" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A68" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>650</v>
+        <v>426</v>
       </c>
       <c r="D68" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14506,20 +14518,20 @@
       <c r="AM68" s="15"/>
       <c r="AN68" s="15"/>
       <c r="AO68" s="24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AP68" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AQ68" s="26">
         <v>93140</v>
       </c>
       <c r="AR68" s="27" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AS68" s="19"/>
       <c r="AT68" s="19" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AU68" s="21"/>
       <c r="AV68" s="22"/>
@@ -14527,7 +14539,7 @@
       <c r="AX68" s="15"/>
       <c r="AY68" s="22"/>
       <c r="AZ68" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="BA68" s="42"/>
       <c r="BB68" s="22">
@@ -14536,7 +14548,7 @@
       </c>
       <c r="BC68" s="14" t="str">
         <f t="shared" si="39"/>
-        <v>N° 8 Laboratoire départemental de Biologie Hôpitale de Bondy</v>
+        <v>N° 8 Laboratoire départemental de Biologie Médicale de Bondy</v>
       </c>
       <c r="BD68" s="22">
         <f>RANK(BY68,$BY$3:$BY$112)+COUNTIF(BY$3:BY69,BY68)-1</f>
@@ -14544,7 +14556,7 @@
       </c>
       <c r="BE68" s="14" t="str">
         <f t="shared" si="40"/>
-        <v>N° 6 Laboratoire départemental de Biologie Hôpitale de Bondy</v>
+        <v>N° 6 Laboratoire départemental de Biologie Médicale de Bondy</v>
       </c>
       <c r="BF68" s="24"/>
       <c r="BG68" s="24"/>
@@ -14639,15 +14651,15 @@
       <c r="CN68" s="22"/>
       <c r="CO68" s="22"/>
     </row>
-    <row r="69" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>651</v>
+        <v>59</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D69" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14690,20 +14702,20 @@
       <c r="AM69" s="15"/>
       <c r="AN69" s="15"/>
       <c r="AO69" s="24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP69" s="24" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AQ69" s="26">
         <v>21800</v>
       </c>
       <c r="AR69" s="27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AS69" s="19"/>
       <c r="AT69" s="19" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AU69" s="21"/>
       <c r="AW69" s="15"/>
@@ -14811,15 +14823,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D70" s="14" t="str">
         <f t="shared" si="38"/>
@@ -14862,26 +14874,26 @@
       <c r="AM70" s="15"/>
       <c r="AN70" s="15"/>
       <c r="AO70" s="24" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AP70" s="24" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AQ70" s="26">
         <v>94380</v>
       </c>
       <c r="AR70" s="27" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AS70" s="19"/>
       <c r="AT70" s="19" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AU70" s="21"/>
       <c r="AW70" s="15"/>
       <c r="AX70" s="15"/>
       <c r="AZ70" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BA70" s="42"/>
       <c r="BB70" s="22">
@@ -14987,15 +14999,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D71" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15038,20 +15050,20 @@
       <c r="AM71" s="15"/>
       <c r="AN71" s="15"/>
       <c r="AO71" s="24" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="AP71" s="24" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AQ71" s="26">
         <v>94310</v>
       </c>
       <c r="AR71" s="27" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AS71" s="19"/>
       <c r="AT71" s="19" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="AU71" s="21"/>
       <c r="AV71" s="22"/>
@@ -15059,7 +15071,7 @@
       <c r="AX71" s="15"/>
       <c r="AY71" s="22"/>
       <c r="AZ71" s="19" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="BA71" s="42"/>
       <c r="BB71" s="22">
@@ -15165,15 +15177,15 @@
       <c r="CN71" s="22"/>
       <c r="CO71" s="22"/>
     </row>
-    <row r="72" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A72" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D72" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15216,20 +15228,20 @@
       <c r="AM72" s="15"/>
       <c r="AN72" s="15"/>
       <c r="AO72" s="24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AP72" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ72" s="26">
         <v>77270</v>
       </c>
       <c r="AR72" s="27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AS72" s="19"/>
       <c r="AT72" s="19" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AU72" s="21"/>
       <c r="AW72" s="15"/>
@@ -15337,15 +15349,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A73" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D73" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15388,26 +15400,26 @@
       <c r="AM73" s="15"/>
       <c r="AN73" s="15"/>
       <c r="AO73" s="24" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AP73" s="24" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AQ73" s="26">
         <v>18410</v>
       </c>
       <c r="AR73" s="27" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AS73" s="19"/>
       <c r="AT73" s="19" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="AU73" s="21"/>
       <c r="AW73" s="15"/>
       <c r="AX73" s="15"/>
       <c r="AZ73" s="19" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="BA73" s="42"/>
       <c r="BB73" s="22">
@@ -15511,15 +15523,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D74" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15562,20 +15574,20 @@
       <c r="AM74" s="15"/>
       <c r="AN74" s="15"/>
       <c r="AO74" s="24" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AP74" s="24" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AQ74" s="26">
         <v>77400</v>
       </c>
       <c r="AR74" s="27" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AS74" s="19"/>
       <c r="AT74" s="19" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="AU74" s="21"/>
       <c r="AV74" s="22"/>
@@ -15583,7 +15595,7 @@
       <c r="AX74" s="15"/>
       <c r="AY74" s="22"/>
       <c r="AZ74" s="19" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="BA74" s="42"/>
       <c r="BB74" s="22">
@@ -15689,15 +15701,15 @@
       <c r="CN74" s="22"/>
       <c r="CO74" s="22"/>
     </row>
-    <row r="75" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A75" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D75" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15740,26 +15752,26 @@
       <c r="AM75" s="15"/>
       <c r="AN75" s="15"/>
       <c r="AO75" s="24" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AP75" s="24" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="AQ75" s="26">
         <v>64400</v>
       </c>
       <c r="AR75" s="27" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AS75" s="19"/>
       <c r="AT75" s="19" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AU75" s="21"/>
       <c r="AW75" s="15"/>
       <c r="AX75" s="15"/>
       <c r="AZ75" s="19" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="BA75" s="42"/>
       <c r="BB75" s="22">
@@ -15863,15 +15875,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A76" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D76" s="14" t="str">
         <f t="shared" si="38"/>
@@ -15914,26 +15926,26 @@
       <c r="AM76" s="15"/>
       <c r="AN76" s="15"/>
       <c r="AO76" s="24" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AP76" s="24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AQ76" s="26">
         <v>95100</v>
       </c>
       <c r="AR76" s="27" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AS76" s="19"/>
       <c r="AT76" s="19" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="AU76" s="21"/>
       <c r="AW76" s="15"/>
       <c r="AX76" s="15"/>
       <c r="AZ76" s="19" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="BA76" s="42"/>
       <c r="BB76" s="22">
@@ -16037,15 +16049,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A77" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D77" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16088,26 +16100,26 @@
       <c r="AM77" s="15"/>
       <c r="AN77" s="15"/>
       <c r="AO77" s="24" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AP77" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AQ77" s="26">
         <v>93170</v>
       </c>
       <c r="AR77" s="41" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AS77" s="19"/>
       <c r="AT77" s="19" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="AU77" s="21"/>
       <c r="AW77" s="15"/>
       <c r="AX77" s="15"/>
       <c r="AZ77" s="19" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="BA77" s="42"/>
       <c r="BB77" s="22">
@@ -16213,15 +16225,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A78" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D78" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16264,20 +16276,20 @@
       <c r="AM78" s="15"/>
       <c r="AN78" s="15"/>
       <c r="AO78" s="24" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AP78" s="24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AQ78" s="26">
         <v>92500</v>
       </c>
       <c r="AR78" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AS78" s="19"/>
       <c r="AT78" s="19" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="AU78" s="21"/>
       <c r="AV78" s="22"/>
@@ -16285,7 +16297,7 @@
       <c r="AX78" s="15"/>
       <c r="AY78" s="22"/>
       <c r="AZ78" s="19" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="BA78" s="42"/>
       <c r="BB78" s="22">
@@ -16393,15 +16405,15 @@
       <c r="CN78" s="22"/>
       <c r="CO78" s="22"/>
     </row>
-    <row r="79" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A79" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D79" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16444,7 +16456,7 @@
       <c r="AM79" s="15"/>
       <c r="AN79" s="15"/>
       <c r="AO79" s="24" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AP79" s="24" t="s">
         <v>34</v>
@@ -16453,17 +16465,17 @@
         <v>93200</v>
       </c>
       <c r="AR79" s="27" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AS79" s="19"/>
       <c r="AT79" s="19" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AU79" s="21"/>
       <c r="AW79" s="15"/>
       <c r="AX79" s="15"/>
       <c r="AZ79" s="19" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="BA79" s="42"/>
       <c r="BB79" s="22">
@@ -16567,15 +16579,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A80" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D80" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16618,20 +16630,20 @@
       <c r="AM80" s="15"/>
       <c r="AN80" s="15"/>
       <c r="AO80" s="24" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="AP80" s="24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AQ80" s="26">
         <v>93240</v>
       </c>
       <c r="AR80" s="27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AS80" s="19"/>
       <c r="AT80" s="19" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AU80" s="21"/>
       <c r="AW80" s="15"/>
@@ -16739,15 +16751,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A81" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D81" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16790,20 +16802,20 @@
       <c r="AM81" s="15"/>
       <c r="AN81" s="15"/>
       <c r="AO81" s="24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AP81" s="24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AQ81" s="26">
         <v>92150</v>
       </c>
       <c r="AR81" s="27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AS81" s="19"/>
       <c r="AT81" s="19" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="AU81" s="21"/>
       <c r="AV81" s="22"/>
@@ -16811,7 +16823,7 @@
       <c r="AX81" s="15"/>
       <c r="AY81" s="22"/>
       <c r="AZ81" s="19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="BA81" s="42"/>
       <c r="BB81" s="22">
@@ -16917,15 +16929,15 @@
       <c r="CN81" s="22"/>
       <c r="CO81" s="22"/>
     </row>
-    <row r="82" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A82" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D82" s="14" t="str">
         <f t="shared" si="38"/>
@@ -16968,26 +16980,26 @@
       <c r="AM82" s="15"/>
       <c r="AN82" s="15"/>
       <c r="AO82" s="24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AP82" s="24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AQ82" s="26">
         <v>92310</v>
       </c>
       <c r="AR82" s="27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AS82" s="19"/>
       <c r="AT82" s="19" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="AU82" s="21"/>
       <c r="AW82" s="15"/>
       <c r="AX82" s="15"/>
       <c r="AZ82" s="19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="BA82" s="42"/>
       <c r="BB82" s="22">
@@ -17093,15 +17105,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A83" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D83" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17144,26 +17156,26 @@
       <c r="AM83" s="15"/>
       <c r="AN83" s="15"/>
       <c r="AO83" s="24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AP83" s="24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AQ83" s="26">
         <v>95520</v>
       </c>
       <c r="AR83" s="27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AS83" s="19"/>
       <c r="AT83" s="19" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="AU83" s="21"/>
       <c r="AW83" s="15"/>
       <c r="AX83" s="15"/>
       <c r="AZ83" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BA83" s="42"/>
       <c r="BB83" s="22">
@@ -17267,15 +17279,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A84" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D84" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17318,20 +17330,20 @@
       <c r="AM84" s="15"/>
       <c r="AN84" s="15"/>
       <c r="AO84" s="24" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AP84" s="24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AQ84" s="26">
         <v>92000</v>
       </c>
       <c r="AR84" s="27" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AS84" s="19"/>
       <c r="AT84" s="19" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AU84" s="21"/>
       <c r="AV84" s="22"/>
@@ -17339,7 +17351,7 @@
       <c r="AX84" s="15"/>
       <c r="AY84" s="22"/>
       <c r="AZ84" s="19" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="BA84" s="42"/>
       <c r="BB84" s="22">
@@ -17445,15 +17457,15 @@
       <c r="CN84" s="22"/>
       <c r="CO84" s="22"/>
     </row>
-    <row r="85" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A85" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D85" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17496,26 +17508,26 @@
       <c r="AM85" s="15"/>
       <c r="AN85" s="15"/>
       <c r="AO85" s="24" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AP85" s="24" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AQ85" s="26">
         <v>95724</v>
       </c>
       <c r="AR85" s="27" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AS85" s="19"/>
       <c r="AT85" s="19" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="AU85" s="21"/>
       <c r="AW85" s="15"/>
       <c r="AX85" s="15"/>
       <c r="AZ85" s="19" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="BA85" s="42"/>
       <c r="BB85" s="22">
@@ -17619,15 +17631,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A86" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D86" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17670,26 +17682,26 @@
       <c r="AM86" s="15"/>
       <c r="AN86" s="15"/>
       <c r="AO86" s="24" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="AP86" s="24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AQ86" s="26">
         <v>92230</v>
       </c>
       <c r="AR86" s="27" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AS86" s="19"/>
       <c r="AT86" s="19" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="AU86" s="21"/>
       <c r="AW86" s="15"/>
       <c r="AX86" s="15"/>
       <c r="AZ86" s="19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="BA86" s="42"/>
       <c r="BB86" s="22">
@@ -17795,7 +17807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A87" s="12" t="s">
         <v>11</v>
       </c>
@@ -17803,7 +17815,7 @@
         <v>12</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D87" s="14" t="str">
         <f t="shared" si="38"/>
@@ -17846,10 +17858,10 @@
       <c r="AM87" s="15"/>
       <c r="AN87" s="15"/>
       <c r="AO87" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AP87" s="24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AQ87" s="26">
         <v>94700</v>
@@ -17857,13 +17869,13 @@
       <c r="AR87" s="27"/>
       <c r="AS87" s="19"/>
       <c r="AT87" s="19" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="AU87" s="21"/>
       <c r="AW87" s="15"/>
       <c r="AX87" s="15"/>
       <c r="AZ87" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BA87" s="42"/>
       <c r="BB87" s="22">
@@ -17967,15 +17979,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A88" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D88" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18018,7 +18030,7 @@
       <c r="AM88" s="15"/>
       <c r="AN88" s="15"/>
       <c r="AO88" s="24" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="AP88" s="24" t="s">
         <v>34</v>
@@ -18027,17 +18039,17 @@
         <v>93200</v>
       </c>
       <c r="AR88" s="27" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AS88" s="19"/>
       <c r="AT88" s="19" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="AU88" s="21"/>
       <c r="AW88" s="15"/>
       <c r="AX88" s="15"/>
       <c r="AZ88" s="19" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="BA88" s="42"/>
       <c r="BB88" s="22">
@@ -18141,15 +18153,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A89" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D89" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18192,20 +18204,20 @@
       <c r="AM89" s="15"/>
       <c r="AN89" s="15"/>
       <c r="AO89" s="24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AP89" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AQ89" s="26">
         <v>93390</v>
       </c>
       <c r="AR89" s="27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AS89" s="19"/>
       <c r="AT89" s="19" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="AU89" s="21"/>
       <c r="AV89" s="22"/>
@@ -18213,7 +18225,7 @@
       <c r="AX89" s="15"/>
       <c r="AY89" s="22"/>
       <c r="AZ89" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BA89" s="42"/>
       <c r="BB89" s="22">
@@ -18323,15 +18335,15 @@
       <c r="CN89" s="22"/>
       <c r="CO89" s="22"/>
     </row>
-    <row r="90" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A90" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D90" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18374,26 +18386,26 @@
       <c r="AM90" s="15"/>
       <c r="AN90" s="15"/>
       <c r="AO90" s="24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AP90" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ90" s="26">
         <v>93000</v>
       </c>
       <c r="AR90" s="27" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AS90" s="19"/>
       <c r="AT90" s="19" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AU90" s="21"/>
       <c r="AW90" s="15"/>
       <c r="AX90" s="15"/>
       <c r="AZ90" s="19" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="BA90" s="42"/>
       <c r="BB90" s="22">
@@ -18497,15 +18509,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:93" s="22" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:93" s="22" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A91" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D91" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18548,26 +18560,26 @@
       <c r="AM91" s="15"/>
       <c r="AN91" s="15"/>
       <c r="AO91" s="24" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AP91" s="24" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AQ91" s="26">
         <v>77340</v>
       </c>
       <c r="AR91" s="27" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AS91" s="19"/>
       <c r="AT91" s="19" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="AU91" s="21"/>
       <c r="AW91" s="15"/>
       <c r="AX91" s="15"/>
       <c r="AZ91" s="19" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="BA91" s="42"/>
       <c r="BB91" s="22">
@@ -18673,15 +18685,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A92" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D92" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18724,20 +18736,20 @@
       <c r="AM92" s="15"/>
       <c r="AN92" s="15"/>
       <c r="AO92" s="24" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AP92" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AQ92" s="26">
         <v>78190</v>
       </c>
       <c r="AR92" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AS92" s="19"/>
       <c r="AT92" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="AU92" s="21"/>
       <c r="AV92" s="22"/>
@@ -18745,7 +18757,7 @@
       <c r="AX92" s="15"/>
       <c r="AY92" s="22"/>
       <c r="AZ92" s="19" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="BA92" s="42"/>
       <c r="BB92" s="22">
@@ -18851,15 +18863,15 @@
       <c r="CN92" s="22"/>
       <c r="CO92" s="22"/>
     </row>
-    <row r="93" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A93" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D93" s="14" t="str">
         <f t="shared" si="38"/>
@@ -18902,26 +18914,26 @@
       <c r="AM93" s="15"/>
       <c r="AN93" s="15"/>
       <c r="AO93" s="24" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AP93" s="24" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AQ93" s="26">
         <v>92600</v>
       </c>
       <c r="AR93" s="27" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AS93" s="19"/>
       <c r="AT93" s="19" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="AU93" s="21"/>
       <c r="AW93" s="15"/>
       <c r="AX93" s="15"/>
       <c r="AZ93" s="19" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="BA93" s="42"/>
       <c r="BB93" s="22">
@@ -19025,15 +19037,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A94" s="12" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D94" s="14" t="str">
         <f t="shared" si="38"/>
@@ -19076,20 +19088,20 @@
       <c r="AM94" s="15"/>
       <c r="AN94" s="15"/>
       <c r="AO94" s="24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AP94" s="24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AQ94" s="26">
         <v>95150</v>
       </c>
       <c r="AR94" s="27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AS94" s="19"/>
       <c r="AT94" s="19" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AU94" s="21"/>
       <c r="AV94" s="22"/>
@@ -19097,7 +19109,7 @@
       <c r="AX94" s="15"/>
       <c r="AY94" s="22"/>
       <c r="AZ94" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BA94" s="42"/>
       <c r="BB94" s="22">
@@ -19203,15 +19215,15 @@
       <c r="CN94" s="22"/>
       <c r="CO94" s="22"/>
     </row>
-    <row r="95" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A95" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D95" s="14" t="str">
         <f t="shared" si="38"/>
@@ -19254,20 +19266,20 @@
       <c r="AM95" s="15"/>
       <c r="AN95" s="15"/>
       <c r="AO95" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AP95" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AQ95" s="26">
         <v>94460</v>
       </c>
       <c r="AR95" s="27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AS95" s="19"/>
       <c r="AT95" s="19" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="AU95" s="21"/>
       <c r="AW95" s="15"/>
@@ -19375,15 +19387,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:93" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:93" s="22" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A96" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D96" s="14" t="str">
         <f t="shared" ref="D96:D113" si="57">IF(BF96&lt;&gt;0,";2022_BioQ1="&amp;BF96," ")&amp;IF(BG96&lt;&gt;0," ; 2022_BioQ2="&amp;BG96," ")&amp;IF(BH96&lt;&gt;0,";2021_BioQ1="&amp;BH96," ")&amp;IF(BI96&lt;&gt;0," ; 2021_QIAB2="&amp;BI96," ")&amp;IF(BJ96&lt;&gt;0,";2020_QIAB1="&amp;BJ96," ")&amp;IF(BK96&lt;&gt;0," ; 2020_QIAB2="&amp;BK96," ")&amp;IF(BL96&lt;&gt;0,";2019_QIAB1="&amp;BL96," ")&amp;IF(BM96&lt;&gt;0," ; 2019_QIAB2="&amp;BM96," ")&amp;IF(BN96&lt;&gt;0,";2018_QIAB1="&amp;BN96," ")&amp;IF(BO96&lt;&gt;0," ; 2018_QIAB2="&amp;BO96," ")&amp;IF(BP96&lt;&gt;0," ; 2017_QIAB1="&amp;BP96," ")&amp;IF(BQ96&lt;&gt;0," ; 2017_QIAB2="&amp;BQ96," ")&amp;IF(BR96&lt;&gt;0," ; 2016_QIAB1="&amp;BR96," ")&amp;IF(BS96&lt;&gt;0," ; 2016_QIAB2="&amp;BS96," ")&amp;IF(BT96&lt;&gt;0," ; 2015_QIAB1="&amp;BT96," ")&amp;IF(BU96&lt;&gt;0," ; 2015_QIAB2="&amp;BU96," ")&amp;IF(BV96&lt;&gt;0," ; 2014_QIAB1="&amp;BV96," ")&amp;IF(BW96&lt;&gt;0," ; 2014_QIAB2="&amp;BW96," ")</f>
@@ -19426,26 +19438,26 @@
       <c r="AM96" s="15"/>
       <c r="AN96" s="15"/>
       <c r="AO96" s="24" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AP96" s="24" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AQ96" s="26">
         <v>93120</v>
       </c>
       <c r="AR96" s="27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AS96" s="19"/>
       <c r="AT96" s="19" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="AU96" s="21"/>
       <c r="AW96" s="15"/>
       <c r="AX96" s="15"/>
       <c r="AZ96" s="19" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="BA96" s="42"/>
       <c r="BB96" s="22">
@@ -19549,7 +19561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A97" s="12" t="s">
         <v>11</v>
       </c>
@@ -19557,7 +19569,7 @@
         <v>12</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D97" s="14" t="str">
         <f t="shared" si="57"/>
@@ -19600,26 +19612,26 @@
       <c r="AM97" s="15"/>
       <c r="AN97" s="15"/>
       <c r="AO97" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AP97" s="24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AQ97" s="26">
         <v>92752</v>
       </c>
       <c r="AR97" s="27" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AS97" s="19"/>
       <c r="AT97" s="19" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="AU97" s="21"/>
       <c r="AW97" s="15"/>
       <c r="AX97" s="15"/>
       <c r="AZ97" s="19" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="BA97" s="42"/>
       <c r="BB97" s="22">
@@ -19723,13 +19735,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A98" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="13" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D98" s="14" t="str">
         <f t="shared" ref="D98:D105" si="76">IF(BF98&lt;&gt;0,";2022_BioQ1="&amp;BF98," ")&amp;IF(BG98&lt;&gt;0," ; 2022_BioQ2="&amp;BG98," ")&amp;IF(BH98&lt;&gt;0,";2021_BioQ1="&amp;BH98," ")&amp;IF(BI98&lt;&gt;0," ; 2021_QIAB2="&amp;BI98," ")&amp;IF(BJ98&lt;&gt;0,";2020_QIAB1="&amp;BJ98," ")&amp;IF(BK98&lt;&gt;0," ; 2020_QIAB2="&amp;BK98," ")&amp;IF(BL98&lt;&gt;0,";2019_QIAB1="&amp;BL98," ")&amp;IF(BM98&lt;&gt;0," ; 2019_QIAB2="&amp;BM98," ")&amp;IF(BN98&lt;&gt;0,";2018_QIAB1="&amp;BN98," ")&amp;IF(BO98&lt;&gt;0," ; 2018_QIAB2="&amp;BO98," ")&amp;IF(BP98&lt;&gt;0," ; 2017_QIAB1="&amp;BP98," ")&amp;IF(BQ98&lt;&gt;0," ; 2017_QIAB2="&amp;BQ98," ")&amp;IF(BR98&lt;&gt;0," ; 2016_QIAB1="&amp;BR98," ")&amp;IF(BS98&lt;&gt;0," ; 2016_QIAB2="&amp;BS98," ")&amp;IF(BT98&lt;&gt;0," ; 2015_QIAB1="&amp;BT98," ")&amp;IF(BU98&lt;&gt;0," ; 2015_QIAB2="&amp;BU98," ")&amp;IF(BV98&lt;&gt;0," ; 2014_QIAB1="&amp;BV98," ")&amp;IF(BW98&lt;&gt;0," ; 2014_QIAB2="&amp;BW98," ")</f>
@@ -19772,20 +19784,20 @@
       <c r="AM98" s="15"/>
       <c r="AN98" s="15"/>
       <c r="AO98" s="24" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AP98" s="24" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AQ98" s="26">
         <v>95734</v>
       </c>
       <c r="AR98" s="27" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="AS98" s="19"/>
       <c r="AT98" s="19" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="AU98" s="21"/>
       <c r="AV98" s="22"/>
@@ -19793,7 +19805,7 @@
       <c r="AX98" s="15"/>
       <c r="AY98" s="22"/>
       <c r="AZ98" s="19" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="BA98" s="42"/>
       <c r="BB98" s="22">
@@ -19897,15 +19909,15 @@
       <c r="CN98" s="22"/>
       <c r="CO98" s="22"/>
     </row>
-    <row r="99" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A99" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D99" s="14" t="str">
         <f t="shared" si="76"/>
@@ -19948,26 +19960,26 @@
       <c r="AM99" s="15"/>
       <c r="AN99" s="15"/>
       <c r="AO99" s="24" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AP99" s="24" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AQ99" s="26">
         <v>95230</v>
       </c>
       <c r="AR99" s="27" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="AS99" s="19"/>
       <c r="AT99" s="19" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="AU99" s="21"/>
       <c r="AW99" s="15"/>
       <c r="AX99" s="15"/>
       <c r="AZ99" s="19" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="BA99" s="42"/>
       <c r="BB99" s="22">
@@ -20069,15 +20081,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A100" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D100" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20120,26 +20132,26 @@
       <c r="AM100" s="15"/>
       <c r="AN100" s="15"/>
       <c r="AO100" s="24" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AP100" s="24" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="AQ100" s="26">
         <v>1480</v>
       </c>
       <c r="AR100" s="27" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="AS100" s="19"/>
       <c r="AT100" s="19" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="AU100" s="21"/>
       <c r="AW100" s="15"/>
       <c r="AX100" s="15"/>
       <c r="AZ100" s="19" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="BA100" s="42"/>
       <c r="BB100" s="22">
@@ -20241,13 +20253,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A101" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="13" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D101" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20290,20 +20302,20 @@
       <c r="AM101" s="15"/>
       <c r="AN101" s="15"/>
       <c r="AO101" s="24" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AP101" s="24" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AQ101" s="26">
         <v>95500</v>
       </c>
       <c r="AR101" s="27" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="AS101" s="19"/>
       <c r="AT101" s="19" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="AU101" s="21"/>
       <c r="AV101" s="22"/>
@@ -20311,7 +20323,7 @@
       <c r="AX101" s="15"/>
       <c r="AY101" s="22"/>
       <c r="AZ101" s="19" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="BA101" s="42"/>
       <c r="BB101" s="22">
@@ -20415,15 +20427,15 @@
       <c r="CN101" s="22"/>
       <c r="CO101" s="22"/>
     </row>
-    <row r="102" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A102" s="12" t="s">
-        <v>649</v>
+        <v>50</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D102" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20466,26 +20478,26 @@
       <c r="AM102" s="15"/>
       <c r="AN102" s="15"/>
       <c r="AO102" s="24" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AP102" s="24" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AQ102" s="26">
         <v>92110</v>
       </c>
       <c r="AR102" s="27" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AS102" s="19"/>
       <c r="AT102" s="19" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AU102" s="21"/>
       <c r="AW102" s="15"/>
       <c r="AX102" s="15"/>
       <c r="AZ102" s="19" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="BA102" s="42"/>
       <c r="BB102" s="22">
@@ -20587,15 +20599,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:93" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:93" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A103" s="12" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D103" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20638,20 +20650,20 @@
       <c r="AM103" s="15"/>
       <c r="AN103" s="15"/>
       <c r="AO103" s="24" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="AP103" s="24" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="AQ103" s="26">
         <v>95310</v>
       </c>
       <c r="AR103" s="27" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="AS103" s="19"/>
       <c r="AT103" s="19" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="AU103" s="21"/>
       <c r="AW103" s="15"/>
@@ -20757,15 +20769,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:93" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A104" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D104" s="14" t="str">
         <f t="shared" si="76"/>
@@ -20808,20 +20820,20 @@
       <c r="AM104" s="15"/>
       <c r="AN104" s="15"/>
       <c r="AO104" s="24" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="AP104" s="24" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="AQ104" s="26">
         <v>94650</v>
       </c>
       <c r="AR104" s="41" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="AS104" s="19"/>
       <c r="AT104" s="19" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="AU104" s="21"/>
       <c r="AV104" s="22"/>
@@ -20829,7 +20841,7 @@
       <c r="AX104" s="15"/>
       <c r="AY104" s="22"/>
       <c r="AZ104" s="19" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="BA104" s="42"/>
       <c r="BB104" s="22">
@@ -20933,7 +20945,7 @@
       <c r="CN104" s="22"/>
       <c r="CO104" s="22"/>
     </row>
-    <row r="105" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="13"/>
@@ -21087,7 +21099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="13"/>
@@ -21245,7 +21257,7 @@
       <c r="CN106" s="22"/>
       <c r="CO106" s="22"/>
     </row>
-    <row r="107" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="13"/>
@@ -21399,7 +21411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="13"/>
@@ -21553,7 +21565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="13"/>
@@ -21711,7 +21723,7 @@
       <c r="CN109" s="22"/>
       <c r="CO109" s="22"/>
     </row>
-    <row r="110" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="13"/>
@@ -21865,7 +21877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:93" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="13"/>
@@ -22019,7 +22031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="13"/>
@@ -22177,7 +22189,7 @@
       <c r="CN112" s="22"/>
       <c r="CO112" s="22"/>
     </row>
-    <row r="113" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:91" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="13"/>
@@ -22331,7 +22343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
@@ -22379,7 +22391,7 @@
       <c r="CL114" s="35"/>
       <c r="CM114" s="35"/>
     </row>
-    <row r="115" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D115" s="23"/>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
@@ -22426,7 +22438,7 @@
       <c r="CL115" s="35"/>
       <c r="CM115" s="35"/>
     </row>
-    <row r="116" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
@@ -22473,7 +22485,7 @@
       <c r="CL116" s="35"/>
       <c r="CM116" s="35"/>
     </row>
-    <row r="117" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
       <c r="F117" s="23"/>
@@ -22520,7 +22532,7 @@
       <c r="CL117" s="35"/>
       <c r="CM117" s="35"/>
     </row>
-    <row r="118" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
       <c r="F118" s="23"/>
@@ -22567,7 +22579,7 @@
       <c r="CL118" s="35"/>
       <c r="CM118" s="35"/>
     </row>
-    <row r="119" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D119" s="23"/>
       <c r="E119" s="23"/>
       <c r="F119" s="23"/>
@@ -22614,7 +22626,7 @@
       <c r="CL119" s="35"/>
       <c r="CM119" s="35"/>
     </row>
-    <row r="120" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
@@ -22661,7 +22673,7 @@
       <c r="CL120" s="35"/>
       <c r="CM120" s="35"/>
     </row>
-    <row r="121" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D121" s="23"/>
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
@@ -22708,7 +22720,7 @@
       <c r="CL121" s="35"/>
       <c r="CM121" s="35"/>
     </row>
-    <row r="122" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
@@ -22755,7 +22767,7 @@
       <c r="CL122" s="35"/>
       <c r="CM122" s="35"/>
     </row>
-    <row r="123" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
       <c r="F123" s="23"/>
@@ -22802,7 +22814,7 @@
       <c r="CL123" s="35"/>
       <c r="CM123" s="35"/>
     </row>
-    <row r="124" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
@@ -22849,7 +22861,7 @@
       <c r="CL124" s="35"/>
       <c r="CM124" s="35"/>
     </row>
-    <row r="125" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D125" s="23"/>
       <c r="E125" s="23"/>
       <c r="F125" s="23"/>
@@ -22896,7 +22908,7 @@
       <c r="CL125" s="35"/>
       <c r="CM125" s="35"/>
     </row>
-    <row r="126" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
@@ -22943,7 +22955,7 @@
       <c r="CL126" s="35"/>
       <c r="CM126" s="35"/>
     </row>
-    <row r="127" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D127" s="23"/>
       <c r="E127" s="23"/>
       <c r="F127" s="23"/>
@@ -22990,7 +23002,7 @@
       <c r="CL127" s="35"/>
       <c r="CM127" s="35"/>
     </row>
-    <row r="128" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:91" x14ac:dyDescent="0.45">
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
       <c r="F128" s="23"/>
@@ -23037,7 +23049,7 @@
       <c r="CL128" s="35"/>
       <c r="CM128" s="35"/>
     </row>
-    <row r="129" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D129" s="23"/>
       <c r="E129" s="23"/>
       <c r="F129" s="23"/>
@@ -23084,7 +23096,7 @@
       <c r="CL129" s="35"/>
       <c r="CM129" s="35"/>
     </row>
-    <row r="130" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
@@ -23131,7 +23143,7 @@
       <c r="CL130" s="35"/>
       <c r="CM130" s="35"/>
     </row>
-    <row r="131" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
       <c r="F131" s="23"/>
@@ -23178,7 +23190,7 @@
       <c r="CL131" s="35"/>
       <c r="CM131" s="35"/>
     </row>
-    <row r="132" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
       <c r="F132" s="23"/>
@@ -23225,7 +23237,7 @@
       <c r="CL132" s="35"/>
       <c r="CM132" s="35"/>
     </row>
-    <row r="133" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D133" s="23"/>
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
@@ -23272,7 +23284,7 @@
       <c r="CL133" s="35"/>
       <c r="CM133" s="35"/>
     </row>
-    <row r="134" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
@@ -23319,7 +23331,7 @@
       <c r="CL134" s="35"/>
       <c r="CM134" s="35"/>
     </row>
-    <row r="135" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D135" s="23"/>
       <c r="E135" s="23"/>
       <c r="F135" s="23"/>
@@ -23366,7 +23378,7 @@
       <c r="CL135" s="35"/>
       <c r="CM135" s="35"/>
     </row>
-    <row r="136" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
       <c r="F136" s="23"/>
@@ -23413,7 +23425,7 @@
       <c r="CL136" s="35"/>
       <c r="CM136" s="35"/>
     </row>
-    <row r="137" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D137" s="23"/>
       <c r="E137" s="23"/>
       <c r="F137" s="23"/>
@@ -23460,7 +23472,7 @@
       <c r="CL137" s="35"/>
       <c r="CM137" s="35"/>
     </row>
-    <row r="138" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
       <c r="F138" s="23"/>
@@ -23507,7 +23519,7 @@
       <c r="CL138" s="35"/>
       <c r="CM138" s="35"/>
     </row>
-    <row r="139" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D139" s="23"/>
       <c r="E139" s="23"/>
       <c r="F139" s="23"/>
@@ -23554,7 +23566,7 @@
       <c r="CL139" s="35"/>
       <c r="CM139" s="35"/>
     </row>
-    <row r="140" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
       <c r="F140" s="23"/>
@@ -23601,7 +23613,7 @@
       <c r="CL140" s="35"/>
       <c r="CM140" s="35"/>
     </row>
-    <row r="141" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
       <c r="F141" s="23"/>
@@ -23648,7 +23660,7 @@
       <c r="CL141" s="35"/>
       <c r="CM141" s="35"/>
     </row>
-    <row r="142" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
       <c r="F142" s="23"/>
@@ -23695,7 +23707,7 @@
       <c r="CL142" s="35"/>
       <c r="CM142" s="35"/>
     </row>
-    <row r="143" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D143" s="23"/>
       <c r="E143" s="23"/>
       <c r="F143" s="23"/>
@@ -23742,7 +23754,7 @@
       <c r="CL143" s="35"/>
       <c r="CM143" s="35"/>
     </row>
-    <row r="144" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>
@@ -23789,7 +23801,7 @@
       <c r="CL144" s="35"/>
       <c r="CM144" s="35"/>
     </row>
-    <row r="145" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D145" s="23"/>
       <c r="E145" s="23"/>
       <c r="F145" s="23"/>
@@ -23836,7 +23848,7 @@
       <c r="CL145" s="35"/>
       <c r="CM145" s="35"/>
     </row>
-    <row r="146" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
       <c r="F146" s="23"/>
@@ -23883,7 +23895,7 @@
       <c r="CL146" s="35"/>
       <c r="CM146" s="35"/>
     </row>
-    <row r="147" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D147" s="23"/>
       <c r="E147" s="23"/>
       <c r="F147" s="23"/>
@@ -23930,7 +23942,7 @@
       <c r="CL147" s="35"/>
       <c r="CM147" s="35"/>
     </row>
-    <row r="148" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
       <c r="F148" s="23"/>
@@ -23977,7 +23989,7 @@
       <c r="CL148" s="35"/>
       <c r="CM148" s="35"/>
     </row>
-    <row r="149" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D149" s="23"/>
       <c r="E149" s="23"/>
       <c r="F149" s="23"/>
@@ -24024,7 +24036,7 @@
       <c r="CL149" s="35"/>
       <c r="CM149" s="35"/>
     </row>
-    <row r="150" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
       <c r="F150" s="23"/>
@@ -24071,7 +24083,7 @@
       <c r="CL150" s="35"/>
       <c r="CM150" s="35"/>
     </row>
-    <row r="151" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D151" s="23"/>
       <c r="E151" s="23"/>
       <c r="F151" s="23"/>
@@ -24118,7 +24130,7 @@
       <c r="CL151" s="35"/>
       <c r="CM151" s="35"/>
     </row>
-    <row r="152" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
@@ -24165,7 +24177,7 @@
       <c r="CL152" s="35"/>
       <c r="CM152" s="35"/>
     </row>
-    <row r="153" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D153" s="23"/>
       <c r="E153" s="23"/>
       <c r="F153" s="23"/>
@@ -24212,7 +24224,7 @@
       <c r="CL153" s="35"/>
       <c r="CM153" s="35"/>
     </row>
-    <row r="154" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D154" s="23"/>
       <c r="E154" s="23"/>
       <c r="F154" s="23"/>
@@ -24259,7 +24271,7 @@
       <c r="CL154" s="35"/>
       <c r="CM154" s="35"/>
     </row>
-    <row r="155" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D155" s="23"/>
       <c r="E155" s="23"/>
       <c r="F155" s="23"/>
@@ -24306,7 +24318,7 @@
       <c r="CL155" s="35"/>
       <c r="CM155" s="35"/>
     </row>
-    <row r="156" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
       <c r="F156" s="23"/>
@@ -24353,7 +24365,7 @@
       <c r="CL156" s="35"/>
       <c r="CM156" s="35"/>
     </row>
-    <row r="157" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D157" s="23"/>
       <c r="E157" s="23"/>
       <c r="F157" s="23"/>
@@ -24400,7 +24412,7 @@
       <c r="CL157" s="35"/>
       <c r="CM157" s="35"/>
     </row>
-    <row r="158" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
       <c r="F158" s="23"/>
@@ -24447,7 +24459,7 @@
       <c r="CL158" s="35"/>
       <c r="CM158" s="35"/>
     </row>
-    <row r="159" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
       <c r="F159" s="23"/>
@@ -24494,7 +24506,7 @@
       <c r="CL159" s="35"/>
       <c r="CM159" s="35"/>
     </row>
-    <row r="160" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
       <c r="F160" s="23"/>
@@ -24541,7 +24553,7 @@
       <c r="CL160" s="35"/>
       <c r="CM160" s="35"/>
     </row>
-    <row r="161" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D161" s="23"/>
       <c r="E161" s="23"/>
       <c r="F161" s="23"/>
@@ -24588,7 +24600,7 @@
       <c r="CL161" s="35"/>
       <c r="CM161" s="35"/>
     </row>
-    <row r="162" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
       <c r="F162" s="23"/>
@@ -24635,7 +24647,7 @@
       <c r="CL162" s="35"/>
       <c r="CM162" s="35"/>
     </row>
-    <row r="163" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D163" s="23"/>
       <c r="E163" s="23"/>
       <c r="F163" s="23"/>
@@ -24682,7 +24694,7 @@
       <c r="CL163" s="35"/>
       <c r="CM163" s="35"/>
     </row>
-    <row r="164" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D164" s="23"/>
       <c r="E164" s="23"/>
       <c r="F164" s="23"/>
@@ -24729,7 +24741,7 @@
       <c r="CL164" s="35"/>
       <c r="CM164" s="35"/>
     </row>
-    <row r="165" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D165" s="23"/>
       <c r="E165" s="23"/>
       <c r="F165" s="23"/>
@@ -24776,7 +24788,7 @@
       <c r="CL165" s="35"/>
       <c r="CM165" s="35"/>
     </row>
-    <row r="166" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D166" s="23"/>
       <c r="E166" s="23"/>
       <c r="F166" s="23"/>
@@ -24823,7 +24835,7 @@
       <c r="CL166" s="35"/>
       <c r="CM166" s="35"/>
     </row>
-    <row r="167" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D167" s="23"/>
       <c r="E167" s="23"/>
       <c r="F167" s="23"/>
@@ -24870,7 +24882,7 @@
       <c r="CL167" s="35"/>
       <c r="CM167" s="35"/>
     </row>
-    <row r="168" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D168" s="23"/>
       <c r="E168" s="23"/>
       <c r="F168" s="23"/>
@@ -24917,7 +24929,7 @@
       <c r="CL168" s="35"/>
       <c r="CM168" s="35"/>
     </row>
-    <row r="169" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D169" s="23"/>
       <c r="E169" s="23"/>
       <c r="F169" s="23"/>
@@ -24964,7 +24976,7 @@
       <c r="CL169" s="35"/>
       <c r="CM169" s="35"/>
     </row>
-    <row r="170" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D170" s="23"/>
       <c r="E170" s="23"/>
       <c r="F170" s="23"/>
@@ -25011,7 +25023,7 @@
       <c r="CL170" s="35"/>
       <c r="CM170" s="35"/>
     </row>
-    <row r="171" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D171" s="23"/>
       <c r="E171" s="23"/>
       <c r="F171" s="23"/>
@@ -25058,7 +25070,7 @@
       <c r="CL171" s="35"/>
       <c r="CM171" s="35"/>
     </row>
-    <row r="172" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D172" s="23"/>
       <c r="E172" s="23"/>
       <c r="F172" s="23"/>
@@ -25105,7 +25117,7 @@
       <c r="CL172" s="35"/>
       <c r="CM172" s="35"/>
     </row>
-    <row r="173" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D173" s="23"/>
       <c r="E173" s="23"/>
       <c r="F173" s="23"/>
@@ -25152,7 +25164,7 @@
       <c r="CL173" s="35"/>
       <c r="CM173" s="35"/>
     </row>
-    <row r="174" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D174" s="23"/>
       <c r="E174" s="23"/>
       <c r="F174" s="23"/>
@@ -25199,7 +25211,7 @@
       <c r="CL174" s="35"/>
       <c r="CM174" s="35"/>
     </row>
-    <row r="175" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D175" s="23"/>
       <c r="E175" s="23"/>
       <c r="F175" s="23"/>
@@ -25246,7 +25258,7 @@
       <c r="CL175" s="35"/>
       <c r="CM175" s="35"/>
     </row>
-    <row r="176" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D176" s="23"/>
       <c r="E176" s="23"/>
       <c r="F176" s="23"/>
@@ -25293,7 +25305,7 @@
       <c r="CL176" s="35"/>
       <c r="CM176" s="35"/>
     </row>
-    <row r="177" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D177" s="23"/>
       <c r="E177" s="23"/>
       <c r="F177" s="23"/>
@@ -25340,7 +25352,7 @@
       <c r="CL177" s="35"/>
       <c r="CM177" s="35"/>
     </row>
-    <row r="178" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D178" s="23"/>
       <c r="E178" s="23"/>
       <c r="F178" s="23"/>
@@ -25387,7 +25399,7 @@
       <c r="CL178" s="35"/>
       <c r="CM178" s="35"/>
     </row>
-    <row r="179" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D179" s="23"/>
       <c r="E179" s="23"/>
       <c r="F179" s="23"/>
@@ -25434,7 +25446,7 @@
       <c r="CL179" s="35"/>
       <c r="CM179" s="35"/>
     </row>
-    <row r="180" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D180" s="23"/>
       <c r="E180" s="23"/>
       <c r="F180" s="23"/>
@@ -25481,7 +25493,7 @@
       <c r="CL180" s="35"/>
       <c r="CM180" s="35"/>
     </row>
-    <row r="181" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D181" s="23"/>
       <c r="E181" s="23"/>
       <c r="F181" s="23"/>
@@ -25528,7 +25540,7 @@
       <c r="CL181" s="35"/>
       <c r="CM181" s="35"/>
     </row>
-    <row r="182" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D182" s="23"/>
       <c r="E182" s="23"/>
       <c r="F182" s="23"/>
@@ -25575,7 +25587,7 @@
       <c r="CL182" s="35"/>
       <c r="CM182" s="35"/>
     </row>
-    <row r="183" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D183" s="23"/>
       <c r="E183" s="23"/>
       <c r="F183" s="23"/>
@@ -25622,7 +25634,7 @@
       <c r="CL183" s="35"/>
       <c r="CM183" s="35"/>
     </row>
-    <row r="184" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D184" s="23"/>
       <c r="E184" s="23"/>
       <c r="F184" s="23"/>
@@ -25669,7 +25681,7 @@
       <c r="CL184" s="35"/>
       <c r="CM184" s="35"/>
     </row>
-    <row r="185" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D185" s="23"/>
       <c r="E185" s="23"/>
       <c r="F185" s="23"/>
@@ -25716,7 +25728,7 @@
       <c r="CL185" s="35"/>
       <c r="CM185" s="35"/>
     </row>
-    <row r="186" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
       <c r="F186" s="23"/>
@@ -25763,7 +25775,7 @@
       <c r="CL186" s="35"/>
       <c r="CM186" s="35"/>
     </row>
-    <row r="187" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D187" s="23"/>
       <c r="E187" s="23"/>
       <c r="F187" s="23"/>
@@ -25810,7 +25822,7 @@
       <c r="CL187" s="35"/>
       <c r="CM187" s="35"/>
     </row>
-    <row r="188" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D188" s="23"/>
       <c r="E188" s="23"/>
       <c r="F188" s="23"/>
@@ -25857,7 +25869,7 @@
       <c r="CL188" s="35"/>
       <c r="CM188" s="35"/>
     </row>
-    <row r="189" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D189" s="23"/>
       <c r="E189" s="23"/>
       <c r="F189" s="23"/>
@@ -25904,7 +25916,7 @@
       <c r="CL189" s="35"/>
       <c r="CM189" s="35"/>
     </row>
-    <row r="190" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D190" s="23"/>
       <c r="E190" s="23"/>
       <c r="F190" s="23"/>
@@ -25951,7 +25963,7 @@
       <c r="CL190" s="35"/>
       <c r="CM190" s="35"/>
     </row>
-    <row r="191" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D191" s="23"/>
       <c r="E191" s="23"/>
       <c r="F191" s="23"/>
@@ -25998,7 +26010,7 @@
       <c r="CL191" s="35"/>
       <c r="CM191" s="35"/>
     </row>
-    <row r="192" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D192" s="23"/>
       <c r="E192" s="23"/>
       <c r="F192" s="23"/>
@@ -26045,7 +26057,7 @@
       <c r="CL192" s="35"/>
       <c r="CM192" s="35"/>
     </row>
-    <row r="193" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D193" s="23"/>
       <c r="E193" s="23"/>
       <c r="F193" s="23"/>
@@ -26092,7 +26104,7 @@
       <c r="CL193" s="35"/>
       <c r="CM193" s="35"/>
     </row>
-    <row r="194" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D194" s="23"/>
       <c r="E194" s="23"/>
       <c r="F194" s="23"/>
@@ -26139,7 +26151,7 @@
       <c r="CL194" s="35"/>
       <c r="CM194" s="35"/>
     </row>
-    <row r="195" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D195" s="23"/>
       <c r="E195" s="23"/>
       <c r="F195" s="23"/>
@@ -26186,7 +26198,7 @@
       <c r="CL195" s="35"/>
       <c r="CM195" s="35"/>
     </row>
-    <row r="196" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D196" s="23"/>
       <c r="E196" s="23"/>
       <c r="F196" s="23"/>
@@ -26233,7 +26245,7 @@
       <c r="CL196" s="35"/>
       <c r="CM196" s="35"/>
     </row>
-    <row r="197" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D197" s="23"/>
       <c r="E197" s="23"/>
       <c r="F197" s="23"/>
@@ -26280,7 +26292,7 @@
       <c r="CL197" s="35"/>
       <c r="CM197" s="35"/>
     </row>
-    <row r="198" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D198" s="23"/>
       <c r="E198" s="23"/>
       <c r="F198" s="23"/>
@@ -26327,7 +26339,7 @@
       <c r="CL198" s="35"/>
       <c r="CM198" s="35"/>
     </row>
-    <row r="199" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D199" s="23"/>
       <c r="E199" s="23"/>
       <c r="F199" s="23"/>
@@ -26374,7 +26386,7 @@
       <c r="CL199" s="35"/>
       <c r="CM199" s="35"/>
     </row>
-    <row r="200" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D200" s="23"/>
       <c r="E200" s="23"/>
       <c r="F200" s="23"/>
@@ -26421,7 +26433,7 @@
       <c r="CL200" s="35"/>
       <c r="CM200" s="35"/>
     </row>
-    <row r="201" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D201" s="23"/>
       <c r="E201" s="23"/>
       <c r="F201" s="23"/>
@@ -26468,7 +26480,7 @@
       <c r="CL201" s="35"/>
       <c r="CM201" s="35"/>
     </row>
-    <row r="202" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D202" s="23"/>
       <c r="E202" s="23"/>
       <c r="F202" s="23"/>
@@ -26515,7 +26527,7 @@
       <c r="CL202" s="35"/>
       <c r="CM202" s="35"/>
     </row>
-    <row r="203" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D203" s="23"/>
       <c r="E203" s="23"/>
       <c r="F203" s="23"/>
@@ -26562,7 +26574,7 @@
       <c r="CL203" s="35"/>
       <c r="CM203" s="35"/>
     </row>
-    <row r="204" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D204" s="23"/>
       <c r="E204" s="23"/>
       <c r="F204" s="23"/>
@@ -26609,7 +26621,7 @@
       <c r="CL204" s="35"/>
       <c r="CM204" s="35"/>
     </row>
-    <row r="205" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D205" s="23"/>
       <c r="E205" s="23"/>
       <c r="F205" s="23"/>
@@ -26656,7 +26668,7 @@
       <c r="CL205" s="35"/>
       <c r="CM205" s="35"/>
     </row>
-    <row r="206" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D206" s="23"/>
       <c r="E206" s="23"/>
       <c r="F206" s="23"/>
@@ -26703,7 +26715,7 @@
       <c r="CL206" s="35"/>
       <c r="CM206" s="35"/>
     </row>
-    <row r="207" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D207" s="23"/>
       <c r="E207" s="23"/>
       <c r="F207" s="23"/>
@@ -26750,7 +26762,7 @@
       <c r="CL207" s="35"/>
       <c r="CM207" s="35"/>
     </row>
-    <row r="208" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D208" s="23"/>
       <c r="E208" s="23"/>
       <c r="F208" s="23"/>
@@ -26797,7 +26809,7 @@
       <c r="CL208" s="35"/>
       <c r="CM208" s="35"/>
     </row>
-    <row r="209" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D209" s="23"/>
       <c r="E209" s="23"/>
       <c r="F209" s="23"/>
@@ -26844,7 +26856,7 @@
       <c r="CL209" s="35"/>
       <c r="CM209" s="35"/>
     </row>
-    <row r="210" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D210" s="23"/>
       <c r="E210" s="23"/>
       <c r="F210" s="23"/>
@@ -26891,7 +26903,7 @@
       <c r="CL210" s="35"/>
       <c r="CM210" s="35"/>
     </row>
-    <row r="211" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D211" s="23"/>
       <c r="E211" s="23"/>
       <c r="F211" s="23"/>
@@ -26938,7 +26950,7 @@
       <c r="CL211" s="35"/>
       <c r="CM211" s="35"/>
     </row>
-    <row r="212" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D212" s="23"/>
       <c r="E212" s="23"/>
       <c r="F212" s="23"/>
@@ -26985,7 +26997,7 @@
       <c r="CL212" s="35"/>
       <c r="CM212" s="35"/>
     </row>
-    <row r="213" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D213" s="23"/>
       <c r="E213" s="23"/>
       <c r="F213" s="23"/>
@@ -27032,7 +27044,7 @@
       <c r="CL213" s="35"/>
       <c r="CM213" s="35"/>
     </row>
-    <row r="214" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D214" s="23"/>
       <c r="E214" s="23"/>
       <c r="F214" s="23"/>
@@ -27079,7 +27091,7 @@
       <c r="CL214" s="35"/>
       <c r="CM214" s="35"/>
     </row>
-    <row r="215" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D215" s="23"/>
       <c r="E215" s="23"/>
       <c r="F215" s="23"/>
@@ -27126,7 +27138,7 @@
       <c r="CL215" s="35"/>
       <c r="CM215" s="35"/>
     </row>
-    <row r="216" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D216" s="23"/>
       <c r="E216" s="23"/>
       <c r="F216" s="23"/>
@@ -27173,7 +27185,7 @@
       <c r="CL216" s="35"/>
       <c r="CM216" s="35"/>
     </row>
-    <row r="217" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D217" s="23"/>
       <c r="E217" s="23"/>
       <c r="F217" s="23"/>
@@ -27220,7 +27232,7 @@
       <c r="CL217" s="35"/>
       <c r="CM217" s="35"/>
     </row>
-    <row r="218" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D218" s="23"/>
       <c r="E218" s="23"/>
       <c r="F218" s="23"/>
@@ -27267,7 +27279,7 @@
       <c r="CL218" s="35"/>
       <c r="CM218" s="35"/>
     </row>
-    <row r="219" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D219" s="23"/>
       <c r="E219" s="23"/>
       <c r="F219" s="23"/>
@@ -27314,7 +27326,7 @@
       <c r="CL219" s="35"/>
       <c r="CM219" s="35"/>
     </row>
-    <row r="220" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D220" s="23"/>
       <c r="E220" s="23"/>
       <c r="F220" s="23"/>
@@ -27361,7 +27373,7 @@
       <c r="CL220" s="35"/>
       <c r="CM220" s="35"/>
     </row>
-    <row r="221" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D221" s="23"/>
       <c r="E221" s="23"/>
       <c r="F221" s="23"/>
@@ -27408,7 +27420,7 @@
       <c r="CL221" s="35"/>
       <c r="CM221" s="35"/>
     </row>
-    <row r="222" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D222" s="23"/>
       <c r="E222" s="23"/>
       <c r="F222" s="23"/>
@@ -27455,7 +27467,7 @@
       <c r="CL222" s="35"/>
       <c r="CM222" s="35"/>
     </row>
-    <row r="223" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D223" s="23"/>
       <c r="E223" s="23"/>
       <c r="F223" s="23"/>
@@ -27502,7 +27514,7 @@
       <c r="CL223" s="35"/>
       <c r="CM223" s="35"/>
     </row>
-    <row r="224" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D224" s="23"/>
       <c r="E224" s="23"/>
       <c r="F224" s="23"/>
@@ -27549,7 +27561,7 @@
       <c r="CL224" s="35"/>
       <c r="CM224" s="35"/>
     </row>
-    <row r="225" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D225" s="23"/>
       <c r="E225" s="23"/>
       <c r="F225" s="23"/>
@@ -27596,7 +27608,7 @@
       <c r="CL225" s="35"/>
       <c r="CM225" s="35"/>
     </row>
-    <row r="226" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D226" s="23"/>
       <c r="E226" s="23"/>
       <c r="F226" s="23"/>
@@ -27643,7 +27655,7 @@
       <c r="CL226" s="35"/>
       <c r="CM226" s="35"/>
     </row>
-    <row r="227" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D227" s="23"/>
       <c r="E227" s="23"/>
       <c r="F227" s="23"/>
@@ -27690,7 +27702,7 @@
       <c r="CL227" s="35"/>
       <c r="CM227" s="35"/>
     </row>
-    <row r="228" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D228" s="23"/>
       <c r="E228" s="23"/>
       <c r="F228" s="23"/>
@@ -27737,7 +27749,7 @@
       <c r="CL228" s="35"/>
       <c r="CM228" s="35"/>
     </row>
-    <row r="229" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D229" s="23"/>
       <c r="E229" s="23"/>
       <c r="F229" s="23"/>
@@ -27784,7 +27796,7 @@
       <c r="CL229" s="35"/>
       <c r="CM229" s="35"/>
     </row>
-    <row r="230" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D230" s="23"/>
       <c r="E230" s="23"/>
       <c r="F230" s="23"/>
@@ -27831,7 +27843,7 @@
       <c r="CL230" s="35"/>
       <c r="CM230" s="35"/>
     </row>
-    <row r="231" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D231" s="23"/>
       <c r="E231" s="23"/>
       <c r="F231" s="23"/>
@@ -27878,7 +27890,7 @@
       <c r="CL231" s="35"/>
       <c r="CM231" s="35"/>
     </row>
-    <row r="232" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D232" s="23"/>
       <c r="E232" s="23"/>
       <c r="F232" s="23"/>
@@ -27925,7 +27937,7 @@
       <c r="CL232" s="35"/>
       <c r="CM232" s="35"/>
     </row>
-    <row r="233" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D233" s="23"/>
       <c r="E233" s="23"/>
       <c r="F233" s="23"/>
@@ -27972,7 +27984,7 @@
       <c r="CL233" s="35"/>
       <c r="CM233" s="35"/>
     </row>
-    <row r="234" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D234" s="23"/>
       <c r="E234" s="23"/>
       <c r="F234" s="23"/>
@@ -28019,7 +28031,7 @@
       <c r="CL234" s="35"/>
       <c r="CM234" s="35"/>
     </row>
-    <row r="235" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D235" s="23"/>
       <c r="E235" s="23"/>
       <c r="F235" s="23"/>
@@ -28066,7 +28078,7 @@
       <c r="CL235" s="35"/>
       <c r="CM235" s="35"/>
     </row>
-    <row r="236" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D236" s="23"/>
       <c r="E236" s="23"/>
       <c r="F236" s="23"/>
@@ -28113,7 +28125,7 @@
       <c r="CL236" s="35"/>
       <c r="CM236" s="35"/>
     </row>
-    <row r="237" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D237" s="23"/>
       <c r="E237" s="23"/>
       <c r="F237" s="23"/>
@@ -28160,7 +28172,7 @@
       <c r="CL237" s="35"/>
       <c r="CM237" s="35"/>
     </row>
-    <row r="238" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D238" s="23"/>
       <c r="E238" s="23"/>
       <c r="F238" s="23"/>
@@ -28207,7 +28219,7 @@
       <c r="CL238" s="35"/>
       <c r="CM238" s="35"/>
     </row>
-    <row r="239" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D239" s="23"/>
       <c r="E239" s="23"/>
       <c r="F239" s="23"/>
@@ -28254,7 +28266,7 @@
       <c r="CL239" s="35"/>
       <c r="CM239" s="35"/>
     </row>
-    <row r="240" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D240" s="23"/>
       <c r="E240" s="23"/>
       <c r="F240" s="23"/>
@@ -28301,7 +28313,7 @@
       <c r="CL240" s="35"/>
       <c r="CM240" s="35"/>
     </row>
-    <row r="241" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D241" s="23"/>
       <c r="E241" s="23"/>
       <c r="F241" s="23"/>
@@ -28348,7 +28360,7 @@
       <c r="CL241" s="35"/>
       <c r="CM241" s="35"/>
     </row>
-    <row r="242" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D242" s="23"/>
       <c r="E242" s="23"/>
       <c r="F242" s="23"/>
@@ -28395,7 +28407,7 @@
       <c r="CL242" s="35"/>
       <c r="CM242" s="35"/>
     </row>
-    <row r="243" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D243" s="23"/>
       <c r="E243" s="23"/>
       <c r="F243" s="23"/>
@@ -28442,7 +28454,7 @@
       <c r="CL243" s="35"/>
       <c r="CM243" s="35"/>
     </row>
-    <row r="244" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D244" s="23"/>
       <c r="E244" s="23"/>
       <c r="F244" s="23"/>
@@ -28489,7 +28501,7 @@
       <c r="CL244" s="35"/>
       <c r="CM244" s="35"/>
     </row>
-    <row r="245" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D245" s="23"/>
       <c r="E245" s="23"/>
       <c r="F245" s="23"/>
@@ -28536,7 +28548,7 @@
       <c r="CL245" s="35"/>
       <c r="CM245" s="35"/>
     </row>
-    <row r="246" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D246" s="23"/>
       <c r="E246" s="23"/>
       <c r="F246" s="23"/>
@@ -28583,7 +28595,7 @@
       <c r="CL246" s="35"/>
       <c r="CM246" s="35"/>
     </row>
-    <row r="247" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D247" s="23"/>
       <c r="E247" s="23"/>
       <c r="F247" s="23"/>
@@ -28630,7 +28642,7 @@
       <c r="CL247" s="35"/>
       <c r="CM247" s="35"/>
     </row>
-    <row r="248" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D248" s="23"/>
       <c r="E248" s="23"/>
       <c r="F248" s="23"/>
@@ -28677,7 +28689,7 @@
       <c r="CL248" s="35"/>
       <c r="CM248" s="35"/>
     </row>
-    <row r="249" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D249" s="23"/>
       <c r="E249" s="23"/>
       <c r="F249" s="23"/>
@@ -28724,7 +28736,7 @@
       <c r="CL249" s="35"/>
       <c r="CM249" s="35"/>
     </row>
-    <row r="250" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D250" s="23"/>
       <c r="E250" s="23"/>
       <c r="F250" s="23"/>
@@ -28771,7 +28783,7 @@
       <c r="CL250" s="35"/>
       <c r="CM250" s="35"/>
     </row>
-    <row r="251" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D251" s="23"/>
       <c r="E251" s="23"/>
       <c r="F251" s="23"/>
@@ -28818,7 +28830,7 @@
       <c r="CL251" s="35"/>
       <c r="CM251" s="35"/>
     </row>
-    <row r="252" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D252" s="23"/>
       <c r="E252" s="23"/>
       <c r="F252" s="23"/>
@@ -28865,7 +28877,7 @@
       <c r="CL252" s="35"/>
       <c r="CM252" s="35"/>
     </row>
-    <row r="253" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D253" s="23"/>
       <c r="E253" s="23"/>
       <c r="F253" s="23"/>
@@ -28912,7 +28924,7 @@
       <c r="CL253" s="35"/>
       <c r="CM253" s="35"/>
     </row>
-    <row r="254" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D254" s="23"/>
       <c r="E254" s="23"/>
       <c r="F254" s="23"/>
@@ -28959,7 +28971,7 @@
       <c r="CL254" s="35"/>
       <c r="CM254" s="35"/>
     </row>
-    <row r="255" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D255" s="23"/>
       <c r="E255" s="23"/>
       <c r="F255" s="23"/>
@@ -29006,7 +29018,7 @@
       <c r="CL255" s="35"/>
       <c r="CM255" s="35"/>
     </row>
-    <row r="256" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:91" x14ac:dyDescent="0.45">
       <c r="D256" s="23"/>
       <c r="E256" s="23"/>
       <c r="F256" s="23"/>
